--- a/Hindi_codebase_topics_directory/folderCode_for_generating300_to_450_words-in-hindi/multi_topic_articles_300_to_450_10.xlsx
+++ b/Hindi_codebase_topics_directory/folderCode_for_generating300_to_450_words-in-hindi/multi_topic_articles_300_to_450_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,16 +478,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>सुगंध चिकित्सा</t>
+          <t>संगीत चिकित्सा</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>सुगन्ध चिकित्सा (अरोमाथेरेपी) चिकित्सा के लिये  पौधों की सामग्रियों और सुगंधित पौधों के तेलों का उपयोग करती है, जिसमें आवश्यक तेल, और मनोवैज्ञानिक या शारीरिक कल्याण में सुधार के लिए अन्य सुगंध यौगिक शामिल हैं। इसे एक पूरक चिकित्सा या वैकल्पिक चिकित्सा के रूप में पेश किया जा सकता है। मानक उपचार के साथ पूरक चिकित्सा की पेशकश की जा सकती है, परंपरागत, सबूत-आधारित उपचारों की बजाय वैकल्पिक चिकित्सा की पेशकश की जाती है। अरोमाथेरेपिस्ट, जो अरोमाथेरेपी के अभ्यास में विशेषज्ञ हैं, चिकित्सीय आवश्यक तेलों के मिश्रणों का उपयोग करते हैं जिन्हें वांछित प्रतिक्रिया को उत्तेजित करने के लिए सामयिक अनुप्रयोग, मालिश, इनहेलेशन या पानी विसर्जन के माध्यम से जारी किया जा सकता है। अभी कोई अच्छा चिकित्सीय सबूत मौजूद नहीं है कि अरोमाथेरेपी या तो किसी भी बीमारी को रोक या ठीक कर सकती है, लेकिन यह सामान्य कल्याण में सुधार करने में मदद कर सकती है।</t>
+          <t>संगीत चिकित्सा सहबद्ध स्वास्थ्य व्यवसाय और वैज्ञानिक शोध का क्षेत्र है जो नैदानिक चिकित्सा और जैव-संगीत शास्त्र, संगीत ध्वनिकी, संगीत सिद्धांत, मनो-ध्वनिकी और तुलनात्मक संगीत शास्त्र की प्रक्रिया के बीच पारस्परिक संबंध का अध्ययन करता है। यह एक अंतर्वैयक्तिक प्रक्रिया है जिसमें एक प्रशिक्षित संगीत चिकित्सक, अपने मरीज़ों के स्वास्थ्य में सुधार या उनके स्वास्थ्य को बनाए रखने में मदद के लिए संगीत और उसके - यथा शारीरिक, भावनात्मक, मानसिक, सामाजिक, सौन्दर्यात्मक और आध्यात्मिक - सभी पहलुओं का उपयोग करता है। संगीत चिकित्सक परिमेय उपचार लक्ष्यों और उद्देश्यों को प्राप्त करने के लिए संगीतानुभव (जैसे कि गायन, गीत-लेखन, संगीत श्रवण और संगीत चर्चा, संगीत संचालन) के उपयोग द्वारा, मुख्य रूप से मरीज़ों की क्रियाशीलता और विविध क्षेत्रों (उदा. संज्ञानात्मक कार्य, संचालन कौशल, भावनात्मक और प्रभावी विकास, व्यवहार और सामाजिक कौशल) में जीवन की स्व-वर्णित गुणवत्ता को सुस्पष्ट स्तर तक विकसित करने में मदद करते हैं। संगीत चिकित्सा सेवाओं के लिए उपचार करने वाले चिकित्सक या चिकित्सकों, मनोविज्ञानियों, भौतिक चिकित्सकों और पेशेवर चिकित्सकों जैसे चिकित्सकों से युक्त अंतर्विभागीय दल द्वारा संगीत से संबद्ध सेवाएं निर्दिष्ट की जानी चाहिए.
+संगीत चिकित्सक लगभग सहायक व्यवसायों के सभी क्षेत्रों में पाए जाते हैं। कुछ सामान्य रूप से पाए गए व्यवहार में शामिल हैं विशेष ज़रूरतों वाले व्यक्तियों से जुड़े विकास कार्य (संप्रेषण, संचालन कौशल, आदि), गीत लेखन तथा वृद्ध व्यक्तियों के साथ संस्मरण/अभिविन्यास सुनने का कार्य, प्रसंस्करण और विश्राम कार्य, तथा आघात के शिकार लोगों के बीच उनके भौतिक पुनर्वास के लिए तालबद्ध मनोरंजन.
+तुर्की-फ़ारसी मनोवैज्ञानिक तथा संगीत सैद्धांतिक अल-फ़राबी (872–950) ने, जिन्हें यूरोप में "एल्फराबियस" के नाम से जाना जाता है, अपने निबंध मीनिंग ऑफ़ द इंटेलेक्ट में संगीत चिकित्सा का वर्णन किया है, जहां उन्होंनें आत्मा पर संगीत के उपचारात्मक प्रभाव की चर्चा की है। रॉबर्ट बर्टन ने अपनी 17वीं सदी की उत्कर्ष्ट कृति द एनॉटोमी ऑफ़ मेलैन्कोली में लिखा है कि संगीत तथा नृत्य मानसिक रोगों के उपचार के लिए काफी महत्वपूर्ण है, विशेष रूप से विषाद-रोग में.
+इसे एक सार्थक उपचार का माना जाता है।</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +501,52 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>सुगंध चिकित्सा</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>सुगन्ध चिकित्सा (अरोमाथेरेपी) चिकित्सा के लिये  पौधों की सामग्रियों और सुगंधित पौधों के तेलों का उपयोग करती है, जिसमें आवश्यक तेल, और मनोवैज्ञानिक या शारीरिक कल्याण में सुधार के लिए अन्य सुगंध यौगिक शामिल हैं। इसे एक पूरक चिकित्सा या वैकल्पिक चिकित्सा के रूप में पेश किया जा सकता है। मानक उपचार के साथ पूरक चिकित्सा की पेशकश की जा सकती है, परंपरागत, सबूत-आधारित उपचारों की बजाय वैकल्पिक चिकित्सा की पेशकश की जाती है। अरोमाथेरेपिस्ट, जो अरोमाथेरेपी के अभ्यास में विशेषज्ञ हैं, चिकित्सीय आवश्यक तेलों के मिश्रणों का उपयोग करते हैं जिन्हें वांछित प्रतिक्रिया को उत्तेजित करने के लिए सामयिक अनुप्रयोग, मालिश, इनहेलेशन या पानी विसर्जन के माध्यम से जारी किया जा सकता है। अभी कोई अच्छा चिकित्सीय सबूत मौजूद नहीं है कि अरोमाथेरेपी या तो किसी भी बीमारी को रोक या ठीक कर सकती है, लेकिन यह सामान्य कल्याण में सुधार करने में मदद कर सकती है।</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>148</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>जीन चिकित्सा</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>कोशिकाओं और ऊतकों में किसी जीन की प्रविष्टि कराकर किसी बीमारी की चिकित्सा करना जीन चिकित्सा है, जैसे कि वंशानुगत बीमारी को ठीक करने के लिए उसका कारण बनने वाले किसी घातक उत्परिवर्ती एलील को किसी क्रियाशील जीन से प्रतिस्थापित करना. हालांकि यह विवादास्पद है, लेकिन जीन चिकित्सा से किसी व्यक्ति का जीन समीकरण और कार्य बदल कर उसमें वांछित लक्ष्य की दिशा में मनचाहे बदलाव लाये जा सकते और इससे मानव का आनुवंशिक विकास किया जा सकता है। यद्यपि यह तकनीक अपनी प्रारंभिक अवस्था में है, इसके प्रयोग में कुछ सफलता प्राप्त हुई है और विज्ञान के क्षेत्र में इसने समस्याओं के कुछ नए और प्रभावी समाधान दिए हैं, जिनकी वजह से जीन चिकित्सा मुख्यधारा की चिकित्सा की और बढ़ती जा रही है। प्रतिसंवेदी उपचार सिर्फ और सिर्फ जीन चिकित्सा नहीं है, बल्कि ये आनुवंशिक-मध्यस्थता से चिकित्सा की पद्धति है जिसे अक्सर दूसरे तरीकों के साथ प्रयोग किया जाता है। 
+जीन चिकित्सा प्रक्रिया के लिए पहली बार लोगों की स्वीकृति पाने का रास्ता बहुत ही कठोर और विवादों से भरा हुआ था। मानव जीन चिकित्सा का विज्ञान बहुत जटिल है और इसमें कई तकनीकें ऐसी है जिन्हें अभी और विकसित किया जाना है, कई और रोग ऐसे हैं जिन्हें अभी पूरी तरह समझने की ज़रुरत है ताकि जीन चिकित्सा को सही ढंग से प्रयोग किया जा सके. आनुवंशिक रूप से अभियन्त्रित पदार्थ को मानव में संभावित प्रयोग किया जाना चाहिए या नहीं इस पर सार्वजनिक नीति क्या हो इस पर होने वाली बहस भी उतनी ही जटिल है। जीव विज्ञान, सरकार, कानून, चिकित्सा, दर्शन, राजनीति और धर्म- इन सभी क्षेत्रों से जुड़े लोग इस चर्चा का हिस्सा रहे हैं और सभी ने चर्चा में एक नया दृष्टिकोण सामने रखा है।[उद्धरण चाहिए]
+जीन को सीधे मानव कोशिकाओं में प्रवेश कराने का प्रयास कर वैज्ञानिकों ने एक तार्किक कदम उठाया. यह मुख्यतः केन्द्रित था ऐसी बीमारियों पर जो कि किसी एक ही जीन की गड़बड़ी से पैदा होती है, जैसे कि पूटीय तंतुशोथ, हीमोफिलिया, मांसपेशीय कुपोषण और सिकल सेल एनीमिया या अरक्तताहालाँकि, ये सामान्य बैक्टीरिया को संशोधित करने से कहीं ज्यादा कठिन है, प्राथमिक रूप से इसलिए क्योंकि डीएनए के बड़े-बड़े हिस्से लेकर उन्हें अपेक्षाकृत रूप से बड़े मानव जीनोम में सही जगह पर डालना काफी समस्या पूर्ण है।[उद्धरण चाहिए] आज, जीन चिकित्सा का ज़्यादातर ध्यान कैंसर और आनुवंशिक जीनीय बीमारियों पर केन्द्रित है।</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>383</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>वैकल्पिक चिकित्सा</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>"पूरक चिकित्सा" और "पूरक और वैकल्पिक चिकित्सा" यहां पुनर्निर्देशित होते हैं।'
 इंटरनेशनल बोर्ड आफ अलटरनेटीव मेडिसिन डायरेक्टर डा0 श्रीप्रकाश बरनवाल का कहना है कि
@@ -509,22 +554,22 @@
  या “ऐसी पद्धति जिसे एक समान रूप से कभी प्रभावी नहीं माना जाता.” इसे प्रायः साक्ष्य आधारित चिकित्सा पद्धति के रूप में देखा जाता है और इसमें वैज्ञानिक आधार के स्थान पर ऐतिहासिक या सांस्कृतिक उपचार पद्धतियां शामिल होती हैं। अमेरिका के नैशनल सेंटर फॉर कम्प्लीमेंटरी एंड ऑल्टरनेटिव मेडिसीन (National Center for Complementary and Alternative Medicine) (एनसीसीएएम) (NCCAM) ऐसे उदाहरणों का उल्लेख करता है, जिसमें अन्य पद्धतियों के अतिरिक्त प्राकृतिक चिकित्सा, पाद-चिकित्सा (chiropractic), जड़ी-बूटी चिकित्सा, पारंपरिक चीनी चिकित्सा पद्धति, आयुर्वेद, ध्यान, योग, जैवप्रतिपुष्टि, सम्मोहन, होम्योपैथी, एक्युपंक्चर और पोषण-आधारित उपचार-पद्धतियां शामिल हैं। इसे प्रायः पूरक चिकित्सा पद्धति के समूह में रखा जाता है, जिसका सामान्य अर्थ होता है, मुख्य धारा वाली तकनीकों के संयोजन में प्रयोग किए जाने वाले समान हस्तक्षेप, जिन्हें पूरक तथा वैकल्पिक चिकित्सा पद्धति या कैम (CAM) के तहत रखा जाता है। वैकल्पिक चिकित्सा पद्धति के कुछ अनुसंधानकर्ता इस समूहीकरण का विरोध करते हैं और इन विधियों के बीच अंतर स्थापित करना पसंद करते हैं, तथापि वे कैम (CAM) शब्द का प्रयोग करते हैं, जो मानक बन चुका है।</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C6" t="n">
         <v>217</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>प्राथमिक चिकित्सा किट</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>प्राथमिक चिकित्सा किट, आपूर्ति और उपकरणों का संग्रह है, जो प्राथमिक चिकित्सा के लिए प्रयुक्त होता है। प्राथमिक चिकित्सा किट विभिन्न सामग्रियों का बना होता है, जो इस पर निर्भर करता है कि किट को किसने संग्रहित किया और किस प्रयोजन से.
 सरकार और संगठनों द्वारा सुझाए गए विभिन्न परामर्शों या क़ानूनों के कारण भी इसमें प्रादेशिक विभिन्नताएं पाई जाती हैं।
@@ -542,84 +587,105 @@
 सामान्य सामग्रियों में रक्तस्राव रोकने में सहायक पट्टियां, CPR (हृत्फुफ्फुसीय पुनर्जीवन) को क्रियान्वित करने के लिए श्वसनरोध जैसी सामग्री और कुछ दवाइयां शामिल हो सकती हैं।</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C7" t="n">
         <v>238</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>यूयू तु</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>यूयू तु (चीनी भाषा: 屠呦呦; पिनयिन: Tú Yōuyōu; जन्म 30 दिसम्बर 1930) एक चीनी चिकित्सा वैज्ञानिक, औषधि रसायनज्ञ और शिक्षक हैं। उन्हें मुख्यतः आर्टिमीसिनिन और डाईहाइड्रोआर्टमिसिनीन (जिसे मलेरिया के इलाज के काम में लिया जाता है) की खोज के लिए जाना जाता है। यह चाइना एकेडेमी ऑफ़ ट्रेडिशनल चाइनीज़ मेडिसिन में प्रोफेसर हैं। इन्हें वर्ष २०१५ का चिकित्सा नोबल पुरस्कार प्राप्त हुआ है। ,</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C8" t="n">
         <v>64</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>एक्यूपंक्चर</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>एक्यूपंक्चर (acupuncture) दर्द से राहत दिलाने या चिकित्सा प्रयोजनों के लिए शरीर के विभिन्न बिंदुओं में सुई चुभाने और हस्तकौशल की प्रक्रिया है। एक्यूपंक्चर: दर्द से राहत दिलाने, शल्य-चिकित्सीय संज्ञाहरण प्रवृत्त करने और चिकित्सा प्रयोजनों के लिए शरीर के विशिष्ट क्षेत्रों की परिधीय नसों में सुई छेदने का चीनी अभ्यास।
+एक्यूपंक्चर का प्रारंभिक लिखित अभिलेख चीनी ग्रन्थ शिजी (史记, अंग्रेज़ी: रिकॉर्ड्स ऑफ़ द ग्रैंड हिस्टोरियन) ई॰पू॰ दूसरी सदी के उसके इतिहास में विस्तृत चिकित्सीय पाठ हुआंग्डी नेइजिंग (黄帝内经, अंग्रेज़ी: यल्लो एंपरर्स इनर कैनन) है। दुनिया भर में एक्यूपंक्चर के विभिन्न रूपों का अभ्यास किया जा रहा है और सिखाया जा रहा है। एक्यूपंक्चर 20वीं सदी के अंत से सक्रिय वैज्ञानिक अनुसंधान का विषय रहा है लेकिन यह परंपरागत चिकित्सा-शास्त्र के शोधकर्ताओं और नैदानिकों के बीच विवादास्पद रहा है। एक्यूपंक्चर उपचार की आक्रामक प्रकृति के कारण, समुचित वैज्ञानिक नियंत्रण का उपयोग करने वाला अध्ययन स्थापित करना मुश्किल है। कुछ विद्वानों की समीक्षाओं ने निष्कर्ष निकाला है कि एक इलाज के रूप में एक्यूपंक्चर की प्रभावशीलता को छद्म-औषध प्रभाव के माध्यम से बड़े पैमाने पर स्पष्ट किया जा सकता है, जबकि अन्य लोगों ने विशिष्ट दशाओं में उपचार की प्रभावकारिता का सुझाव दिया है। एक एक्यूपंक्चर चिकित्सक ने विश्व स्वास्थ्य संगठन के लिए एक्यूपंक्चर नैदानिक परीक्षणों की एक समीक्षा प्रकाशित की जिसमें निष्कर्ष निकाला गया कि वह कई दशाओं में उपचार के लिए प्रभावी है, लेकिन चिकित्सा वैज्ञानिकों द्वारा रिपोर्ट को ग़लत और भ्रामक होने के लिए स्पष्टतया आलोचना की गई। वैकल्पिक चिकित्सा ग्रंथों ने घोषित किया है कि विशेष एक्यूपंक्चर तकनीक स्नायविक दशाओं के उपचार और दर्द निवारण में प्रभावी हो सकती है, लेकिन इस तरह के दावों की कई वैज्ञानिकों ने पूर्वाग्रह और कमज़ोर पद्धतियों के प्रयोग द्वारा अध्ययन पर निर्भरता के लिए आलोचना की गई है। नेशनल सेंटर फ़ॉर कॉम्प्लिमेंटरी एंड ऑल्टरनेटिव मेडिसिन (NCCAM), अमेरिकन मेडिकल एसोसिएशन (AMA) और विभिन्न सरकारी रिपोर्टों ने एक्यूपंक्चर के प्रभाव (या इसकी कमी) का अध्ययन किया है और उस पर टिप्पणी की है। आम सहमति है कि जब रोगाणुहीन सुइयों का उपयोग करते हुए अच्छी तरह प्रशिक्षित चिकित्सकों द्वारा प्रयुक्त एक्यूपंक्चर सुरक्षित है और इस संबंध में अतिरिक्त अनुसंधान की ज़रूरत है।</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>349</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>प्रेमालाप</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>प्रेमालाप वह अवधि है जिसमें कुछ जोड़े संभावित विवाह या प्रतिबद्ध रोमांटिक, वास्तविक संबंध से पहले एक-दूसरे को जानते हैं। प्रेमालाप परंपरागत रूप से सगाई के बाद शुरू हो सकता है और विवाह के उत्सव के साथ समाप्त हो सकता है। प्रेमालाप दो लोगों के बीच एक अनौपचारिक और निजी मामला हो सकता है या एक सार्वजनिक मामला हो सकता है, या परिवार की स्वीकृति के साथ एक औपचारिक व्यवस्था हो सकती है। परंपरागत रूप से, एक औपचारिक सगाई के मामले में, एक महिला को सक्रिय रूप से "कोर्ट" या "वू" करने के लिए पुरुष की भूमिका होती है, इस प्रकार उसे उसे और शादी के प्रस्ताव के प्रति उसकी ग्रहणशीलता को समझने के लिए प्रोत्साहित किया जाता है।
 प्रेमालाप एक सामाजिक प्रथा के रूप में एक अपेक्षाकृत हाल की घटना है, जो केवल पिछली कुछ शताब्दियों में ही उभरी है। नृविज्ञान और समाजशास्त्र के दृष्टिकोण से, प्रेमालाप विवाह और परिवार जैसे अन्य संस्थानों से जुड़ा हुआ है, जो तेजी से बदल गए हैं, प्रौद्योगिकी और चिकित्सा में प्रगति के प्रभाव के अधीन हैं। जैसे-जैसे मानव समाज शिकारी-संग्रहकर्ताओं से सभ्य समाजों में विकसित हुआ है, लोगों के बीच संबंधों में पर्याप्त समायोजन हुआ है, यहां तक कि शेष जैविक अनिवार्यता के साथ कि एक महिला और पुरुष को मानव प्रजनन के लिए संभोग करना चाहिए ताकि इन विवो निषेचन को दरकिनार किया जा सके।</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C10" t="n">
         <v>224</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>अपच</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>अपच या अजीर्ण या बदहजमी (indigestion / dyspepsia) एक चिकित्सा संबंधी स्थिति है जिसकी विशेषता उदर के उपरी हिस्से में बार-बार होने वाला दर्द, ऊपरी उदर संबंधी पूर्णता और भोजन करने के समय अपेक्षाकृत पहले से ही पूर्ण महसूस करना है। इसके साथ सूजन, उबकाई, मिचली, या हृद्‌दाह (अम्लशूल) होता है। इसे 'पेट की गड़बड़' भी कहते हैं।
 अपच एक आम समस्या है और यह प्राय: जठरग्रासनलीपरक प्रतिस्पंदन बीमारी (GERD) या जठरशोथ के कारण होता है, लेकिन एक छोटी संख्या में लोगों में यह पेप्टिक अल्सर (उदर या ग्रहणी का फोड़ा या घाव) बीमारी और कभी-कभी कैंसर का प्रथम रोग लक्षण हो सकता है। इसलिए, 55 वर्ष से अधिक की आयु वाले लोगों में अस्पष्ट नए आक्रमण वाला अपच या अन्य खतरे के संकेत वाले लक्षणों की उपस्थिति की और अधिक जांच-पड़ताल की आवश्यकता है।</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C11" t="n">
         <v>135</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>आयुर्विज्ञान का इतिहास</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>सूत्रबद्ध विचारव्यंजन के हेतु आयुर्विज्ञान (मेडिसिन) के क्रमिक विकास को लक्ष्य में रखते हुए इसके इतिहास के तीन भाग किए जा सकते हैं :
 (1) आदिम आयुर्विज्ञान
@@ -627,84 +693,84 @@
 (3) अर्वाचीन आयुर्विज्ञान</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C12" t="n">
         <v>33</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>पारंपरिक हड्डी-सेटिंग</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>पारंपरिक हड्डी-सेटिंग एक प्रकार की लोक चिकित्सा है जिसमें चिकित्सक संयुक्त हेरफेर में लगे हुए हैं।  कायरोप्रैक्टर्स, ऑस्टियोपैथ और भौतिक चिकित्सक के आगमन से पहले, हड्डी-सेटर इस प्रकार के उपचार के मुख्य प्रदाता थे।  परंपरागत रूप से, वे स्वीकृत आधुनिक चिकित्सा प्रक्रियाओं में बिना किसी औपचारिक प्रशिक्षण के अभ्यास करते थे।  बोन-सेटर्स भी संयुक्त अव्यवस्थित हड्डी को ठीक करते है और हड्डी के फ्रैक्चर को "री-सेट" करते हैं।</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C13" t="n">
         <v>68</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>विश्वविद्यालय</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>विश्वविद्यालय या महाविद्यालय वह संस्था है जिसमें सभी प्रकार की विद्याओं की उच्च कोटि की शिक्षा दी जाती हो, परीक्षा ली जाती हो तथा लोगों को विद्या संबंधी उपाधियाँ आदि प्रदान की जाती हों। इसके अंतर्गत विश्वविद्यालय के मैदान, भवन, प्रभाग, तथा विद्यार्थियों का संगठन आदि भी सम्मिलित हैं।</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C14" t="n">
         <v>49</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>जैवप्रौद्योगिकी</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>जैवप्रौद्योगिकी या जैवतकनीकी, प्रौद्योगिकी का वो विषय है जो अभियान्त्रिकी और तकनीकी के डाटा और विधियों को जीवों और जीवन तन्त्रों से सम्बन्धित अध्ययन और समस्या के समाधान के लिये उपयोग करता है।  इसे रासायनिक अभियान्त्रिकी, रसायन शास्त्र या जीव विज्ञान में संबंधित माना जाता है। 
 जैवप्रौद्योगिकी, उत्पादों और सेवाओं के लिए जीवों, कोशिकाओं, उनके भागों और आणविक समधर्मों के अनुप्रयोग को प्राप्त करने के लिए प्राकृतिक विज्ञान और अभियान्त्रिकी विज्ञान  का एकीकरण है ।
 जैवप्रौद्योगिकी या आनुवंशिक अभियान्त्रिकी के माध्यम से चिकित्सीय प्रोटीन और अन्य दवाओं का उत्पादन है।</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C15" t="n">
         <v>90</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>अरहर दाल</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>अरहर की दाल को तुअर दाल  रहर दाल भी कहा जाता है। इसमें खनिज, कार्बोहाइड्रेट, लोहा, कैल्शियम आदि पर्याप्त मात्रा में पाया जाता है। यह सुगमता से पचने वाली दाल है, अतः रोगी को भी दी जा सकती है, परंतु गैस, कब्ज एवं साँस के रोगियों को इसका सेवन कम ही करना चाहिए। 
 भारत में अरहर की खेती तीन हजार वर्ष पूर्व से होती आ रही है किन्तु भारत के जंगलों में इसके पौधे नहीं पाये जाते है। अफ्रीका के जंगलों में इसके जंगली पौधे पाये जाते है। इस आधार पर इसका उत्पत्ति स्थल अफ्रीका को माना
@@ -713,105 +779,126 @@
 अरहर एक विलक्षण गुण सम्पन्न फसल है। इसका उपयोग अन्य दलहनी फसलों की तुलना में दाल के रूप में सर्वाधिक किया जाता है। इसके अतिरिक्त इसकी हरी फलियां सब्जी के लिये, खली चूरी पशुओं के लिए रातव, हरी पत्ती चारा के लिये तथा तना ईंधन, झोपड़ी और टोकरी बनाने के काम लाया जाता है। इसके पौधों पर लाख के कीट का पालन करके लाख भी बनाई जाती है। मांस की तुलना में इसमें प्रोटीन भी अधिक (21-26 प्रतिशत) पाई जाती है।</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C16" t="n">
         <v>244</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>डॉ. पंकज नरम</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>पंकज नरम (*4.मई 1955 मुंबई) एक भारतीय आयुर्वेदिक चिकित्सक थे जो अब नहीं रहे। 22 फरवरी 2020 को इनका देहांत हुआ। आयुर्वेद के क्षेत्र में इन्होंने बहुत कार्य किया। जिन्होनें टेलीविजन पर अपनी उपस्थिति द्वारा अंतरराष्ट्रीय प्रतिष्ठा प्राप्त की।</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C17" t="n">
         <v>39</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>पित्ताशय-उच्छेदन</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>पित्ताशय-उच्छेदन (Cholecystectomy) (उच्चारित/ˌkɒləsɪsˈtɛktəmi/, बहुवचन: cholecystectomies) पित्ताशय हटाने की शल्य-चिकित्सा है। यह लाक्षणिक पित्त-पथरियों के इलाज की सबसे आम विधि है। शल्य-चिकित्सा विकल्पों में शामिल हैं अंतर-उदर दर्शन (लैप्रोस्कोपिक) पित्ताशय-उच्छेदन नामक मानक प्रक्रिया और खुला पित्ताशय-उच्छेदन (ओपन कोलेसिस्टेक्टोमी) नामक पुरानी अधिक आक्रामक प्रक्रिया.</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>42</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>दार्जीलिंग चाय</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>दार्जीलिङ चाय भारत के पश्चिम बंगाल के दार्जीलिंग जिले से प्राप्त चाय को कहते हैं। यह चाय काली, हरी, सफेद तथा उलोङ रूप में उपलब्ध होती है।  जब इसे अच्छी तरह से पीसा जाता है, तो यह पुष्प सुगंध के साथ एक पतली शरीर वाली, हल्के रंग का जलसेक पैदा करता है। स्वाद में कसैले टैनिक विशेषताओं का एक समूह शामिल हो सकता है और कभी-कभी "मस्केल" के रूप में वर्णित एक मांसल स्पिकनेस होता है।
 अधिकांश भारतीय चाय के विपरीत, दार्जिलिंग चाय सामान्य रूप से कैमेलिया सिनेंसिस वेर के छोटे-छोटे चीनी प्रकार से बनाई जाती है। साइनेंसिस, बड़े-छंटे हुए असम के पौधे (सी। सिनेंसिस वर्। अस्मिका) के बजाय। परंपरागत रूप से, दार्जिलिंग चाय को काली चाय के रूप में बनाया जाता है; हालांकि, दार्जिलिंग ओलोंग और हरी चाय अधिक सामान्य रूप से उत्पादित और खोजने में आसान हो रही है, और बढ़ती संख्या में भी सफेद चाय का उत्पादन कर रहे हैं। 2003 में भौगोलिक संकेतक (पंजीकरण और संरक्षण अधिनियम, 1999) के अधिनियमन के लागू होने के बाद, 2004 में भारतीय पेटेंट कार्यालय के माध्यम से दार्जिलिंग चाय जीआई टैग प्राप्त करने वाला पहला भारतीय उत्पाद बन गया।</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C19" t="n">
         <v>189</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>कौमार्य</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>कौमार्य एक ऐसी अवस्था होती है जिसमें व्यक्ति ने कभी भी संभोग नहीं किया होता है। सांस्कृतिक और धार्मिक परंपराओं में विशेष रूप से अविवाहित महिलाओं, निजी पवित्रता के विचार के साथ जुड़े मामलों और मूल्यों आदि को विशेष मूल्य और महत्व दिया गया है। सतीत्व अथवा शुद्धता की तरह ही, कौमार्य की अवधारणा में भी परंपरागत रूप से शादी से पहले यौन संयम रखना शामिल है और शादी के बाद ही अपने जीवन साथी के साथ यौन क्रियाओं में संलग्न होना है।
 शादी से पहले संभोग, जो यौन गतिविधियों के एक से अधिक अवसर को इंगित करता है, इसके विपरीत, कौमार्य की अवधारणा को आम तौर पर नैतिक या धार्मिक मामलों या सामाजिक हैसियत के संदर्भ में और पारस्परिक संबंधों में परिणामों के रूप में देखा जा सकता है।
 शब्द मूल रूप से केवल यौन अनुभवहीन महिलाओं के लिए जाना जाता है, लेकिन विभिन्न परिभाषाओं की एक विस्तृत श्रृंखला शामिल है, जो इसे पारंपरिक, आधुनिक और नैतिक अवधारणाओं के रूप में परिभाषित करते हैं।</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C20" t="n">
         <v>165</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>संज्ञाहरणविज्ञानी</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>संज्ञाहरणविज्ञानी (( 'एनेस्थेटिस्ट' (ब्रिटिश अँग्रेजी), या 'एनेस्थेसीओलोजिस्ट ' (अमेरिकन अँग्रेजी)), उस चिकित्सक को कहते हैं जो संज्ञाहरण (anesthesia) और पराशल्य चिकित्सा (perioperative medicine ) का विशेषज्ञ हो। 
+वैसे इंग्लैंड में,  "निश्चेतक" की श्रेणी में दोनों तरह के चिकित्सक  सम्मिलित किए जाते हैं . यह श्रोत बतलाता है की 'निश्चेतक" वह विशेषज्ञ है जो प्रारंभिक चिकित्सा शिक्षा प्राप्त करने के बाद, निश्चय में किसी मान्यता प्राप्त पूर्णकालिक कार्यक्रम, जोकि सामान्यतः चार वर्षों का हो सकता है के द्वारा यह प्रवीणता प्राप्त करता है। निश्चेतना परिचारिका वह परिचारिका है जिसे निश्चेतना देने के लिए विशेष रूप से शिक्षित किया जाता है। यह शिक्षा 2-3 वर्षों की होती है और स्नातक होने के बाद दी जाती है। इन्हे किसी निश्चेतक के मार्गदर्शन में कार्य करना पड़ता है। निश्चेतक या तो स्वयं निश्चेतना दे सकता है या "निश्चेतक परिचारिका" या "निश्चेतक सहायक" के साथ एक समूह बनाकर।</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>143</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>आलब्रेख्ट थेर</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>आलब्रेख्ट थेर (Albrecht Daniel Thaer ; सन् १७५२ - १८२८), जर्मनी के सुविख्यात कृषिवेत्ता, आचार्य एवं लेखक थे।
 आलब्रेख्ट का जन्म सेले (Celle) नामक स्थान में हुआ। १८ वर्ष की अवस्था में इन्होंने चिकित्सा की पढ़ाई के लिये गॉटिंजन विश्वविद्यालय में प्रवेश किया और परीक्षा के बाद सेले में ही रहने लगे। सन् १७७८ में सेले स्थित रॉयल ऐग्रिकल्चरल सोसायटी के सदस्य चुने गए तथा अपने अवकाश के क्षणों को कृषि संबंधी अनुसंधानों में लगाने लगे। सन् १८०२ में इन्होंने अपनी समस्त संपत्ति कृषि विद्यालय में लगा दी। यह अपनी कोटि का प्रथम विद्यालय था, जिसमें थेर कृषि पर व्याख्यान भी देते थे। सन् १८०४ में ये प्रिवी काउंसिलर, बर्लिन ऐकैडेमी ऑव सायंसेज़ के सदस्य तथा मोगलिन स्थित, नवीन स्टेट ऐग्रिकल्चरल इंस्टिट्यूट के प्रधान के पद पर नियुक्त हुए।
@@ -819,89 +906,8 @@
 थेर ने फसलों के हेर फेर द्वारा फसलों में आशातीत वृद्धि प्राप्त की और ऊन की प्राप्ति के लिये मरीना (merino) भेड़ों की नस्ल में सुधार किए। आचार्य एवं लेखक के रूप में भी थेर का नाम अमर रहेगा। ये नवनिर्मित बर्लिन विश्वविद्यालय के भी प्रोफेसर नियुक्त हुए और मोगलिन स्थित इनका कृषि विद्यालय रॉयल ऐकैडेमी बना दिया गया। एक ओर जहाँ इनकी शिक्षाओं से लाभ हुआ वहीं इनकी शिक्षाओं से एक हानि भी हुई। इनके द्वारा परंपरागत कतिपय रूढ़ियों को प्रधानता मिली, जिससे कृषिरसायन की उन्नति में बाधा पहुँची।</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C22" t="n">
         <v>265</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>संज्ञाहरणविज्ञानी</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>संज्ञाहरणविज्ञानी (( 'एनेस्थेटिस्ट' (ब्रिटिश अँग्रेजी), या 'एनेस्थेसीओलोजिस्ट ' (अमेरिकन अँग्रेजी)), उस चिकित्सक को कहते हैं जो संज्ञाहरण (anesthesia) और पराशल्य चिकित्सा (perioperative medicine ) का विशेषज्ञ हो। 
-वैसे इंग्लैंड में,  "निश्चेतक" की श्रेणी में दोनों तरह के चिकित्सक  सम्मिलित किए जाते हैं . यह श्रोत बतलाता है की 'निश्चेतक" वह विशेषज्ञ है जो प्रारंभिक चिकित्सा शिक्षा प्राप्त करने के बाद, निश्चय में किसी मान्यता प्राप्त पूर्णकालिक कार्यक्रम, जोकि सामान्यतः चार वर्षों का हो सकता है के द्वारा यह प्रवीणता प्राप्त करता है। निश्चेतना परिचारिका वह परिचारिका है जिसे निश्चेतना देने के लिए विशेष रूप से शिक्षित किया जाता है। यह शिक्षा 2-3 वर्षों की होती है और स्नातक होने के बाद दी जाती है। इन्हे किसी निश्चेतक के मार्गदर्शन में कार्य करना पड़ता है। निश्चेतक या तो स्वयं निश्चेतना दे सकता है या "निश्चेतक परिचारिका" या "निश्चेतक सहायक" के साथ एक समूह बनाकर।</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>143</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>जयपुर-वैभवम</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>जयपुरवैभवम्, भट्ट मथुरानाथ शास्त्री (23 मार्च 1889 - 4 जून 1964) द्वारा भारत की स्वाधीनता से तत्काल पूर्व सन 1947 में 476 पृष्ठों में प्रकाशित एक काव्य-ग्रन्थ है। जो जयपुर के नगर-सौंदर्य, दर्शनीय स्थानों, देवालयों, मार्गों, उद्यानों, सम्मानित नागरिकों, उत्सवों, यहाँ की कविता-परम्परा और प्रमुख त्योहारों आदि पर केन्द्रित है</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>50</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>गुड़हल</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>गुड़हल या जवाकुसुम वृक्षों के मालवेसी परिवार से संबंधित एक फूलों वाला पौधा है। इसका वनस्पतिक नाम है- हीबीस्कूस् रोज़ा साइनेन्सिस। इस परिवार के अन्य सदस्यों में कोको, कपास, भिंडी और गोरक्षी आदि प्रमुख हैं। यह विश्व के समशीतोष्ण, उष्णकटिबंधीय और अर्द्ध उष्णकटिबंधीय क्षेत्रों में पाया जाता है। गुडहल जाति के वृक्षों की लगभग २००–२२० प्रजातियाँ पाई जाती हैं, जिनमें से कुछ वार्षिक तथा कुछ बहुवार्षिक होती हैं। साथ ही कुछ झाड़ियाँ और छोटे वृक्ष भी इसी प्रजाति का हिस्सा हैं। गुड़हल की दो विभिन्न प्रजातियाँ मलेशिया तथा दक्षिण कोरिया की राष्ट्रीय पुष्प के रूप में स्वीकार की गई हैं।</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>100</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>यूरोपीय क्रिकेट परिषद</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>यूरोपीय क्रिकेट परिषद (ईसीसी) एक अंतरराष्ट्रीय संस्था है जो इंग्लैंड और वेल्स के टेस्ट खेलने वाले क्रिकेट खेलने वाले देश की तुलना में अन्य यूरोपीय देशों में क्रिकेट की देखरेख है।</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>31</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -912,16 +918,16 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>मैकरोसायकिल</t>
+          <t>जयपुर-वैभवम</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>एक macrocycle है, के रूप में द्वारा परिभाषित आईयूपीएसी, "एक चक्रीय macromolecule या एक macromolecular चक्रीय हिस्से के एक अणु है." में रासायनिक साहित्य, macrocycles varyingly शामिल अणुओं युक्त छल्ले के 8 या अधिक परमाणुओं, या 12 या अधिक परमाणुओं. अच्छी तरह से ज्ञात उदाहरण हैं, के रूप में जाना जाता दवाओं macrolides. के आईयूपीएसी परिभाषा नोट है कि एक "चक्रीय macromolecule कोई अंत नहीं है-समूहों लेकिन हो सकता है फिर भी माना जा सकता है एक श्रृंखला के रूप में," और है कि "macrocycle है कभी कभी इस्तेमाल किया [साहित्य में] के लिए अणुओं की कम सापेक्ष आणविक जन नहीं कर रहे हैं कि माना जाता अणुओं. कई macrocycles के रूप में कार्यरत हैं macrocyclic ligands.</t>
+          <t>जयपुरवैभवम्, भट्ट मथुरानाथ शास्त्री (23 मार्च 1889 - 4 जून 1964) द्वारा भारत की स्वाधीनता से तत्काल पूर्व सन 1947 में 476 पृष्ठों में प्रकाशित एक काव्य-ग्रन्थ है। जो जयपुर के नगर-सौंदर्य, दर्शनीय स्थानों, देवालयों, मार्गों, उद्यानों, सम्मानित नागरिकों, उत्सवों, यहाँ की कविता-परम्परा और प्रमुख त्योहारों आदि पर केन्द्रित है</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -932,16 +938,16 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>स्पा</t>
+          <t>गुड़हल</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>'डा0 श्री प्रकाश बरनवाल राष्ट्रीय अध्यक्ष प्रबुद्ध सोसाइटी का कहना है कि स्पा शब्द जल चिकित्सा से जुड़ा हुआ है, जिसे स्नान चिकित्सा के रूप में भी जाना जाता है। स्पा शहर या स्पा सैरगाह (रिजॉर्ट्स) (गर्म पानी के झरने वाली सैरगाहों सहित) आमतौर विभिन्न स्वास्थ्य उपचारों की पेशकश करते हैं। प्रागैतिहासिक काल से ही यह विश्वास किया जाता है कि खनिज जल में शरीर का उपचार करने की शक्तियां मौजूद होती हैं। इस तरह के व्यवहार दुनिया भर में लोकप्रिय हैं, लेकिन विशेष रूप से यूरोप और जापान में इसका व्यापक प्रसार हैं। दिवस स्पा भी काफी लोकप्रिय हैं और इससे विभिन्न व्यक्तिगत देखभाल उपचार की पेशकश की जाती है।</t>
+          <t>गुड़हल या जवाकुसुम वृक्षों के मालवेसी परिवार से संबंधित एक फूलों वाला पौधा है। इसका वनस्पतिक नाम है- हीबीस्कूस् रोज़ा साइनेन्सिस। इस परिवार के अन्य सदस्यों में कोको, कपास, भिंडी और गोरक्षी आदि प्रमुख हैं। यह विश्व के समशीतोष्ण, उष्णकटिबंधीय और अर्द्ध उष्णकटिबंधीय क्षेत्रों में पाया जाता है। गुडहल जाति के वृक्षों की लगभग २००–२२० प्रजातियाँ पाई जाती हैं, जिनमें से कुछ वार्षिक तथा कुछ बहुवार्षिक होती हैं। साथ ही कुछ झाड़ियाँ और छोटे वृक्ष भी इसी प्रजाति का हिस्सा हैं। गुड़हल की दो विभिन्न प्रजातियाँ मलेशिया तथा दक्षिण कोरिया की राष्ट्रीय पुष्प के रूप में स्वीकार की गई हैं।</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -952,16 +958,16 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>बिरला प्रौद्योगिकी संस्थान</t>
+          <t>यूरोपीय क्रिकेट परिषद</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>बिरला प्रौद्योगिकी संस्थान मेसरा (अंग्रेज़ी: Birla Institute of Technology Mesra ; जो बीआईटी मेसरा  या बीआईटी राँची के नाम से भी प्रसिद्ध है) झारखंड के राँची में स्थित भारत का अग्रणी स्वायत्त अभियांत्रिकी और प्रौद्योगिकी उन्मुख संस्थान है। इसे विश्वविद्यालय अनुदान आयोग अधिनियम १९५६ के अनुभाग ३ के तहत एक डीम्ड विश्वविद्यालय का दर्ज़ा हासिल है। मुख्य परिसर के अतिरिक्त लालपुर (रांची), इलाहाबाद, कोलकाता, नोएडा, जयपुर, चेन्नई, पटना और देवघर में बीआईटी के भारतीय विस्तार पटल हैं। इनके अतिरिक्त बहरीन, मस्कट, संयुक्त अरब अमीरात और मॉरिशस में बीआईटी के अंतरराष्ट्रीय केंद्र हैं। जून २००५ में एसी निलसन एवं इंडिया टुडे द्वारा किये गये एक सर्वेक्षण के अनुसार इसे देश के दस श्रेष्ठ तकनीकी संस्थानों में शुमार किया गया था।</t>
+          <t>यूरोपीय क्रिकेट परिषद (ईसीसी) एक अंतरराष्ट्रीय संस्था है जो इंग्लैंड और वेल्स के टेस्ट खेलने वाले क्रिकेट खेलने वाले देश की तुलना में अन्य यूरोपीय देशों में क्रिकेट की देखरेख है।</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -972,51 +978,250 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>रिफ्लेक्सोलॉजी</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>रिफ्लेक्सोलॉजी (क्षेत्र चिकित्सा) एक वैकल्पिक चिकित्सा है, पूरक या इलाज की एकीकृत चिकित्सा विधि है जिसमें बिना तेल या लोशन का इस्तेमाल किये विशिष्ट अंगूठे, अंगुली और हस्त तकनीक द्वारा पैर और हाथ पर दबाव डाला जाता है। रिफ्लेक्सोलॉजिस्ट का दावा है कि यह ज़ोन और रिफ्लेक्स क्षेत्र की प्रणाली पर आधारित है, जहां वे कहते हैं कि पैर और हाथ पर शरीर की एक छवि प्रतिबिंबित होती है, जो इस आधार पर है कि इस तरह के कार्य शरीर में एक शारीरिक बदलाव लाते हैं। यादृच्छिक नियंत्रित परीक्षण की 2009 की एक व्यवस्थित समीक्षा ने यह निष्कर्ष दिया कि "आज तक का उपलब्ध सबसे अच्छा सबूत ठोस रूप से यह प्रदर्शित नहीं करता कि रिफ्लेक्सोलॉजी किसी चिकित्सा स्थिति के उपचार के लिए प्रभावी है".
+कनाडा का रिफ्लेक्सोलॉजी एसोसिएशन, रिफ्लेक्सोलॉजी को परिभाषित करता है:
+"एक प्राकृतिक चिकित्सा कला जो इस सिद्धांत पर आधारित है कि पैर, हाथ, कान और ज़ोन के भीतर उनसे संबंधित क्षेत्रों में रिफ्लेक्स होते हैं, जो शरीर के हर हिस्से, ग्रंथि और अंगों से सम्बंधित होते हैं। इन रिफ्लेक्सेस पर उपकरणों, क्रीम या लोशन के बिना उपयोग के दबाव के माध्यम से रिफ्लेक्सोलॉजी तनाव को कम करता है, परिसंचरण में सुधार लाता है और शरीर के संबंधित क्षेत्रों के प्राकृतिक कार्य को बढ़ावा देने में मदद करता है, जहां इसके प्रयोग का प्राथमिक क्षेत्र पैर होता है।"
+इस बात पर रिफ्लेक्सोलॉजिस्ट में कोई आम सहमति नहीं है कि रिफ्लेक्सोलॉजी किस तरह काम करती है; एकीकृत विचार इस विषय पर है कि पैरों के क्षेत्र, शरीर के क्षेत्रों से संबंधित हैं और इन क्षेत्रों के साथ क्रिया करते हुए एक व्यक्ति अपने क्यूई के माध्यम से स्वास्थ्य में सुधार कर सकता है। रिफ्लेक्सोलॉजिस्ट कहते हैं कि शरीर दस बराबर ऊर्ध्वाधर क्षेत्र में विभाजित है, जो दांए की ओर पांच और बांए की ओर पांच स्थित है। साथ ही तीन अनुप्रस्थ लाइनें भी होती हैं, जिसमें कंधा कमरपेटी का ऊपरी भाग, कमर और पैल्विक तल शामिल है।
+चिकित्सा पेशेवरों द्वारा यह चिंता व्यक्ति की गई है कि रिफ्लेक्सोलॉजी, जिसकी प्रभावकारिता सिद्ध नहीं है, द्वारा संभावित गंभीर बीमारियों का उपचार करने से उपयुक्त चिकित्सा उपचार प्राप्त करने में देरी हो सकती है। रिफ्लेक्सोलॉजिस्ट द्वारा रिफ्लेक्सोलॉजी को एक पूरक चिकित्सा के रूप में प्रस्तावित किया गया है और इससे चिकित्सा उपचार को प्रतिस्थापित नहीं किया जाना चाहिए.
+रिफ्लेक्सोलॉजी की प्रभावकारिता की एक व्यवस्थित समीक्षा के एक अध्ययन में पाया गया कि एकाधिक काठिन्य रोगियों में मूत्र लक्षणों के उपचार में महत्वपूर्ण प्रभाव को देखा गया है। इस अध्ययन में अन्य सभी स्थितियों की समीक्षा में कोई विशेष प्रभाव का कोई सबूत नहीं दिखाया गया।</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>424</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>मनोचिकित्सा</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>किसी मनोचिकित्सक द्वारा किसी मानसिक रोगी के साथ सम्बन्धपूर्वक बातचीत एवं सलाह मनोचिकित्सा या मनश्चिकित्सा (Psychotherapy) कहलाती है। यह लोगों की व्यवहार सम्बन्धी विविध समस्याओं में बहुत उपयोगी होती है। मनोचिकित्सक कई तरह की तकनीकें प्रयोग करते हैं, जैसे- प्रायोगिक सम्बन्ध-निर्माण, संवाद, संचार तथा व्यवहार-परिवर्तन आदि। इनसे रोगी का मानसिक-स्वास्थ्य एवं सामूहिक-सम्बन्ध (group relationships) सुधरते हैं।
+डॉ॰ विक्टर फ्रैंकलिन ने गहन अध्ययन के बाद यह निष्कर्ष निकाला कि पूरा मनोविज्ञान और मनोचिकित्सा की पद्धति जीवन की सार्थकता के विचार पर ही आधारित होती हैं। मनोचिकित्सा शास्त्र में किसी रोगी की बुनियादी दिक्कतों को समझने की कोशिश की जाती है। प्रबुद्ध सोसाइटी रामवृक्ष धाम नेचुआ जलालपुर गोपालगंज बिहार के अध्यक्ष डा0 श्रीप्रकाश बरनवाल का कहना है कि आधुनिक समाज में हम वास्तविक खुशियों से दूर होते जा रहे हैं तथा सयुंक्त परिवार की अवधारणा लुप्त होती जा रही है एवं एकल परिवार वाद का बोल बाला का प्रचलन बढता जा रहा है आज हमलोग आधुनिकता का सही मतलब  नहीं समझते हैं। जीवन के लिए क्या और कितना जरूरी है। क्या गैर-जरूरी है। आंख मूंद कर, तर्क किए बगैर हम चीजों का अनुसरण करने लग जाते हैं। जीवन का लुत्फ उठाना और पीड़ा की उपेक्षा करना ही केवल मनुष्य को प्रेरित नहीं करती है। 
+मनोचिकित्सा या एक मनोचिकित्सक के साथ व्यक्तिगत परामर्श, एक साभिप्राय अंतर्वैयक्तिक सम्बन्ध होता है, जिसका प्रयोग प्रशिक्षित मनोचिकित्सक एक ग्राहक या रोगी की जीवनयापन संबंधी समस्याओं के निवारण में सहायता के लिए करते हैं। 
+इसका उद्देश्य किसी व्यक्ति में अपने कल्याण के प्रति भावना को बढाना होता है। मनोचिकित्सक अनुभवजनित सम्बन्ध निर्माण, संवाद, संचार और व्यवहार पर आधारित तकनीकों की एक विस्तृत श्रंखला का प्रयोग करते हैं, इन तकनीकों की संरचना ग्राहक या रोगी के मानसिक स्वास्थ अथवा समूह के साथ उसके व्यवहार में सुधार करने वाली होती है, (जैसे परिवार में रोगी का व्यवहार).
+मनोचिकित्सा भिन्न प्रकार की योग्यताओं से युक्त चिकित्सकों द्वारा अभ्यास में लायी जा सकती है, जिसमे मनोरोग चिकित्सा, नैदानिक मनोविज्ञान, सलाहात्मक मनोविज्ञान, मानसिक स्वास्थ संबंधी परामर्श, नैदानिक या मनोरोग संबंधी सामाजिक कार्य, विवाह और परिवार संबंधी मनोचिकित्सा, पुनर्सुधार परामर्श, संगीत मनोचिकित्सा, व्यवसाय संबंधी मनोचिकित्सा, मनोरोग संबंधी परिचर्या, मनोविश्लेषण और अन्य सम्मिलित हैं। यह अधिकार क्षेत्र के आधार पर वैध रूप से नियमित, ऐच्छिक रूप से नियमित या अनियमित हो सकता है।</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>368</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>मैकरोसायकिल</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>एक macrocycle है, के रूप में द्वारा परिभाषित आईयूपीएसी, "एक चक्रीय macromolecule या एक macromolecular चक्रीय हिस्से के एक अणु है." में रासायनिक साहित्य, macrocycles varyingly शामिल अणुओं युक्त छल्ले के 8 या अधिक परमाणुओं, या 12 या अधिक परमाणुओं. अच्छी तरह से ज्ञात उदाहरण हैं, के रूप में जाना जाता दवाओं macrolides. के आईयूपीएसी परिभाषा नोट है कि एक "चक्रीय macromolecule कोई अंत नहीं है-समूहों लेकिन हो सकता है फिर भी माना जा सकता है एक श्रृंखला के रूप में," और है कि "macrocycle है कभी कभी इस्तेमाल किया [साहित्य में] के लिए अणुओं की कम सापेक्ष आणविक जन नहीं कर रहे हैं कि माना जाता अणुओं. कई macrocycles के रूप में कार्यरत हैं macrocyclic ligands.</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>117</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>हर्बलिज्म (जड़ी-बूटी चिकित्सा)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>हर्बलिज्म अर्थात जड़ी-बूटी संबंधी सिद्धांत, वनस्पतियों और वनस्पति सारों के उपयोग पर आधारित एक पारंपरिक औषधीय या लोक दवा का अभ्यास है। हर्बलिज्म को वनस्पतिक दवा, चिकित्सकीय वैद्यकी, जड़ी-बूटी औषध, वनस्पति शास्त्र और पादपोपचार के रूप में भी जाना जाता है। जड़ी-बूटी या वानस्पतिक दवा में कभी-कभी फफुंदीय या कवकीय तथा मधुमक्खी उत्पादों, साथ ही खनिज, शंख-सीप और कुछ प्राणी अंगों को भी शामिल कर लिया जाता है। प्राकृतिक स्रोतों से व्युत्पन्न दवाओं के अध्ययन को भेषज-अभिज्ञान (Pharmacognosy) कहते हैं।
+दवाओं के पारंपरिक उपयोग को संभावित भावी दवाओं के बारे में सीखने के एक मार्ग के रूप में मान्यता मिली हुई है। 2001 में, शोधकर्ताओं ने मुख्यधारा की दवा के रूप में उपयोग किये जाने वाले ऐसे 122 यौगिकों की पहचान की जिनकी व्युत्पत्ति "एथनोमेडिकल" (नृजाति-चिकित्सा) वनस्पति स्रोतों से हुआ था; इन यौगिकों का 80% उसी या संबंधित तरीके से पारंपरिक नृजाति-चिकित्सा के रूप में उपयोग होता रहा था।
+अनेक वनस्पतियां ऐसे सार तत्वों का संश्लेषण करती हैं जो मनुष्य तथा अन्य प्राणियों के स्वास्थ्य के रखरखाव के लिए उपयोगी होते हैं। इनमें सुरभित सार शामिल हैं, जिनके अधिकांश फिनोल (कार्बोनिक एसिड) या उनके ऑक्सीजन-स्थानापन्न व्युत्पादित, जैसे कि टैनिन (वृक्ष की छाल का क्षार), होते हैं। अनेक गौण चयापचयी होते हैं, जिनमे से कम से कम 12,000 अलग-थलग कर दिए गये हैं - अनुमान के अनुसार यह संख्या कुल का 10% से भी कम है। कई मामलों में, एल्कालोइड्स जैसे सार पदार्थ सूक्ष्म जीवों, कीड़े-मकोड़ों और शाकाहारी प्राणियों की लूट-खसोट से पेड़-पौधे के सुरक्षा तंत्र के रूप में काम करते हैं। भोजन को स्वादिष्ट बनाने के लिए मनुष्य द्वारा उपयोग में लाये जाने वाली अनेक जड़ी-बूटी और मसालों में उपयोगी औषधीय यौगिक हुआ करते हैं।
+डॉक्टर के नुस्खे की दवा की ही तरह, अनेक जड़ी-बूटियों के प्रतिकूल प्रभाव की संभावना रहती है। इसके अलावा, "मिलावट, अनुपयुक्त सूत्रीकरण, या वनस्पति और दवा की अन्तःक्रिया के बारे में समझ की कमी से प्रतिकूल प्रतिक्रियाएं हो सकती हैं जो कभी-कभी जीवन के लिए लिए खतरा या घातक बन सकती हैं"..</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>327</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>महाभारत</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>महाभारत भारत का एक प्रमुख काव्य ग्रंथ है, जो स्मृति के इतिहास वर्ग में आता है। इसे भारत भी कहा जाता है। यह काव्यग्रंथ भारत का अनुपम धार्मिक, पौराणिक, ऐतिहासिक और दार्शनिक ग्रंथ हैं। विश्व का सबसे लंबा यह साहित्यिक ग्रंथ और महाकाव्य, हिन्दू धर्म के मुख्यतम ग्रंथों में से एक है। इस ग्रन्थ को हिन्दू धर्म में पंचम वेद माना जाता है। यद्यपि इसे साहित्य की सबसे अनुपम कृतियों में से एक माना जाता है, किन्तु आज भी यह ग्रंथ प्रत्येक भारतीय के लिये एक अनुकरणीय स्रोत है। यह कृति प्राचीन भारत के इतिहास की एक गाथा है। इसी में हिन्दू धर्म का पवित्रतम ग्रंथ भगवद्गीता सन्निहित है। पूरे महाभारत में लगभग १,१०,००० श्लोक हैं, जो यूनानी काव्यों इलियड और ओडिसी से परिमाण में दस गुणा अधिक हैं।
+परंपरागत रूप से, महाभारत की रचना का श्रेय वेदव्यास को दिया जाता है। इसकी ऐतिहासिक वृद्धि और संरचनागत परतों को जानने के लिए कई प्रयास किए गए हैं। महाभारत के थोक को शायद तीसरी शताब्दी ईसा पूर्व और तीसरी शताब्दी के बीच संकलित किया गया था, जिसमें सबसे पुराने संरक्षित भाग ४०० ईसा पूर्व से अधिक पुराने नहीं थे। महाकाव्य से संबंधित मूल घटनाएँ संभवतः 9 वीं और 8 वीं शताब्दी ईसा पूर्व के बीच की हैं। पाठ संभवत: प्रारंभिक गुप्त राजवंश(c. ४ वीं शताब्दी सीई) द्वारा अपने अंतिम रूप में पहुंच गया। महाभारत के अनुसार, कथा को २४,००० श्लोकों के एक छोटे संस्करण से विस्तारित किया जाता है, जिसे केवल भारत कहा जाता है। हिन्दू मान्यताओं, पौराणिक संदर्भो एवं स्वयं महाभारत के अनुसार इस काव्य का रचनाकार वेदव्यास जी को माना जाता है। इस काव्य के रचयिता वेदव्यास जी ने अपने इस अनुपम काव्य में वेदों, वेदांगों और उपनिषदों के गुह्यतम रहस्यों का निरुपण किया हैं। इसके अतिरिक्त इस काव्य में न्याय, शिक्षा, चिकित्सा, ज्योतिष, युद्धनीति, योगशास्त्र, अर्थशास्त्र, वास्तुशास्त्र, शिल्पशास्त्र, कामशास्त्र, खगोलविद्या तथा धर्मशास्त्र का भी विस्तार से वर्णन किया गया हैं।</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>312</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>स्पा</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>'डा0 श्री प्रकाश बरनवाल राष्ट्रीय अध्यक्ष प्रबुद्ध सोसाइटी का कहना है कि स्पा शब्द जल चिकित्सा से जुड़ा हुआ है, जिसे स्नान चिकित्सा के रूप में भी जाना जाता है। स्पा शहर या स्पा सैरगाह (रिजॉर्ट्स) (गर्म पानी के झरने वाली सैरगाहों सहित) आमतौर विभिन्न स्वास्थ्य उपचारों की पेशकश करते हैं। प्रागैतिहासिक काल से ही यह विश्वास किया जाता है कि खनिज जल में शरीर का उपचार करने की शक्तियां मौजूद होती हैं। इस तरह के व्यवहार दुनिया भर में लोकप्रिय हैं, लेकिन विशेष रूप से यूरोप और जापान में इसका व्यापक प्रसार हैं। दिवस स्पा भी काफी लोकप्रिय हैं और इससे विभिन्न व्यक्तिगत देखभाल उपचार की पेशकश की जाती है।</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>111</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>बिरला प्रौद्योगिकी संस्थान</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>बिरला प्रौद्योगिकी संस्थान मेसरा (अंग्रेज़ी: Birla Institute of Technology Mesra ; जो बीआईटी मेसरा  या बीआईटी राँची के नाम से भी प्रसिद्ध है) झारखंड के राँची में स्थित भारत का अग्रणी स्वायत्त अभियांत्रिकी और प्रौद्योगिकी उन्मुख संस्थान है। इसे विश्वविद्यालय अनुदान आयोग अधिनियम १९५६ के अनुभाग ३ के तहत एक डीम्ड विश्वविद्यालय का दर्ज़ा हासिल है। मुख्य परिसर के अतिरिक्त लालपुर (रांची), इलाहाबाद, कोलकाता, नोएडा, जयपुर, चेन्नई, पटना और देवघर में बीआईटी के भारतीय विस्तार पटल हैं। इनके अतिरिक्त बहरीन, मस्कट, संयुक्त अरब अमीरात और मॉरिशस में बीआईटी के अंतरराष्ट्रीय केंद्र हैं। जून २००५ में एसी निलसन एवं इंडिया टुडे द्वारा किये गये एक सर्वेक्षण के अनुसार इसे देश के दस श्रेष्ठ तकनीकी संस्थानों में शुमार किया गया था।</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>119</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>जापान</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>जापान (जापानी: 日本; 'निप्पोन' या 'निहोन') एशिया महाद्वीप के पूर्व में स्थित एक द्वीप देश है। जापान चार बड़े और अनेक छोटे द्वीपों का एक समूह है। ये द्वीप एशिया के पूर्वी समुद्रतट, यानी उत्तर पश्चिम प्रशांत महासागर में स्थित हैं।  यह पश्चिम में जापान सागर से घिरा है, और उत्तर में ओखोटस्क सागर से लेकर दक्षिण में पूर्वी चीन सागर और  ताइवान तक फैला हुआ है। 
+इसके निकटतम पड़ोसी चीन, कोरिया (उत्तर और दक्षिण कोरिया)  तथा रूस हैं। जापान में वहाँ के मूल निवासियों की जनसंख्या 98.5% है। बाकी 0.5% कोरियाई, 0.4 % चीनी हान तथा 0.6% अन्य लोग है। जापानी लोग अपने देश को "निप्पोन" या "निहोन" कहते हैं, जिसका मतलब "सूर्योदय" है। रिंग ऑफ फायर का हिस्सा, जापान 6852 द्वीपों का एक द्वीपसमूह है, जो 377,975 वर्ग किलोमीटर (144,937 वर्ग मील) में फैला  हुआ है ;  जापान के  पांच मुख्य द्वीप होक्काइडो, होंशू (जिसे जापान की मुख्य भूमि भी कहा जाता है), शिकोकू, क्यूशू और ओकिनावा हैं। जापान की राजधानी टोक्यो है और उसके अन्य बड़े महानगर योकोहामा, ओसाका, नागोया, साप्पोरो, फुकुओका, कोबे और क्योटो (जापान की पूर्ववर्ती राजधानी) हैं।
+जापान दुनिया का ग्यारहवां सबसे अधिक जनसंख्या वाला देश है, साथ ही सबसे घनी जनसंख्या वाले और शहरीकृत देशों में से भी  एक है। देश का लगभग तीन-चौथाई भूभाग पहाड़ी है, जिस कारण इसकी 125.36 मिलियन की जनसंख्या संकीर्ण तटीय मैदानों पर केंद्रित है। जापान को 47 प्रशासनिक प्रान्तों और आठ पारंपरिक क्षेत्रों में विभाजित किया गया है। ग्रेटर टोक्यो क्षेत्र 37.4 मिलियन से अधिक निवासियों के साथ दुनिया का सबसे अधिक आबादी वाला महानगरीय क्षेत्र है। 
+जापान ऊपरी पुरापाषाण काल (~36,000 ईपू) से ही बसा हुआ है लेकिन जापान देश के बारे में पहला लिखित उल्लेख एक चीनी वृत्तांत हान ग्रंथ में मिलता है जोकि द्वितीय शताब्दी में पूर्ण हुई थी। दूसरी और नौंवीं सदी के बीच कईं जापानी साम्राज्य एक सम्राट के अंदर एकीकृत हो गये जिन्होंने हेइआन-क्यो(आज के समय में जिसे 'क्योटो' कहा जाता है) को अपनी राजधानी घोषित कर दिया। बारहवीं सदी की शुरुआत में</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>332</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>जायफल</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>जायफल (वानस्पतिक नाम: Myristica fragrans ; संस्कृत: जातीफल) एक सदाबहार वृक्ष है जो इण्डोनेशिया के मोलुकास द्वीप (Moluccas) का देशज है। इससे दो मसाले प्राप्त होते हैं - जायफल (nutmeg) तथा जावित्री (mace)। यह चीन, ताइवान, मलेशिया, ग्रेनाडा, भारत, श्रीलंका, और दक्षिणी अमेरिका में खूब पैदा होता है।
+मिरिस्टिका नामक वृक्ष से जायफल तथा जावित्री प्राप्त होती है। मिरिस्टका की अनेक जातियाँ हैं परंतु व्यापारिक जायफल अधिकांश मिरिस्टिका फ्रैग्रैंस से ही प्राप्त होता है। मिरिस्टिका प्रजाति की लगभग ८० जातियाँ हैं, जो भारत, आस्ट्रेलिया तथा प्रशंत महासागर के द्वीपों में उपलब्ध हैं। यह पृथग्लिंगी (डायोशियस, dioecious) वृक्ष है। इसके पुष्प छोटे, गुच्छेदार तथा कक्षस्थ (एक्सिलरी, axillary) होते हैं।
+मिरिस्टिका वृक्ष के बीज को जायफल कहते हैं। यह बीज चारों ओर से बीजोपांग (aril) द्वारा ढँका रहता है। यही बीजोपांग व्यापारिक महत्व का पदार्थ जावित्री है। इस वृक्ष का फल छोटी नाशपाती के रूप का १ इंच से डेढ़ इंच तक लंबा, हल्के लाल या पीले रंग का गूदेदा होता है। परिपक्व होने पर फल दो खंडों में फट जाता है और भीतर सिंदूरी रंग का बीजोपांग या जावित्री दिखाई देने लगती है। जावित्री के भीतर गुठली होती है, जिसके काष्ठवत् खोल को तोड़ने पर भीतर जायफल (nutmeg) प्राप्त होता है। जायफल तथा जावित्री व्यापार के लिये मुख्यत: पूर्वी ईस्ट इंडीज से प्राप्त होता हैं।
+जायफल का वृक्ष समुद्रतट से ४००-५०० फुट तक की ऊँचाई पर उष्णकटिबंध की गरम तथा नम घाटियों में पैदा होता है। इसकी सफलता के लिये जल-निकास-युक्त गहरी तथा उर्वरा दूमट मिट्टी उपयुक्त है। इसके वृक्ष ६-७ वर्ष की आयु प्राप्त होने पर फूलते-फलते हैं। फूल लगने के पहले नर या मादा वृक्ष का पहचाना कठिन होता है। ग्रैनाडा (वेस्ट इंडीज) में साधारणत: नर तथा मादावृक्ष ३ : १ के अनुपात में पाए जाते हैं जमैका के वनस्पति उद्यान में जायफल के छोटे पौधों पर मादावृक्ष की टहनी कलम करके मादा वृक्ष की संख्यावृद्धि में सफलता प्राप्त की गई है।</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>313</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>छोटा चार धाम</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>छोटा चारधाम या चारधाम, हिन्दू धर्म के हिमालय पर्वतों में स्थित पवित्रतम तीर्थ परिपथों में से एक है। यह भारत के उत्तराखण्ड राज्य के गढ़वाल मण्डल में उत्तरकाशी, रुद्रप्रयाग और चमोली जिलों में स्थित है और इस परिपथ के चार धाम हैं: बद्रीनाथ, केदारनाथ, गंगोत्री और यमुनोत्री। इनमें से बद्रीनाथ धाम, भारत के चार धामों का भी उत्तरी धाम है। 
 यद्यपि इन चारों स्थलों की अपनी-अपनी विशेषताएँ हैं लेकिन इनकों चारधाम के रूप में एक इकाई के रूप में देखा जाता है।</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C35" t="n">
         <v>82</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>थकान</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>परंपरागत परिभाषा के अनुसार लंबे समय तक कार्य करने के फलस्वरूप घटी हुई क्षमता को ही थकान या श्रांति (की संज्ञा दी जाती है। किसी कार्य को लगातार करने से उत्पादन गति का विनाश होना ही थकान है।</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C36" t="n">
         <v>38</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>अस्तित्ववाद</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>अस्तित्ववाद (एग्जिस्टेन्शिएलिज़्म / existentialism) अस्तित्ववाद मानव केंद्रित दृष्टिकोण हैं अर्थात् वह सम्पूर्ण जगत में मानव को सबसे अधिक प्रदान करता हैं उसकी दृष्टि में मानव एकमात्र साध्य है । प्रकृति के शेष उपादान "वस्तु" है
 मानव का महत्त्व उसकी "आत्‍मनिष्‍ठता" में हैं न कि उसकी "वस्‍तुनिष्‍ठता" में।  विज्ञान,तकनीक के विकास और बुद्‍धिवादी दार्शनिकों ने मानव को एक "वस्तु" बना दिया है जबकि मानव की पहचान उसके अनूठे व्यक्तित्व के आधार पर होनी चाहिए ।
@@ -1028,82 +1233,106 @@
 (२) अनीश्वरवादी अस्तित्ववाद</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C37" t="n">
         <v>233</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>लंदन के विश्वविद्यालय</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>लंदन दुनिया के उन शहरों में से एक है जहां विश्वविद्यालयों और उच्च शिक्षा संस्थानों का सबसे अधिक जमावड़ा है। यहां 40 उच्च शिक्षा संस्थान हैं (उन विदेशी विश्वविद्यालयों को छोड़कर जिनकी लंदन में शाखाएं हैं) और छात्रों की कुल संख्या 400,000 से अधिक है। लंदन के संस्थानों में से कुछ अत्यंत प्राचीन और विश्व-प्रसिद्ध कॉलेज हैं जो आज संघीय लन्दन विश्वविद्यालय, आधुनिक विश्वविद्यालयों और साथ ही साथ कई छोटे और अक्सर अत्यधिक विशेषज्ञ विश्वविद्यालय और कॉलेजों का गठन करते हैं। इसके अलावा, 180 से अधिक देशों के 45,000 छात्र लंदन विश्वविद्यालय वैदेशिक प्रणाली का पालन करते हैं जो 1858 में स्थापित हुई थी।</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C38" t="n">
         <v>104</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>वैद्यब्रह्मण</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>वैद्यब्रह्मण ( संस्कृत : वैदब्राह्मण ) का वैद्य और वेद एक ही मूल बोली धातु से लिया गया है जिसका अर्थ है ज्ञान और वैद्य का अर्थ है बेदजननी। परंपरागत रूप से, वह वेदों को सुनता था और वैद्य बन जाता था।
+एक अन्य मत, उत्तरी नेपाल में बंगाल-बिहार के दौरान और वेद राज्य के दक्षिणी भाग में ऋग्वेद वेद का गठन किया गया, विदेह राज्य के निवासी बैदाहा और ब्राह्मणों को बैद्यब्रह्मण कहा जाता था&gt; वैद्य बलि के लिए ब्राह्मणों की विशेषता थी और पौराणिक देवता या पौराहित्यके अबैदिका व्यवसाय महसूस किया कि उन्होंने वैदिक चिकित्सा को अपने पेशे के रूप में चुना है, इसलिए वैद्य शब्द का शाब्दिक अर्थ " वैदिक ज्ञान " है, लेकिन इस शब्द का उपयोग अभी भी आयुर्वेदिक चिकित्सकों को संदर्भित करने के लिए किया जाता है। बैद्यब्राह्मणादेरा त्रिजा कहा जाता है। त्रिजभुक्ति नामक विदेह राज्य की एक भक्ति थी ।[1]   
+वैदिक ब्राह्मणों के साथ-साथ चिकित्सा की शाखा आध्यात्मिक भारतीय " आयुर्वेद " की शाखा , "वे लोग जो बेडाजनिगाना हीलर ब्राह्मण        साथ-साथ paricatasastranusare Brahmanakulajata bipra (यानी स्मार्ट) और पुनर्जीवित होते थे। चेहरा (यानी दो 'बार किस्में), द्विजत्व ब्रह्मांड पौराणिक कथाओं को प्राप्त करने के बाद, जो चौदह नौसिखिए शास्त्रों का अध्ययन कर रहे थे और वेद फिर से अपने अध्ययन में पहुंच गए हैं आयुर्वेद का अध्ययन' बैद्यब्रह्मण   या त्रिजा  गया था।  महाभारत में कहा गया है, "प्राणी निर्जीव प्राणियों में से सबसे अच्छे हैं, बुद्धिमान प्राणी सबसे अच्छे हैं, मनुष्य सबसे अच्छे प्राणी हैं, ब्राह्मण सर्वश्रेष्ठ मनुष्य हैं, वैद्य ब्राह्मणों में सर्वश्रेष्ठ हैं, वैद्य वे हैं जिनकी बुद्धि श्रेष्ठ है। साधना की ओर। फणीभूषण आचार्य की शबदसंधन में वैद्य की व्याख्या, "वह जो सभी विज्ञानों में निपुण है: वैद्य, जो सभी वेदों में कुशल हैं: वैद्य और जो चिकित्सा में कुशल हैं: वैद्य।"
+धन्वंतरी का जन्म समुद्रमंथन में हुआ था
+एक लोकप्रिय परंपरा के अनुसार, धन्वंतरी का जन्म हुआ था, जब देवासुर समुद्र का मंथन कर रहे थे और वैद्य उनके वंशज थे। एक अन्य के अनुसार, धन्वंतरी का जन्म एक ऋषि के वैदिक मंत्र का जाप करने से हुआ था, इसलिए उन्हें वैद्य के रूप में जाना जाने लगा।</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>348</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>अमर अग्रवाल</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>अमर अग्रवाल (जन्म: 22 सितम्बर 1963) एक भारतीय राजनीतिज्ञ हैं। वे पूर्व में छत्तीसगढ शासन में स्वास्थ्य , चिकित्सा शिक्षा , वाणिज्यिक कर एवं श्रम मंत्री के पद पर कार्यरत थे। 1998 से 2013 तक लगातार  बिलासपुर विधानसभा क्षेत्र से विधायक चुनाव में जीत हासिल करते रहे हैं । साथ ही छत्तीसगढ़ के स्वास्थ्य मंत्री के रूप में लगातार तीसरी बार चुने गए। वह 2023 में बिलासपुर विधानसभा सीट से पुनः विधायक चुने गए हैं।</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="C40" t="n">
         <v>75</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>एम. बालामुरलीकृष्ण</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>मंगलमपल्ली बालामुरली कृष्णा (तेलुगु: మంగళంపల్లి బాలమురళీకృష్ణ)pronunciation सहायता·सूचना (6 जुलाई 1930 – 22 नवम्बर 2016) एक कर्नाटक गायक, बहुवाद्ययंत्र-वादक और एक पार्श्वगायक हैं। एक कवि, संगीतकार के रूप में उनकी प्रशंसा की जाती है और कर्नाटक संगीत के ज्ञान के लिए उन्हें सम्मान दिया जाता है।</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C41" t="n">
         <v>45</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>गोपनीयता</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>गोपनीsaminakumari
 6202032599
@@ -1112,465 +1341,755 @@
 सेना की पारंपरिक "जानने-की-आवश्यकता" सिद्धांत के अनुकूलन में लागू, सूचना की गोपनीयता आज के निगमों में सूचना सूरक्षा के लिए मील का पत्थर बनाता है। तथाकथित 'गोपनीयता बुलबुला, नकारात्मक और सकारात्मक दोनों परिणामों के साथ सूचना के प्रवाह को सीमित करता है।</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C42" t="n">
         <v>191</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>पटना विश्वविद्यालय</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>पटना विश्वविद्यालय 1917 ई. में स्थापित बिहार का सर्वाधिक प्रतिष्ठित विश्वविद्यालय है। यह भारतीय उपमहाद्वीप का सातवाँ सबसे पुराना स्वतंत्र विश्वविद्यालय के रूप में स्थापित किया गया था।  स्थापना के पूर्व इसके अंतर्गत आनेवाले महाविद्यालय कलकता विश्वविद्यालय के अंग थे। यह पटना में गंगा के किनारे अशोक राजपथ के दोनों ओर अवस्थित है। इसके प्रमुख महाविद्यालयों में पटना सायंस कॉलेज(केवल विज्ञान की पढ़ाई), पटना कॉलेज (केवल कला विषयों की पढ़ाई), वाणिज्य महाविद्यालय, पटना (केवल वाणिज्य विषयों की पढ़ाई), बिहार नेशनल कॉलेज (बी एन कॉलेज), पटना चिकित्सा महाविद्यालय, पटना कला एवं शिल्प महाविद्यालय, लॉ कालेज, पटना, मगध महिला कॉलेज, वीमेंस कॉलेज पटना, पटना ट्रेनिंग कॉलेज तथा पटना वीमेन्स् ट्रेनिंग कॉलेज सहित १३ महाविद्यालय है। बिहार के ऐतिहासिक पटना यूनिवर्सिटी के व्हीलर सीनेट हाउस का नाम अब बदल गया है. अब यह लोकनायक जय प्रकाश नारायण अनुषद भवन के नाम से जाना जायेगा। 1886 में स्कूल ऑफ सर्वे के रूप में स्थापित तथा 1924 में बिहार कॉलेज ऑफ़ इंज़ीनियरिंग बना अभियंत्रण शिक्षा का यह केंद्र इसी विश्वविद्यालय का एक अंग हुआ करता था जिसे जनवरी 2004 में एन आई टी का दर्जा देकर स्वतंत्र कर दिया गया। सभी विश्वविद्यालयों में अनेक प्रकार के विभाग हैं तथा सभी विभागों में प्रतिभासम्पन्न शिक्षक हैं।</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C43" t="n">
         <v>200</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>व्यावसायिक संरक्षा एवं स्वास्थ्य</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>व्यावसायिक संरक्षा एवं स्वास्थ्य (occupational safety and health (OSH)) के अन्तर्गत किसी व्यवसाय या रोजगार में लगे हुए लोगों की संरक्षा, स्वास्थ्य एवं कल्याण पर विचार किया जाता है।</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C44" t="n">
         <v>29</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>राजेन्द्र सिंह</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>राजेन्द्र सिंह का जन्म 6 अगस्त 1959 को, उत्तर प्रदेश के बागपत जिले के डौला गाँव में हुआ था | राजेन्द्र सिंह भारत के प्रसिद्ध पर्यावरण कार्यकर्ता हैं। वे जल संरक्षण के क्षेत्र में कार्य करने के लिए प्रसिद्ध हैं।उन्होंने तरुण भारत संघ (गैर-सरकारी संगठन) के नाम से एक संस्था बनाई।  
+हाई स्कूल पास करने के बाद राजेन्द्र ने भारतीय ऋषिकुल आयुर्वेदिक महाविद्यालय से आयुर्विज्ञान में डिग्री हासिल की।  उनका यह संस्थान बागपत उत्तरप्रदेश में स्थित था।  उसके बाद राजेन्द्र सिंह ने जनता की सेवा के भाव से गाँव में प्रेक्टिस करने का इरादा किया।  साथ ही उन्हें जयप्रकाश नारायण की पुकार पर राजनीति का जोश चढ़ा और वे छात्र युवा संघर्ष वाहिनी के साथ जुड़ गए।  छात्र बनने के लिए उन्होंने बड़ौत में इलाहाबाद विश्वविद्यालय से सम्बद्ध एक कॉलेज में एम.ए. हिन्दी में प्रवेश ले लिया |
+1981 में उनका विवाह हुए बस डेढ़ बरस हुआ था, उन्होंने नौकरी छोड़ी, घर का सारा सामान बेचा।  कुल तेईस हजार रुपए की पूँजी लेकर अपने कार्यक्षेत्र में उतर गए।  उन्होंने ठान लिया कि वह पानी की समस्या का कुछ हल निकलेंगे।  आठ हजार रुपये बैंक में डालकर शेष पैसा उनके हाथ में इस काम के लिए था। 
+राजेन्द्र सिंह के साथ चार और साथी आ जुटे थे, यह थे नरेन्द्र, सतेन्द्र, केदार तथा हनुमान।  इन पाँचों लोगों ने तरुण भारत संघ के नाम से एक संस्था बनाई जिसे एक गैर-सरकारी संगठन (एन.जी.ओ) का रूप दिया।  दरअसल यह संस्था 1975 में जयपुर यूनिवर्सिटी द्वारा बनाई गई थी, लेकिन सो गई थी।  राजेन्द्र सिंह ने उसी को जिन्दा किया और अपना लिया।  इस तरह तरुण भारत संघ (TBS) उनकी संस्था हो गई। 
+2015 में उन्होंने स्टॉकहोम जल पुरस्कार जीता, यह  "पानी के लिए नोबेल पुरस्कार" के रूप में जाना जाता है,इसलिए आप को जल वाले बाबा के उप नाम से सुसोभित किया गया।
+उन्हें सामुदायिक नेतृत्व के लिए 2001 का रेमन मैगसेसे पुरस्कार दिया गया था।
+डॉ राजेन्द्र सिंह के जीवन यात्रा को रेखांकित करती हुई पुस्तक जोहड़ नाम से है। जल पुरूष के संघर्षमय जीवन गाथा को चम्बल सिने प्रोडक्शन द्वारा सामाजिक मुद्दों पर सार्थक सिनेमा बनाने वाले  फ़िल्म निर्माता निर्देशक रवीन्द्र चौहान ने "भाईसाहब जलपुरुष की कहानी" नाम से वृत्तचित्र (डॉक्यूमेंट्री फ़िल्म) बनाया है।</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>363</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>रुद्राक्ष</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>रुद्राक्ष एक फल की गुठली है। इसका उपयोग आध्यात्मिक क्षेत्र में किया जाता है। ऐसा माना जाता है कि रुद्राक्ष की उत्पत्ति भगवान शंकर की आँखों के जलबिंदु से हुई है। इसे धारण करने से सकारात्मक ऊर्जा मिलती है। रुद्राक्ष शिव का वरदान है, जो संसार के भौतिक दु:खों को दूर करने के लिए प्रभु शंकर ने प्रकट किया है।
 रुद्राक्ष (आईएएसटी: रुद्राका, देवनागरी: रुद्रक्ष, तेलुगू:రుద్రాక్ష , तमिल: ருத்ராட்ச  एक प्रकार का बीज होता है एवं यह परंपरागत रूप से हिंदू धर्म (विशेष रूप से शैववाद) में प्रार्थना के माला के रूप में प्रयोग किया जाता है। 
 रुद्राक्ष हिंदू देवता भगवान शिव से जुड़ा हुआ हैं एवं आमतौर पर भक्तों द्वारा सुरक्षा कवच के तौर पर या ओम नमः शिवाय मंत्र के जाप के लिए पहने जाते हैं। ये बीज मुख्य रूप से भारत और नेपाल में कार्बनिक आभूषणों और माला के रूप में उपयोग किए जाते हैं एवं अर्द्ध कीमती पत्थरों के समान मूल्यवान होते हैं।</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C46" t="n">
         <v>157</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>संज्ञाहरण</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>संज्ञाहरण (एनेस्थेशिया) या संज्ञाहीनता (वर्तनी में अंतर देखें; ग्रीक के αν- से व्युत्पन्न, an-, "बिना"; और αἴσθησις, aisthēsis, "संवेदन"), का पारंपरिक अर्थ है संवेदनहीनता (दर्द महसूस करने रहित) महसूस करने की स्थिति का अवरोधन अथवा अस्थायी रूप से हरण. यह औषधीय प्रेरित होती है और शब्दस्मृतिलोप, पीड़ाशून्यता, सजगता की हानि, कंकालीय मांसपेशी प्रतिक्रिया या कम तनाव प्रतिक्रिया या सभी के साथ अनुवर्ती हैं। यह रोगियों को तनाव तथा दर्द महसूस किये बिना शल्यक्रिया से गुजरने की अनुमति देती है। एक वैकल्पिक परिभाषा है "प्रतिवर्ती जागरूकता की कमी" जिसमें जागरूकता का पूर्ण रूप से अभाव होता है (उदाहरण स्वरूप एक सामान्य चेतनाशून्य करने वाली औषधी), या शरीर के किसी एक भाग में चेतना का अभाव है जैसे रीढ़ में चेतनालोप. एनेस्थेसिया शब्द का गठन, वर्ष 1846 में ऑलिवर वेंडेल होम्स, सीनियर ने किया था।
 संज्ञाहरण के प्रकारों में स्थानीय संज्ञाहरण, क्षेत्रीय संज्ञाहरण, सामान्य संज्ञाहरण और अलग करनेवाली संज्ञाहरण शामिल हैं। स्थानीय संज्ञाहरण शरीर के एक विशिष्ट स्थान के भीतर संवेदना बोध को रोकता है जैसे दांत या मूत्राशय. शरीर के एक भाग और रीढ़ की हड्डी के बीच तंत्रिका आवेगों के संचारण को अवरूद्ध करने के द्वारा क्षेत्रीय संज्ञाहरण शरीर के एक बड़े क्षेत्र को घेरे में लेता है। क्षेत्रीय संज्ञाहरण के दो अक्सर प्रयुक्त होने वाले प्रकार हैं रीढ़ संज्ञाहरण और एपीड्यूरल संज्ञाहरण. सामान्य संज्ञाहरण मस्तिष्क के स्तर पर संवेदन, मोटर और तंत्रिका संचरण को रोकते हैं जिसके परिणामस्वरूप बेहोशी और संवेदन का अभाव होता है। अलग करनेवाला संज्ञाहरण एजेंट का प्रयोग करता है जो कि दिमाग के उच्च केन्द्र (जैसे मस्तिष्क प्रांतस्था के रूप में) और निम्न केन्द्र जैसे लिम्बिक प्रणाली के भीतर पाया जाता है, के बीच तंत्रिका आवेगों के संचरण को रोकता है।</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="C47" t="n">
         <v>276</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>एलिज़ाबेथ कुबलर रॉस</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>एलिज़ाबेथ कुबलर रॉस ( जुलै ८, १९२६- औगुस्त २४ २००४) एक मशूर स्विस-अमेरिकन मनोचिकित्सक थी जिन्होने मृत्य और उस्के पास आने कि अनुभव कि विषय पर अनुसंधान की थी। वह इस अध्ययन क्षेत्र की एक मार्ग - निर्माता थी। वह 'औफ डेथ अन्ड दायिंग' (१९६९) नामक मशूर पुस्तक की लेखिका हैं। इसी पुस्तक में वह अप्नी मशूर सिद्धांत - 'शोक के पंच अवस्था' के बारे में पहली बार चर्चा करता है। 
 वह २००७ 'अमेरिकन नेशनल वुमेन्स हौल औफ फेम' कि अधिष्ठापन बन गयी थी। उन्होने २० माननीय उपाधियों को प्राप्त की थी और जुलै १९८२ तक उन्होने १ लाख से ज़्यादा छात्राओं को मृत्य और उस्के पास आने कि अनुभव का विषय पर शिक्षा दी थी।</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="C48" t="n">
         <v>116</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>कलरीपायट्टु</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>कलरिपयट्टु दक्षिणी राज्य केरल से उत्पन्न भारत की एक युद्ध कला है। संभवतः सबसे पुरानी अस्तित्ववान युद्ध पद्धतियों में से एक,कलरिपयट्टु को अंग्रेजी में (mother of all martial arts) कहकर सम्मान दिया जाता है, जिसका अर्थ है सभी युद्ध कलाएँ की माता या माँ।  ये केरल में और तमिलनाडु व कर्नाटक से सटे भागों में साथ ही पूर्वोत्तर श्रीलंका और मलेशिया के मलयाली समुदाय के बीच प्रचलित है। इसका अभ्यास मुख्य रूप से केरल की योद्धा जातियों जैसे नायर , एज्हावा द्वारा, किया जाता था.
 कलारी पयट में हमले, पैर से मारना, मल्लयुद्ध, पूर्व निर्धारित तरीके, हथियारों के जखीरें और उपचार के तरीके शामिल हैं। इसके क्षेत्रीय स्वरुप केरल की भौगोलिक स्थिति के अनुसार वर्गीकृत हैं, ये हैं मलयालियो की उत्तरी शैली, तमिलों की दक्षिणी शैली और भीतरी केरल से केन्द्रीय शैली. उत्तरी कलारी पयट कठिन तकनीक के सिद्धांत पर आधारित है, जबकि दक्षिणी शैली मुख्यतः नर्म तकनीकों का अनुसरण करती है, हालांकि दोनों प्रणालियां आंतरिक और बाह्य अवधारणाओं का उपयोग करतीं हैं।
 कलारी पयट के कुछ युद्ध अभ्यासों को नृत्य में उपयोग किया जा सकता है और वो कथकली नर्तक जो युद्ध कला को जानते थे, वे स्पष्ट रूप से अन्य दूसरे कलाकारों की तुलना में बेहतर थे। कुछ पारंपरिक भारतीय नृत्य स्कूल अभी भी कलारी पयट को अपने व्यायाम नियम के हिस्से के रूप में शामिल करते हैं.</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C49" t="n">
         <v>220</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>चक्र</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>चक्र, (संस्कृत:  चक्रम् ) ; पालि: हक्क चक्का) एक संस्कृत शब्द है जिसका अर्थ 'पहिया' या 'घूमना' है।
+भारतीय दर्शन और योग में चक्र प्राण या आत्मिक ऊर्जा के केन्द्र होते हैं। ये नाड़ियों के संगम स्थान भी होते हैं। यूँ तो कई चक्र हैं पर ५-७ चक्रों को मुख्य माना गया है। यौगिक ग्रन्थों में इनहें शरीर के कमल भी कहा गया है।  प्रमुख चक्रों के नाम हैं-
+मूलाधार चक्र - मेरुदंड के मूल में, सबसे नीचे। उससे ऊपर आने पर क्रम से
+स्वाधिष्ठान चक्र
+मणिपुर चक्र
+अनाहत चक्र
+विशुद्धि चक्र
+आज्ञा चक्र - मेरुदण्ड की समाप्ति पर भ्रूमध्य के पीछे।
+सहस्रार चक्र - कई विद्वान इसे इस लिए चक्र नहीं मानते कि इसमें ईड़ा और पिंगला का प्रभाव नहीं पड़ता।
+आयुर्वेद के अनुसार, चक्र की अवधारणा का संबंध पहिए-से चक्कर से हैं, माना जाता है इसका अस्तित्व आकाशीय सतह में मनुष्य का दोगुना होता है। कहते हैं कि चक्र शक्ति केंद्र या ऊर्जा की कुंडली है जो कायिक शरीर के एक बिंदु से निरंतर वृद्धि को प्राप्त होनेवाले फिरकी के आकार की संरचना (पंखे प्रेम हृदय का आकार बनाते हैं) सूक्ष्म देह की परतों में प्रवेश करती है। सूक्ष्म तत्व का घूमता हुआ भंवर ऊर्जा को ग्रहण करने या इसके प्रसार का केंद्र बिंदु है। ऐसा माना जाता है कि सूक्ष्म देह के अंतर्गत सात प्रमुख चक्र या ऊर्जा केंद्र (जिसे प्रकाश चक्र भी माना गया) स्थित होते हैं।
+विशिष्ट तौर पर चक्रों का चित्रण किन्हीं दो तरीके से किया जाता है: 
+फूल की तरह
+चक्र की तरह
+पहले एक चक्र की परिधि के चारों ओर एक विशेष संख्या में पंखुडि़यों को दिखाया जाता है। बाद में एक निश्चित संख्या की तिली वृत को कई खंडों में बांटती है जिससे चक्र, पहिया या चक्के के समान बन जाता है। हरेक चक्र में एक विशेष संख्या के खंड या पंखुडि़यां होती हैं।
+चक्रों के बारे में अधिकतम मूल जानकारियां उपनिषदों से मिलती है, इनका समय बताया जाना कठिन है क्योंकि माना जाता है कि लगभग हजारों साल पहले पहली बार 1200-900 BCE में इन्हें लिखे जाने से पूर्व वे मौखिक रूप से अस्तित्व में थे।</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>346</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>कर्नाटक</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>कर्नाटक (कन्नड़: ಕರ್ನಾಟಕ, अंग्रेज़ी: Karnataka), जिसे कर्णाटक भी कहते हैं, दक्षिण भारत का एक राज्य है। इस राज्य का गठन 1 नवंबर 1956 को राज्य पुनर्गठन अधिनियम के अधीन किया गया था। पहले यह मैसूर राज्य कहलाता था। १९७३ में पुनर्नामकरण कर इसका नाम कर्नाटक कर दिया गया। इसकी सीमाएं पश्चिम में अरब सागर, उत्तर पश्चिम में गोआ, उत्तर में महाराष्ट्र, पूर्व में आंध्र प्रदेश, दक्षिण-पूर्व में तमिल नाडु एवं दक्षिण में केरल से लगती हैं। इसका कुल क्षेत्रफल ७४,१२२ वर्ग मील (१,९१,९७६ कि॰मी॰²) है, जो भारत के कुल भौगोलिक क्षेत्र का ५.८३% है। ३१जिलों के साथ यह राज्य छठा सबसे बड़ा राज्य है। राज्य की आधिकारिक और सर्वाधिक बोली जाने वाली भाषा कन्नड़ है। कर्नाटक राज्य का नवीनतम जिला विजयनगर है।
+कर्नाटक शब्द के उद्गम के कई व्याख्याओं में से सर्वाधिक स्वीकृत व्याख्या यह है कि कर्नाटक शब्द का उद्गम कन्नड़ शब्द करु, अर्थात् काली या ऊंची और नाडु अर्थात् भूमि या प्रदेश या क्षेत्र से आया है, जिसके संयोजन करुनाडु का पूरा अर्थ हुआ काली भूमि या ऊंचा प्रदेश। काला शब्द यहां के बयलुसीम क्षेत्र की काली मिट्टी से आया है और ऊंचा यानि दक्कन के पठारी भूमि से आया है। ब्रिटिश राज में यहां के लिए कार्नेटिक शब्द का प्रयोग किया जाता था, जो कृष्णा नदी के दक्षिणी ओर की प्रायद्वीपीय भूमि के लिए प्रयुक्त है और मूलतः कर्नाटक शब्द का अपभ्रंश है।
+प्राचीन एवं मध्यकालीन इतिहास देखें तो कर्नाटक क्षेत्र कई बड़े शक्तिशाली साम्राज्यों का क्षेत्र रहा है। इन साम्राज्यों के दरबारों के विचारक, दार्शनिक और भाट व कवियों के सामाजिक, साहित्यिक व धार्मिक संरक्षण में आज का कर्नाटक उपजा है। भारतीय शास्त्रीय संगीत के दोनों ही रूपों, कर्नाटक संगीत और हिन्दुस्तानी संगीत को इस राज्य का महत्त्वपूर्ण योगदान मिला है। आधुनिक युग के कन्नड़ लेखकों को सर्वाधिक ज्ञानपीठ सम्मान मिले हैं। राज्य की राजधानी बंगलुरु शहर है, जो भारत में हो रही त्वरित आर्थिक एवं प्रौद्योगिकी का अग्रणी योगदानकर्त्ता है।</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>315</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>राष्‍ट्रीय चैनल</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>यह भारतीय टीवी दूरदर्शन के राष्‍ट्रीय चैनल हैं। इसमें (5): दूरदर्शन नेशनल, डीडी न्यूज़ , डीडी भारती, डीडी स्पोर्ट्स और डीडी उर्दू ये पाँच चैनल आते हैं। डीडी-नेशनल पर ऐसे राष्ट्रीय कार्यक्रम प्रसारित किए जाते हैं जिनका मुख्य उद्देश्य राष्ट्रीय एकता को बढ़ावा देना तथा मन में एकता एवं भाई-चारे की भावना बैठाना है। यह चैनल दर्शकों की दृष्टि से देश का नम्बर एक चैनल है। डीडी-नेशनल पर मनोरंजन, सूचना एवं शिक्षा संबंधी कार्यक्रमों का स्वस्थ मिश्रण होता है। इस चैनल पर प्रात: 5.30 बजे से मध्य रात्रि तक स्थलीय मोड में सेवा उपलब्ध कराई जाती है। उपग्रह मोड में डीडी-नेशनल चौबीस घंटे उपलब्ध रहता है। लोक सेवा के इस मिश्रित चैनल के प्रसारण का समय इस ढंग से तैयार किया गया है कि यह विभिन्न समयों पर विभिन्न श्रेणी के दर्शकों की आवश्यकताओं को पूरा करता है।
+सभी महत्वपूर्ण राष्ट्रीय आयोजनों जैसे गणतंत्र दिवस परेड, स्वतंत्रता दिवस समारोहों राष्ट्रपति और  प्रधान मंत्री के राष्ट्र के नाम संबोधनों, संसद के संयुक्त सत्र में राष्ट्रपति के अभिभाषण, संसद में होने वाली महत्वपूर्ण बहसों, रेलवे और आम बजट प्रस्तुत करने, लोकसभा और राज्यसभा के प्रश्न काल, चुनाव परिणाम और उनका विश्लेषण, शपथ ग्रहण समारोहों, राष्ट्रपति एवं प्रधान मंत्री की विदेश यात्राओं और विदेश से भारत आने वाले विशिष्ट व्यक्तियों की यात्राओं का डीडी-नेशनल पर सीधा प्रसारण किया जाता है। महत्वपूर्ण खेल-कूद आयोजनों जैसे ओलंपिक, एशियाई खेल, क्रिकेट टेस्ट मैचों और अन्तर्राष्ट्रीय एक दिवसीय मैचों, जिनमें भारत एवं अन्य महत्वपूर्ण खेल प्रतिद्वंदी भाग ले रहे हों, का भी सीधा प्रसारण किया जाता है।
+शिक्षा संबंधी कार्यक्रम इंदिरा गांधी राष्ट्रीय मुक्त विश्वविद्यालय (इग्नू), विश्वविद्यालय अनुदान आयोग (यूजीसी), केंद्रीय शिक्षा प्रौद्योगिकी संस्थान (सीआईईटी) और राज्य शिक्षा प्रौद्योगिकी संस्थान (एसआईईटी) जैसे विभिन्न स्रोतों से प्राप्त किए जाते हैं। इसके अलावा, टर्निंग प्वाइंट, प्रौढ़ शिक्षा कार्यक्रम, टेरा क्विज और भूमि (पर्यावरण से संबंधित कार्यक्रम) जैसे प्रायोजित कार्यक्रम, महिलाओं, जनजातीय मामलों से जुड़े विषयों पर कार्यक्रम और लोक सेवा संबंधी अन्य कार्यक्रम भी नियमित आधार पर प्रसारित किए जाते हैं।</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>322</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>बिहार</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>बिहार (अंग्रेज़ी: Bihar) भारत के उत्तर-पूर्वी भाग के मध्य में स्थित एक प्रसिद्ध ऐतिहासिक राज्य है और इसकी राजधानी पटना है। यह जनसंख्या की दृष्टि से भारत का तीसरा सबसे बड़ा प्रदेश है जबकि क्षेत्रफल की दृष्टि से बारहवां है। २००० ई॰ को बिहार के दक्षिणी हिस्से को अलग कर एक नया राज्य झारखण्ड बनाया गया। बिहार के उत्तर में नेपाल, दक्षिण में झारखण्ड, पूर्व में पश्चिम बंगाल और पश्चिम में उत्तर प्रदेश स्थित है। यह क्षेत्र गंगा नदी तथा उसकी सहायक नदियों के उपजाऊ मैदानों में बसा है। गंगा इसमें पश्चिम से पूर्व की तरफ बहती है। बिहार भारत के सबसे महान् राज्यों मे से एक है।
+बिहार की जनसंख्या का अधिकांश भाग ग्रामीण है और केवल ११.३ प्रतिशत लोग नगरों में रहते हैं। इसके अलावा बिहार के ५८% लोग २५ वर्ष से कम आयु के हैं।
+प्राचीन काल में बिहार विशाल साम्राज्यों, शिक्षा केन्द्रों एवं संस्कृति का गढ़ था। बिहार नाम का प्रादुर्भाव बौद्ध सन्यासियों के ठहरने के स्थान विहार शब्द से हुआ। 'बिहार', 'विहार' का अपभ्रंश है।१२ फरवरी वर्ष १९४८ में महात्मा गांधी के अस्थि कलश जिन १२ तटों पर विसर्जित किए गए थे, त्रिमोहिनी संगम भी उनमें से एक है।
+बिहार का प्राचीन इतिहास विशेष रूप से उदार और गर्वान्वित है। यहां अनेक महत्वपूर्ण साम्राज्यों का केंद्र रहा है, जिनमें मौर्य साम्राज्य, गुप्त साम्राज्य, और पाल साम्राज्य शामिल हैं। बिहार में नालंदा विश्वविद्यालय, बोध गया, और वैशाली जैसे कई ऐतिहासिक धरोहर हैं।
+बिहार की संस्कृति बहुपरकारी है। यहां के प्रमुख कला-साधनों में मधुबनी पेंटिंग, लोक नृत्य, और लोक गीत शामिल हैं। बिहार का भोजन भी बहुत प्रसिद्ध है, जिसमें लिट्टी चोखा, चूड़ा दही, और सत्तू शामिल हैं।
+बिहार में प्राकृतिक सौंदर्य भी प्रचुर है। यहां के प्रमुख नदियों में गंगा, सोन, और घाघरा शामिल हैं। बिहार के प्रमुख पर्वतारों में हिमालय की तराई की पहाड़ियाँ शामिल हैं।
+बिहार एक कृषि प्रधान राज्य है। यहां के प्रमुख फसलें में धान, गेहूं, मक्का, और मटर शामिल हैं। बिहार में कई खनिज भंडार भी हैं, जैसे कि कोयला, लौह अयस्क, और चूना पत्थर।
+बिहार में कई उद्योग भी हैं। यहां के प्रमुख उद्योगों में कृषि उद्योग, कपड़ा उद्योग, और खनिज उद्योग शामिल हैं। बिहार में कई शिक्षण संस्थान भी हैं, जिनमें भारतीय प्रौद्योगिकी संस्थान (पटना), पटना विश्वविद्यालय और नालंदा विश्वविद्यालय शामिल हैं।
+बिहार एक गरीब राज्य है, लेकिन यहां के लोगों में काफी संभावनाएं हैं। बिहार में शिक्षा और स्वास्थ्य के क्षेत्र में सुधार की जरूरत है, लेकिन यहां के लोग मेहनत और लगन की कमी नहीं है। बिहार में विकास की रफ्तार धीमी है, लेकिन यहां के लोग विकास के लिए प्रतिबद्ध हैं।</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>425</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>इस्लामी दुनिया</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>इस्लामी दुनिया; (मुस्लिम विश्व सामान्यतः इस्लामी समुदाय (उम्मत) जो देश इस्लाम पन्थ का पालन करते हैं, या उस समाज के लिए जहाँ इस्लाम का अभ्यास होता है। एक आधुनिक भू-राजनीतिक अर्थ में, ये शब्द उन देशों का उल्लेख करता हैं जहाँ इस्लाम व्यापक है, हालाँकि इसमें शामिल होने के लिए कोई मान्य मापदण्ड नहीं है। मुस्लिम दुनिया का इतिहास लगभग 1474 वर्ष पुराना है और इसमें विभिन्न सामाजिक- राजनीतिक विकास शामिल हैं, साथ ही कला, विज्ञान, दर्शन और प्रौद्योगिकी के क्षेत्र में अग्रिम, विशेषकर इस्लामी स्वर्ण युग के दौरान। सभी मुसलमान कुरान के मार्गदर्शन की तलाश करते हैं और मुहम्मद की बातो में विश्वास करते हैं, लेकिन अन्य मामलों पर असहमति ने इस्लाम के भीतर विभिन्न धार्मिक स्कूलों और शाखाओं का प्रदर्शन किया है। 
 आधुनिक युग में, अधिकांश मुस्लिम दुनिया यूरोपीय शक्तियों के प्रभाव या औपनिवेशिक वर्चस्व में आई थी। इतिहास बताता है कि औपनिवेशिक युग के बाद उभरे विभिन्न राजनीतिक और आर्थिक मॉडलों को अपनाया है, और वे पन्थनिरपेक्ष और धार्मिक प्रवृत्तियों से प्रभावित हुए हैं। 2013 तक, 49 मुस्लिम बहुल देशों का संयुक्त सकल घरेलू उत्पाद (नाममात्र) 5.7 ट्रिलियन अमेरिकी डॉलर था। 2016 तक, उन्होंने दुनिया के कुल का 8% योगदान दिया।</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C54" t="n">
         <v>194</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>कार्निवल</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>कार्निवल एक उत्सव का मौसम है जो लेंट से ठीक पहले पड़ता है; मुख्य कार्यक्रम आमतौर फरवरी के दौरान होते हैं। कार्निवल में आमतौर पर एक सार्वजनिक समारोह या परेड शामिल होता है जिसमें सर्कस के तत्त्व, मुखौटे और सार्वजनिक खुली पार्टियां की जाती हैं। समारोह के दौरान लोग अक्सर सजते संवरते हैं या बहुरुपिया बनते हैं, जो दैनिक जीवन के पलटाव को दर्शाता है।
 कार्निवल एक त्योहार है जिसे पारंपरिक रूप से रोमन कैथोलिक में आयोजित किया जाता है और एक हद तक पूर्वी रूढ़िवादी समाजों में भी. प्रोटेस्टेंट क्षेत्रों में आमतौर पर कार्निवल समारोह नहीं होते है बल्कि कुछ संशोधित परंपराएं हैं, जैसे कि डेनिश कार्निवल या अन्य श्रोव ट्यूजडे कार्यक्रम. ब्राजीलियाई कार्निवाल आज एक सर्वाधिक प्रसिद्ध समारोह है, लेकिन दुनिया भर के कई शहरों और क्षेत्रों में विशाल, लोकप्रिय और कई दिन चलने वाले जश्न मनाए जाते हैं। 
 साँचा:Toc right</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C55" t="n">
         <v>143</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>आंत में उपांत्र शोथ-एपेंडिसाइटिस</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>उपांत्र शोथ एपेंडिक्स की सूजन की अव्स्था है। यह एक आपातकालीन चिकित्सा के रूप में वर्गीकृत है और कई मामलों में सूजन को हटाने या तोलेप्रोस्कोपी लेप्रोटोमी द्वारा, की आवश्यकता होती है। अनुपचारित, मृत्यु दर, मुख्य रूप से सदमे और पेरिटोनिटिस.वजह से अधिक है 1886 में पहले Reginald Fitz चिरकारी और तीव्र वर्णित की है, और यह दुनिया भर में सबसे सामान्य तीव्रपेट दर्द और गंभीर कारणों में से मान्यता प्राप्त किया गया। एक सही ढंग से गंभीर रूप से उपांत्र शोथ निदान किया rumbling के रूप में जाना गया।
 शब्द "स्यूडोएपेंडिसाइटिस" नकल है इस्तेमाल है। यह enterocolitica Yersinia साथ संबद्ध किया जा सकता.</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C56" t="n">
         <v>104</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>बृहदांत्र कैन्सर</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>कोलोरेक्टल कैंसर में जिसे बृहदांत्र कैंसर या बड़ी आंत का कैंसर भी कहा जाता है, बृहदांत्र, मलाशय या उपांत्र में कैंसर का विकास शामिल होता है। इससे दुनिया भर में प्रतिवर्ष 655,000 मौतें होती हैं, संयुक्त राज्य में कैंसर का यह चौथा सबसे सामान्य प्रकार है और पश्चिमी दुनिया में कैंसर से होने वाली मौतों का तीसरा प्रमुख कारण है। कोलोरेक्टल कैंसर, बृहदांत्र में एडिनोमेटस पौलिप से पैदा होता है। मशरूम के आकार की ये वृद्धि आमतौर पर सामान्य होती है, पर समय बीतते-बीतते इनमे से कुछ कैंसर में बदल जाती हैं। स्थानीयकृत बृहदान्त्र कैंसर का आमतौर पर बृहदांत्रोस्कोपी के माध्यम से निदान किया जाता है। 
+तेजी से बढ़ने वाले वे कैंसर जो बृहदांत्र की दीवार तक सीमित रहते हैं (TNM चरण I और II), सर्जरी द्वारा ठीक किये जा सकते हैं। यदि इस चरण में चिकित्सा नहीं हुई तो वे स्थानीय लिम्फ नोड तक फ़ैल जाते हैं (चरण III), जहां 73% को सर्जरी और कीमोथिरेपी द्वारा ठीक किया जा सकता है। दूरवर्ती अंगो को प्रभावित करने वाला मेटास्टैटिक कैंसर (चरण IV) का इलाज सामान्यतया संभव नहीं है, हालांकि कीमोथेरेपी जिन्दगी बढ़ा देती है और कुछ बेहद बिरले उदाहरणों में सर्जरी और कीमोथिरेपी दोनों से रोगियो को ठीक होते देखा गया है। रेक्टल कैंसर में रेडिऐशन का इस्तेमाल किया जाता है। 
+कोशिकीय और आणविक स्तर पर, कोलोरेक्टल कैंसर Wnt सिग्नलिंग पाथवे में परिवर्तन के साथ शुरू होता है। जब Wnt (डब्लूएनटी) एक ग्राही को कोशिका पर बांध देता है तो इससे आणवीय घटनाओं की एक श्रृंखला शुरू हो जाती है। इस श्रृंखला का अंत β- कैटेनिन के केन्द्रक में जाने और DNA पर जीन को सक्रिय करने में होता है। कोलोरेक्टल कैंसर में इस श्रृंखला के साथ जीन क्षतिग्रस्त हो जाते हैं। प्रायः APC नाम का जीन जो Wnt पाथवे में "अवरोध" होता है, क्षतिग्रस्त हो जाता है। बिना क्रियाशील APC ब्रेक के Wnt पाथवे "चालू" स्थिति में अटक जाता है।</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>311</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>हरियाणा</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">हरियाणा उत्तर भारत का एक राज्य है जिसकी राजधानी चण्डीगढ़ है। इसकी सीमायें उत्तर में पंजाब और हिमाचल प्रदेश, दक्षिण एवं पश्चिम में राजस्थान से जुड़ी हुई हैं। यमुना नदी इसके उत्तर प्रदेश राज्य के साथ पूर्वी सीमा को परिभाषित करती है। राष्ट्रीय राजधानी दिल्ली हरियाणा से तीन ओर से घिरी हुई है और फलस्वरूप हरियाणा का दक्षिणी क्षेत्र नियोजित विकास के उद्देश्य से राष्ट्रीय राजधानी क्षेत्र में शामिल है।
+यह राज्य वैदिक सभ्यता और सिंधु घाटी सभ्यता का मुख्य निवास स्थान है। इस क्षेत्र में विभिन्न निर्णायक लड़ाइयाँ भी हुई हैं जिसमें भारत का अधिकतर इतिहास समाहित है। इसमें महाभारत का महाकाव्य युद्ध भी शामिल है। हिन्दू मतों के अनुसार महाभारत का युद्ध कुरुक्षेत्र में हुआ (इसमें भगवान कृष्ण ने भागवत गीता का वादन किया)। इसके अलावा यहाँ तीन पानीपत की लड़ाइयाँ हुई। ब्रितानी भारत में हरियाणा पंजाब राज्य का अंग था जिसे 1966 में भारत के 17वें राज्य के रूप में पहचान मिली। वर्तमान में खाद्यान और दुग्ध उत्पादन में हरियाणा देश में प्रमुख राज्य है। इस राज्य के निवासियों का प्रमुख व्यवसाय कृषि है। समतल कृषि भूमि निमज्जक कुओं (समर्सिबल पंप) और नहर से सिंचित की जाती है। 1960 के दशक की हरित क्रान्ति में हरियाणा का भारी योगदान रहा जिससे देश खाद्यान सम्पन्न हुआ।
+हरियाणा, भारत के अमीर राज्यों में से एक है और प्रति व्यक्ति आय के आधार पर यह देश का दूसरा सबसे धनी राज्य है। वर्ष २०१२-१३ में देश में इसकी प्रति-व्यक्ति ₹ १,१९,१५८ (अर्थव्यवस्था के आकार के आधार पर भारत के राज्य देखें) और वर्ष २०१३-१४ में ₹ १,३२,०८९ रही। इसके अतिरिक्त भारत में सबसे अधिक ग्रामीण करोड़पति भी इसी राज्य में हैं। हरियाणा आर्थिक रूप से दक्षिण एशिया का सबसे विकसित क्षेत्र है और यहाँ कृषि एवं विनिर्माण उद्योग ने १९७० के दशक से निरंतर वृद्धि प्राप्त की है। भारत में हरियाणा यात्रि कारों, द्विचक्र वाहनों और ट्रैक्टरों के निर्माण में सर्वोपरी राज्य है। भारत में प्रति व्यक्ति निवेश के आधार पर वर्ष २००० से राज्य सर्वोपरी स्थान पर रहा है।
+</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>330</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>सर्पगन्धा</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>सर्पगन्धा एपोसाइनेसी परिवार का द्विबीजपत्री, बहुवर्षीय झाड़ीदार सपुष्पक और महत्वपूर्ण औषधीय पौधा है। इस पौधे का पता सर्वप्रथम लियोनार्ड राल्फ ने १५८२ ई. में लगाया था। भारत तथा चीन के पारंपरिक औषधियों में सर्पगन्धा एक प्रमुख औषधि है। भारत में तो इसके प्रयोग का इतिहास ३००० वर्ष पुराना है। सर्पगन्धा के पौधे की ऊँचाई ६ इंच से २ फुट तक होती है। इसकी प्रधान जड़ प्रायः २० से. मी. तक लम्बी होती है। जड़ में कोई शाखा नहीं होती है। सर्पगन्धा की पत्ती एक सरल पत्ती का उदाहरण है। इसका तना मोटी छाल से ढका रहता है। इसके फूल गुलाबी या सफेद रंग के होते हैं। ये गुच्छों में पाए जाते हैं। भारतवर्ष में समतल एवं पर्वतीय प्रदेशों में इसकी खेती होती है। पश्चिम बंगाल एवं बांग्लादेश में सभी जगह स्वाभाविक रूप से सर्पगन्धा के पौधे उगते हैं।
+सर्पगन्धा में रिसार्पिन तथा राउलफिन नामक उपक्षार पाया जाता है। सर्पगन्धा के नाम से ज्ञात होता है कि यह सर्प के काटने पर दवा के नाम पर प्रयोग में आता है। सर्प काटने के अलावा इसे बिच्छू काटने के स्थान पर भी लगाने से राहत मिलती है। इस पौधे की जड़, तना तथा पत्ती से दवा का निर्माण होता है। इसकी जड़ में लगभग २५ क्षारीय पदार्थ, स्टार्च, रेजिन तथा कुछ लवण पाए जाते हैं। सर्पगंधा को आयुर्वेद में निद्राजनक कहा जाता है इसका प्रमुख तत्व रिसरपिन है, जो पूरे विश्व में एक औषधीय पौधा बन गया है इसकी जड़ से कई तत्व निकाले गए हैं जिनमें क्षाराभ रिसरपिन, सर्पेन्टिन, एजमेलिसिन प्रमुख हैं जिनका उपयोग उच्च रक्त चाप, अनिद्रा, उन्माद, हिस्टीरिया आदि रोगों को रोकने वाली औषधियों के निर्माण किया जाता है इसमें १.७ से ३.० प्रतिशत तक क्षाराभ पाए जाते हैं जिनमें रिसरपिन प्रमुख हैं इसका गुण रूक्ष, रस में तिक्त, विपाक में कटु और इसका प्रभाव निद्राजनक होता है।
+दो-तीन साल पुराने पौधे की जड़ को उखाड़ कर सूखे स्थान पर रखते है, इससे जो दवाएँ निर्मित होती हैं, उनका उपयोग उच्च रक्तचाप, गर्भाशय की दीवार में संकुचन के उपचार में करते हैं। इसकी पत्ती के रस को निचोड़ कर आँख में दवा के रूप में प्रयोग किया जाता है। इसका उपयोग मस्तिष्क के लिए औषधि बनाने के काम आता है। अनिद्रा, हिस्टीरिया और मानसिक तनाव को दूर करने में सर्पगन्धा की जड़ का रस, काफी उपयोगी है। इसकी जड़ का चूर्ण पेट के लिए काफी लाभदायक है। इससे पेट के अन्दर की कृमि खत्म हो जाती है।</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>398</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>यूनाइटेड किंगडम</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>वृहत् ब्रिटेन और उत्तरी आयरलैण्ड का यूनाइटेड किंगडम  (सामान्यतः यूनाइटेड किंगडम, यूके, ब्रिटानिया, UK, या ब्रिटेन के रूप में जाना जाने वाला)
+एक विकसित देश है जो महाद्वीपीय यूरोप के पश्चिमोत्तर तट पर स्थित है। यह एक द्वीपीय देश है, यह ब्रिटिश द्वीप समूह में फैला है जिसमें ग्रेट ब्रिटेन, आयरलैंड का पूर्वोत्तर भाग और कई छोटे द्वीप शामिल हैं। उत्तरी आयरलैंड, यूके का एकमात्र ऐसा हिस्सा है जहाँ एक स्थल सीमा अन्य राष्ट्र से लगती है और यहाँ आयरलैण्ड यूके का पड़ोसी देश है। इस देश की सीमा के अलावा, यूके अटलांटिक महासागर, उत्तरी सागर, इंग्लिश चैनल और आयरिश सागर से घिरा हुआ है। सबसे बड़ा द्वीप, ग्रेट ब्रिटेन, चैनल सुरंग द्वारा फ़्रांस से जुड़ा हुआ है।
+यूनाइटेड किंगडम एक संवैधानिक राजशाही और एकात्मक राज्य है जिसमें चार देश शामिल हैं: इंग्लैंड, उत्तरी आयरलैंड, स्कॉटलैंड और वेल्स. यह एक संसदीय प्रणाली द्वारा संचालित है जिसकी राजधानी लंदन में सरकार बैठती है, लेकिन इसमें तीन न्यागत राष्ट्रीय प्रशासन हैं, बेलफ़ास्ट, कार्डिफ़ और एडिनबर्ग, क्रमशः उत्तरी आयरलैंड, वेल्स और स्कॉटलैंड की राजधानी.जर्सी और ग्वेर्नसे द्वीप समूह, जिन्हें सामूहिक रूप से चैनल द्वीप कहा जाता है और मैन द्वीप (आईल ऑफ मान), यू के की राजत्व निर्भरता हैं और UK का हिस्सा नहीं हैं। इसके इलावा, UK के चौदह समुद्रपार निर्भर क्षेत्र हैं, ब्रिटिश साम्राज्य, जो १९२२ में अपने चरम पर था, दुनिया के तकरीबन एक चौथाई क्षेत्रफ़ल को घेरता था और इतिहास का सबसे बड़ा साम्रज्य था। इसके पूर्व उपनिवेशों की भाषा, संस्कृति और कानूनी प्रणाली में ब्रिटिश प्रभाव अभी भी देखा जा सकता है।
+प्रतीकत्मक सकल घरेलू उत्पाद द्वारा दुनिया की छठी बड़ी अर्थव्यवस्था  और क्रय शक्ति समानता के हिसाब से सातवाँ बड़ा देश होने के साथ ही, यूके एक विकसित देश है। यह दुनिया का पहला औद्योगिक देश था और 19वीं और 20वीं शताब्दियों के दौरान विश्व की अग्रणी शक्ति था, लेकिन दो विश्व युद्धों की आर्थिक लागत और 20 वीं सदी के उत्तरार्ध में साम्राज्य के पतन ने वैश्विक मामलों में उसकी अग्रणी भूमिका को कम कर दिया फिर भी यूके अपने सुदृढ़ आर्थिक, सांस्कृतिक, सैन्य, वैज्ञानिक और राजनीतिक प्रभाव के कारण एक प्रमुख शक्ति बना हुआ है। यह एक परमाणु शक्ति है और दुनिया में चौथी सर्वाधिक रक्षा खर्चा करने वाला देश है। यह यूरोपीय संघ का सदस्य है, संयुक्त राष्ट्र सुरक्षा परिषद में एक स्थायी सीट धारण करता है और राष्ट्र के राष्ट्रमंडल, जी8, OECD, नाटो और विश्व व्यापार संगठन का सदस्य है।</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>397</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>विज्ञापन एजेंसी</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>विज्ञापन एजेंसी या ऐड एजेंसी ऐसी सेवाओं का व्यापार है जिसमें अपने ग्राहकों के लिए विज्ञापन बनाना, उनका नियोजन करना और संभालना (कभी-कभी प्रचार के दूसरे तरीके) भी शामिल हैं। विज्ञापन एजेंसी ग्राहक से पूर्ण रूप से स्वतंत्र होती है और ग्राहक के उत्पादों या सेवाओं को बेचने के लिए अलग नज़रिया प्रदान करती है। एक एजेंसी अपने ग्राहकों के लिए विपणन, ब्रांड बनाने और बिक्री से जुड़े प्रचार की समग्र रणनीतियों को संभाल सकती है।
 विशिष्ट विज्ञापन एजेंसियों के ग्राहकों में उद्योग जगत औऱ निगम, लाभ निरपेक्ष संगठन और सरकारी एजेंसियां भी शामिल हैं। विज्ञापन के प्रचार के लिए एजेंसियों को किराये पर भी लिया जा सकता है।</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="C61" t="n">
         <v>109</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>माइक्रोडर्मबरसन</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>माइक्रोडर्मबरसन (अंग्रेज़ी: Microdermabrasion) एक हल्के प्रकार की कृत्रिम कायिक चिकित्सा है जिसमें अधिचर्म से मृत त्वचा कोशिकायों की सबसे बाहरी परत की खाल उतरने के कार्य को एक यांत्रिक प्रक्रिया के द्वारा संपन्न किया जाता है। सामान्यतः इस प्रक्रिया में दो भाग होते हैं :- एक अपपर्णन (खाल उतारने की क्रिया) पदार्थ जैसे कि क्रिस्टल अथवा हीरे की कनी और एक चूषण यंत्र जिसके द्वारा खाल उतारने की क्रिया के दौरान त्वचा को कोमलता के साथ उठाया जाता है।
 यह एक बिना चीड़-फाड़ वाली प्रक्रिया है जिसे एक त्वचा की देखभाल करने वाले विशेषज्ञ द्वारा अपने कार्य स्थल में हीं संपन्न किया जा सकता है। यह प्रक्रिया त्वचा के अपपर्णन की क्रिया को यांत्रिक रूप से करने हेतु बनाए गये कुछ विशेष प्रकार के उत्पादों के साथ घर पर भी की जा सकती है।  सैलून में इस कार्य में प्रयोग किए जाने वाले कई सारे यंत्रो में त्वचा को रगड़ने वाले उपकरण में समायोजित किए जाने वाले चूषक लगे होते हैं। हाल-फिलहाल में यह सुविधा कई घरेलू उपयोग वाले यंत्रो में भी पायी जाने लगी है।
 आम तौर पर इस प्रक्रिया में किसी तरह की सुई अथवा बेहोश करने वाली द्वा की आवश्यकता नहीं होती. त्वचा की सहनशीलता और संवेदनात्मक क्षमता के आधार पर वॅक्यूम प्रेशर और गति को समायोजित किया जाता है। माइक्रोडर्मबरसन के दौरान अक्सर बिल्ली द्वारा त्वचा को चाटने जैसा एहसास होने का उल्लेख कई बार किया जाता है। सामान्य तौर पर माइक्रोडर्मबरसन के एक सत्र में ५ से ६० मिनट तक का समय लगता है। इस प्रक्रिया के बाद किसी तरह के आराम की कोई ज़रूरत नहीं होती और ज़्यादातर लोग के सत्र के माइक्रोडर्मबरसन तुरंत बाद ही अपने दैनिक गतिविधियों में लग जाते हैं।</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C62" t="n">
         <v>279</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>प्रतिजैविक प्रतिरोध</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>प्रतिजैविक प्रतिरोध एक प्रकार का दवा प्रतिरोध है, जहाँ एक सूक्ष्मजीव प्रतिरोध जोखिम जीवित करने के लिए सक्षम है। जीन को एक जीवाणु के बिच में फैशन द्वारा या विकार क्षैतिज कर संक्रमित में हस्तांतरित किया जा सकता है। इस प्रकार प्राकृतिक चयन के माध्यम से एक जीन को एंटीबायोटिक प्रतिरोध से साझा कर के बिकसित किया जा सकता है। विकासवादी तनाव एंटीबायोटिक प्रतिरोधी लक्षण जोखिम के रूप में एंटीबायोटिक दवाओं को चुनता है। कई एंटीबायोटिक प्रतिरोध जीनों प्लाज़्मिड प्लाज़्मिड पर रहते हैं, उनके हस्तांतरण की सुविधा. अगर एक जीवाणु कई प्रतिरोध जीनों वहन करती है, यह मल्तिरेसिस्तेंस या अनौपचारिक एक सुपर‍ बग कहा जाता है।
 एंटीबायोटिक प्रतिरोध के कारण दोनों प्राथमिक चिकित्सा और पशु चिकित्सा के भीतर एंटीबायोटिक का उपयोग है। प्रदर्शन की अवधि को अधिक से अधिक प्रतिरोध के विकास के लिए एंटीबायोटिक दवाओं की जरूरत की गंभीरता पर ध्यान दिए बिना अधिक से अधिक जोखिम नहीं लेना चाहिए.</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="C63" t="n">
         <v>151</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ऑर्थ्रोस्कोपी (अंतःसंधिदर्शन)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ऑर्थ्रोस्कोपी यानी अंतःसंधिदर्शन (जिसे ऑर्थ्रोस्कोपी सर्जरी भी कहा जाता है।) एक कम से कम चीड़फाड़ वाली शल्य प्रक्रिया है, जिसमें एक जांच और कभी-कभी जोड़ के क्षतिग्रस्त भीतरी हिस्से का इलाज ऑर्थ्रोस्कोपी के उपयोग के जरिये किया जाता है, जो एक प्रकार का इंडोस्कोप (शरीर के भीतरी हिस्सों को देखने वाला उपकरण) है, जिसे एक छोटे चीरे के बाद घुटने में डाला जाता है। आर्थोस्कोपिक प्रक्रियाओं का प्रयोग कई तरह की आर्थोपेडिक (हड्डियों या मांशपेशियों से संबंधित) स्थितियों के मूल्यांकन और उपचार के लिए किया जा सकता है, जिनमें अलग हुईं फटी नरम हड्डियां (काटिलेज), सतह की फटीं नरम हड्डियां, एसीएल (ACL) पुनर्निमाण और क्षतिग्रसत नरम हड्डियों की छंटाई शामिल है।
+ऑर्थोस्कोपी में परंपरागत खुली सर्जरी से ज्यादा फायदा इसलिए है कि इसमें जोड़ों को पूरी तरह नहीं खोला जाता. इसके बदले, उदाहरण के लिए घुटने की ऑर्थोस्कोपी के लिए केवल दो छोटे चीरे बनाये जाते हैं- एक ऑर्थोस्कोप के लिए और दूसरा सर्जरी के उपकरणों को भीतर ले जाने के लिए, ‍िजन्हें घुटनों की टोपी हटाने के लिए उसकी गुहाओं में ले जाया जाता है। यह निदान के समय को समय कम कर देता है और इससे सर्जरी की कामयाबी की दर भी बढ़ सकती है, क्योंकि इससे संयोजी ऊतक का कम नुकसान होता है। यह विशेष रूप से पेशेवर एथलीटों के लिए उपयोगी है, जो अक्सर घुटने के जोड़ों को घायल कर लेते हैं और जिन्हें घावों को जल्दी ठीक करने की आवश्यकता होती है। छोटे चीरों की वजह से त्वचा पर निशान भी कम पड़ते हैं। जोड़ों को फैलाने और सर्जरी के लिए जगह बनाने के लिए तरल पदार्थ से उन्हें भिंगाने की जरूरत पड़ती है। कभी-कभी यह तरल पदार्थ आसपास के नरम ऊतक में फैल जाता है और जमा हो जाता है तथा उसे निकालने की जरूरत होती है।
+इसमें शल्य क्रिया के लिए जिन उपकरणों का इस्तेमाल होता है, वे परंपरागत उपकरणों से छोटे होते हैं। सर्जन एक वीडियो मॉनिटर पर जोड़ के क्षेत्र को देखते हैं और जोड़ के फटे हुए ऊतकों, जैसे स्नायुबंधन और नरम हड्डियां या कार्टिलेज, का पता लगा सकते हैं और उनकी मरम्मत कर सकते हैं।
+तकनीकी रूप से मानव शरीर के लगभग हर जोड़ का ऑर्थ्रोस्कोपिक परीक्षण संभव है। जिन जोड़ों का ऑर्थोस्कोपी द्वारा सबसे आम रूप में जांच और इलाज होता है, उनमें घुटने, कंधे, कोहनी, कलाई, टखने, पैर और कूल्हे शामिल हैं।</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>385</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>एचएएल ध्रुव</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>ध्रुव हैलीकॉप्टर हिंदुस्तान ऐरोनॉटिक्स लिमिटेड द्वारा विकसित और निर्मित भारत का एक बहूद्देशीय हैलीकॉप्टर है। इसकी भारतीय सशस्त्र बलों को आपूर्ति की जा रही है और एक नागरिक संस्करण भी उपलब्ध है। इसे पहले नेपाल और इज़रायल को निर्यात किया गया था फिर सैन्य और वाणिज्यिक उपयोग के लिए कई अन्य देशों द्वारा मंगाया गया है। सैन्य संस्करण परिवहन, उपयोगिता, टोही और चिकित्सा निकास भूमिकाओं में उत्पादित किये जा रहे हैं।
 ध्रुव मंच के आधार पर, एच ए एल हल्का लड़ाकू हेलीकाप्टर, एक लड़ाकू हेलीकाप्टर और एचएएल लाइट अवलोकन हेलीकाप्टर, एक उपयोगिता और प्रेक्षण हेलिकॉप्टर विकसित किए गए है।</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="C65" t="n">
         <v>99</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>जेमिनी गणेशन</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>जेमिनी गणेशन (तमिल: ஜெமினி கணேசன்)(17 नवम्बर 1920-22 मार्च 2005) एक भारतीय अभिनेता थे। फिल्मों में रोमांटिक भूमिकाएं निभाने के लिए तमिल सिनेमा जगत में उन्हें "कादल मन्नान"(रोमांस का देवता) का उपनाम दिया गया था।</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="C66" t="n">
         <v>34</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>समुद्र कर्कटी</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>समुद्री कर्कटी समुद्री पशु हैं जिनका एक लम्बा शरीर होता है जिसमें एकल, शाखित जननग्रन्थि होती है। समुद्री कर्कटी विश्वभर में समुद्र तल पर पाए जाते हैं। इनमें से कई मानव उपभोग हेतु एकत्र किए जाते हैं और कुछ प्रजातियों की जलीय कृषि प्रणालियों में खेती की जाती है। समुद्री कर्कटी सामुद्रिक पारिस्थितिक तन्त्र में एक उपयोगी भूमिका निभाते हैं क्योंकि वे पोषक तत्त्वों को रीसायकल करने में सहायता करते हैं, अपरद और अन्य कार्बनिक पदार्थों को तोड़ते हैं, जिसके बाद जीवाणु अपघटन प्रक्रिया को जारी रख सकते हैं। 
 सभी शूलचर्मी की तरह, समुद्री कर्कटियों में त्वचा के ठीक नीचे एक अन्तःपंजर होता है, कैल्सीकृत संरचनाएँ जो प्रायः संयोजी ऊतक से जुड़े पृथक सूक्ष्म अस्थि-पंजर में कम हो जाती हैं। कुछ प्रजातियों में इन्हें कभी-कभी चप्टी प्लेटों में बड़ा किया जा सकता है, जिससे एक कवच बन जाता है। पेलागोथुरिया नाटेट्रिक्स (गण एलासिपोडिडा, परिवार पेलागोथुरिइडे ) जैसी पेलाजिक प्रजातियों में, कंकाल अनुपस्थित है और कोई कैल्सीकृत वलय नहीं है।</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C67" t="n">
         <v>159</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>पाण्ड्य राजवंश</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>पाण्ड्य राजवंश (तमिल: பாண்டியர்) प्राचीन भारत का एक राजवंश था। इसने भारत में 560 से 1300 ई तक राज किया।</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C68" t="n">
         <v>20</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>ओसीटी बायोमायक्रोस्कोपी</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>ओसीटी बायोमिक्रोस्कोपी आंख के पारदर्शी अक्षीय ऊतकों की जांच करने के लिए स्लिट लैंप बायोमिक्रोस्कोपी के स्थान पर ऑप्टिकल समेकन टोमोग्राफी (ओसीटी) का उपयोग है। परंपरागत रूप से, नेत्रहीन बायोमिक्रोस्कोपी एक स्लिट लैंप बायोमिक्रोस्कोप के साथ है जो स्लिट बीम की रोशनी और आंखों में पारदर्शी ऊतकों के स्टीरियोस्कोपिक, आवर्धित, पार-अनुभागीय दृश्यों को सक्षम करने के लिए एक अतिरिक्त लेंस की सहायता के बिना ऑप्टिकल माइक्रोस्कोप का उपयोग करता है। 
 स्लिट लैंप बायोमिक्रोस्कोपी की तरह, ओसीटी अपारदर्शी ऊतकों को अच्छी तरह से घुमाता नहीं है लेकिन पारदर्शी ऊतकों के विस्तृत, पार-अनुभागीय दृश्यों को सक्षम बनाता है। अल्ट्रासाउंड बायोमिक्रोस्कोपी (यूबीएम) अपारदर्शी ऊतकों के माध्यम से इमेजिंग में बहुत बेहतर है क्योंकि यह उच्च ऊर्जा ध्वनि तरंगों का उपयोग करता है। 
 प्रवेश की सीमित गहराई के कारण, नेत्र विज्ञान के भीतर यूबीएम का मुख्य उपयोग कोण और सिलीरी बॉडी जैसे पूर्ववर्ती संरचनाओं को देखने के लिए किया गया है। अल्ट्रासाउंड और ओसीटी बायोमिक्रोस्कोपी दोनों ओकुलर ऊतकों की एक उद्देश्य छवि उत्पन्न करते हैं जिससे माप लिए जा सकते हैं। यूबीएम के विपरीत, ओसीटी बायोमिक्रोस्कोपी उच्च अक्षीय रिज़ॉल्यूशन वाले छवि ऊतकों को बाद में कोरॉयड के रूप में कर सकता है।</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C69" t="n">
         <v>188</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>स्क्लेरोदेर्मा</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>स्क्लेरोडर्मा एक पुराने प्रणालीगत और स्वरोगक्षमता वाला रोग है जिसमे तंतुमयता (या सख्ती), रक्त कोष्ठक संबंधी परिवर्तन और स्वप्रतिरक्षियां देखी जाती है। इसके दो प्रमुख प्रकार हैं: 
+सीमित प्रणालीगत काठिन्य/स्क्लेरोडर्मा की त्वचीय अभिव्यक्तियाँ मुख्य रूप से हांथों, बाजुओं और चेहरे को प्रभावित करती है। निम्नलिखित जटिलताओं के संदर्भ पहले इसे शिखा सिंड्रोम कहा जाता था: कैल्सियमता, रेनॉड फिनोमिना, खाद्य नली रोग, स्क्लेरोडैक्टाइली  और टेलेंजिक्टियासियस. इसके अतिरिक्त, फुफ्फुसीय धमनी उच्च रक्तचाप एक तिहाई रोगियों को हो सकता है और स्क्लेरोडर्मा के इस फार्म के लिए सबसे गंभीर जटिलता हो सकता है। 
+विस्तीर्ण प्रणालीगत काठिन्य/स्क्लेरोडर्मा तेजी से प्रगति करता है और त्वचा के एक बड़े हिस्से और एक बड़े हिस्से और एक या अधिक आंतरिक अंगों, अक्सर, गुर्दे, खाद नली, हृदय और फेफड़ों को प्रभावित करता है। स्क्लेरोडर्मा का यह रूप अक्षम हो सकता है। स्क्लेरोडर्मा के लिए कोई उपचार नहीं हैं, लेकिन व्यक्तिगत अंग प्रणाली की जटिलताओं काइलाज किया जा सकता है। स्क्लेरोडर्मा के अन्य रूपों में प्रणालीगत स्क्लेरोडर्मा, त्वचा काठिन्य और रेखित स्क्लेरोडर्मा हैं, जिसमें त्वचा परिवर्तन का अभाव होता है, लेकिन प्रणालीगत अभिव्यक्तियाँ होती हैं और जो स्थानीय रूप से त्वचा को प्रभावित करती है पर आतंरिक अंगों को नहीं.
+रोग का निदान बड़ी उम्र वाले व्यक्तियों के लिए, विशेष रूप से पुरुषों के लिए जो विस्तीर्ण त्वचीय रोग से पीड़ित होते है, के लिए बुरा है। इस बीमारी से मौत, अधिकांशतः फेफड़े, दिल और गुर्दे की जटिलताओं के कारण होती है। विस्तीर्ण त्वच्चा रोग में, 5 साल की उत्तरजीविता 70% है, तथा 10 साल की उत्तरजीविताक ५५% है। इसका कारण अज्ञात है। स्क्लेरोडर्मा परिवारिक बीमारी है, लेकिन अब तक जीन की पहचान नहीं हो पाई है। स्क्लेरोडर्मा धमनिका कहे जाने वाली छोटी रक्त वाहिका को प्रभावित करता है। सबसे पहले, धमिनिकाओं के अंतर्कला कोशिकाए मर जाते हैं, साथ साथ एपोटोसिस नामक एक प्रक्रिया के द्वारा कोशिकाओं की चिकनी मांसपेशीया भी मर जाती है। उनके स्थान पर कोलाजेन और अन्य रेशेदार सामग्री आ जाती है। भड़काऊ कोशिकाओं, विशेष रूप से CD4 + टी सहायक कोशिकाओं धमनिकाओं को घुसपैठ करते है, जिससे आगे चलकर और अधिक नुकसान होता है। कई भड़काऊ और विनाशकारी प्रोटीन संकेतों की पहचान की गई है और वे उन दवाओं के संभावित लक्ष्य हैं, जोप्रक्रिया के लिए अंतरायन हो सकते हैं।</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>365</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>जूडो</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>जूडो (柔道) डॉ कानो जिगोरो द्वारा 1882 में जापान में बनाया गया एक आधुनिक जापानी मार्शल आर्ट और लड़ाकू खेल है। इसकी सबसे प्रमुख विशेषता इसका प्रतिस्पर्धी तत्व है, जिसका उद्देश्य अपने प्रतिद्वंद्वी को या तो जमीन पर पटकना, गतिहीन कर देना या नहीं तो कुश्ती की चालों से अपने प्रतिद्वंद्वी को अपने वश में कर लेना, या ज्वाइंट लॉक करके अर्थात् जोड़ों को उलझाकर या गला घोंटकर या दम घोंटू तकनीकों का इस्तेमाल करके अपने प्रतिद्वंद्वी को समर्पण करने के लिए मजबूर कर देना है। हाथ और पैर के प्रहार और वार के साथ-साथ हथियारों से बचाव करना जुडो का एक हिस्सा है लेकिन इनका इस्तेमाल केवल पूर्व-व्यवस्थित तरीकों (काता) में होता है क्योंकि जुडो प्रतियोगिता या मुक्त अभ्यास (रंदोरी) में इसकी इजाजत नहीं दी जाती है।
 जुडो के लिए विकसित दर्शन और परवर्ती प्रशिक्षण अन्य आधुनिक जापानी मार्शल आर्ट के मॉडल बन गए जिनका विकास पारंपरिक स्कूलों (कोर्यु) से हुआ था। जुडो के विश्वव्यापी प्रसार के फलस्वरूप साम्बो, बार्तित्सु और ब्राजीलियाई जिउ-जित्सु जैसी कई उपशाखाओं का विकास हो गया है जिसका विकास मित्सुयो माएदा द्वारा 1914 में ब्राज़ील में जुडो के लाए जाने के बाद हुआ था। 
 जुडो के अभ्यासकर्ताओं या पेशेवरों को जुडोका कहा जाता है।</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C71" t="n">
         <v>199</v>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>नशीली दवा का सेवन</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>मादक द्रव्य का सेवन, जिसे नशीली दवा के सेवन के रूप में भी जाना जाता है, उस पदार्थ के उपयोग के एक दोषपूर्ण अनुकूलनीय पद्धति को सूचित करता है जिसे निर्भर नहीं माना जाता है। "नशीली दवा का सेवन" शब्द, निर्भरता को अलग नहीं करता है, लेकिन अन्यथा गैर-चिकित्सा संदर्भों में इसका प्रयोग समान तरीके से किया जाता है। मस्तिष्क या व्यवहार को प्रभावित करने वाली कोई औषधि या एक गैर- चिकित्सीय या गैर-चिकित्सा प्रभाव के लिए कार्य-निष्पादन में वृद्धि करने वाली औषधि तक इन शब्दों के परिभाषाओं की एक विशाल श्रेणी है। ये सभी परिभाषाएं विवादास्पद औषधि उपयोग के प्रति एक नकारात्मक निर्णय देते हैं (वैकल्पिक विचारों के लिए उत्तरदायी औषधि उपयोग नामक शब्द से तुलना करें. इस शब्द के साथ अक्सर संबंधित कुछ औषधियों में अल्कोहल, ऐम्फिटामाइन्स, बार्बिचुरेट्स, बेन्ज़ोडायजिपाइन्स, कोकीन, मिथैक्वैलोन्स, एवं ओपिऑयड्स शामिल हैं। इन औषधियों का उपयोग करने से स्थानीय न्याय अधिकार पर निर्भर करते हुए संभावित शारीरिक, सामाजिक, एवं मनोवैज्ञानिक क्षति के अलावा आपराधिक दंड दोनों हो सकता है। नशीली दवा के दुरुपयोग की अन्य परिभाषाएं चार मुख्य श्रेणियों में आती हैं: जन स्वास्थ्य संबंधी परिभाषाएं, जन संचार और स्थानीय भाषा के उपयोग, चिकित्सा संबंधी परिभाषाएं और राजनैतिक तथा आपराधिक न्याय संबंधी परिभाषाएं.
 दुनिया भर में, संयुक्त राष्ट्र संघ का अनुमान है कि हेरोइन, कोकीन और कृत्रिम औषधियों के के 50 लाख से अधिक नियमित उपयोगकर्ता हैं। 
 मादक द्रव्यों का सेवन मादक द्रव्य सेवन संबंधी विकार का एक रूप है।</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="C72" t="n">
         <v>235</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>मुम्बई</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>मुंबई (अंग्रेजी: Mumbai) भारत के महाराष्ट्र राज्य की राजधानी है। सन् 2018 में यह दिल्ली के बाद जनगणना की दृष्टि से भारत का दूसरा सबसे बड़ा और विश्व का सातवाँ सबसे बड़ा शहर था। भारत की 2011 की जनगणना के अनुसार बृहन्मुम्बई महानगरपालिका द्वारा प्रशासिक क्षेत्र के अधीन 1.25 करोड़ और मुम्बई महानगरीय क्षेत्र में 2.3 करोड़ लोग बसे हुए थे। मुम्बई भारत का सर्ववृहत्तम आर्थिक एवं वाणिज्यिक केन्द्र भी है, जिसकी भारत के सकल घरेलू उत्पाद में 5% की भागीदारी है। मुंबई को भारत का मैनहटन,कहा जाता है। यह सम्पूर्ण भारत के औद्योगिक उत्पाद का 25%, नौवहन व्यापार का 40%, एवं भारतीय अर्थ व्यवस्था के पूंजी लेनदेन का 70% भागीदार है। मुंबई को भारत का न्यूयॉर्क  भी कहा जाता है। मुंबई में देश का प्रमुख शेयर बाजार Bombay Stock Exchange स्थित है, जो भारत की औद्योगिक और वित्तीय क्षेत्रों को बढ़ावा देता है।
+इसका गठन लावा निर्मित सात छोटे-छोटे द्वीपों द्वारा हुआ है एवं यह पुल द्वारा प्रमुख भूखण्ड के साथ जुड़ा हुआ है। मुम्बई बन्दरगाह भारतवर्ष का सर्वश्रेष्ठ सामुद्रिक बन्दरगाह है। मुंबई का तट कटा-फटा है जिसके कारण इसका पोताश्रय प्राकृतिक एवं सुरक्षित है। यूरोप, अमेरिका, अफ़्रीका आदि पश्चिमी देशों से जलमार्ग या वायुमार्ग से आनेवाले जहाज यात्री एवं पर्यटक सर्वप्रथम मुंबई ही आते हैं, इसलिए मुंबई को भारत का प्रवेशद्वार कहा जाता है। गोपाल Archived 2023-01-20 at the वेबैक मशीन मुम्बई को सपनों का शहर भी कहा जाता है।
+मुम्बई विश्व के सर्वोच्च दस वाणिज्यिक केन्द्रों में से एक है। भारत के अधिकांश बैंक एवं सौदागरी कार्यालयों के प्रमुख कार्यालय एवं कई महत्वपूर्ण आर्थिक संस्थान जैसे भारतीय रिज़र्व बैंक, बम्बई स्टॉक एक्स्चेंज, नेशनल स्टॉक एक्स्चेंज एवं अनेक भारतीय कम्पनियों के निगमित मुख्यालय तथा बहुराष्ट्रीय कम्पनियां मुंबई में अवस्थित हैं। इसलिए इसे भारत की आर्थिक राजधानी भी कहते हैं। नगर में भारत का हिन्दी चलचित्र एवं दूरदर्शन उद्योग भी है, जो बॉलीवुड नाम से प्रसिद्ध है। मुंबई की व्यावसायिक अर्पाच्युनिटी, व उच्च जीवन स्तर पूरे भारतवर्ष भर के लोगों को आकर्षित करता है, जिसके कारण यह नगर विभिन्न समाजों व संस्कृतियों का मिश्रण बन गया है। मुंबई पत्तन भारत के लगभग आधे समुद्री माल की आवाजाही करता है। मुंबई महानगरपालिका में कुल 227 नगरसेवक है। मुंबई महानगरपालिका पूरे विश्व में पैसों के मामले में सबसे अधिक महानगरपालिका माना जाता है।</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>372</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>मस्तिष्कखंडछेदन</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>मस्तिषकखंडछेदन (लोबोटॉमी) (यूनानी : λοβός – lobos': "लोब (मस्तिष्क का)"; τομή - टोम: "काटना/फांक") एक तंत्रिकाशल्यक्रिया संबंधी प्रक्रिया है, मनःशल्यचिकित्सा का एक रूप, जिसे ल्यूकोटॉमी या ल्यूकोटामी (यूनानी λευκός से - ल्यूकोस: "स्पष्ट/सफेद" तथा टोम). इसमे मस्तिष्क के ललाट खंड के अग्रभाग, मस्तिष्काग्र प्रान्तस्था का और से संबंध काटना शामिल है। आरंभ में इस शल्यक्रिया को ल्यूकोटॉमी कहा गया था, जो 1935 में इसकी शुरुआत से ही विवादास्पद रहा है, मनोविकारी (और कभी-कभी अन्य) अवस्थाओं के लिए निर्धारित- इसके लगातार और गंभीर दुष्प्रभावों की आम मान्यता के बावजूद, दो दशकों से अधिक तक यह मुख्यधारा की शल्यक्रिया थी। 1949 का शरीरक्रियाविज्ञान या आयुर्विज्ञान का नोबेल पुरस्कार एंतोनियो इगास मोनिज को “उनकी निश्चित मनोविक्षिप्तियों में मस्तिष्कखंडछेदन के चिकित्साशास्त्रीय महत्त्व की खोज के लिए” दिया गया था।
  इसका उपयोग 1940 के दशक के आरंभ से 1950 के दशक के मध्य तक जोरों पर था, जब आधुनिक मनोवियोजी (मनोविक्षिप्तिरोधी) औषधियां पेश की गईं. 1951 तक संयुक्त राज्य अमेरिका में लगभग 20,000 मस्तिष्कखंडछेदन किए जा चुके थे। इस शल्यक्रिया में गिरावट एक दम से न आकर क्रमिक रूप से आई. उदाहरण के लिए, ओटावा में मनोरोग अस्पतालों में 1953 में 153 मस्तिष्कखंडछेदन हुए थे जो 1954 में कनाडा में मनोरोगरोधी औषधि क्लोरप्रोमाजिन के आगमन के बाद 1961 में 58 रह गए थे।</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="C74" t="n">
         <v>208</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>महाविद्यालय (कॉलेज)</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>वर्तमान में कॉलेज (लैटिन : collegium) शब्द का संयुक्त राज्य अमेरिका में प्रयोग डिग्री प्रदान करने वाले तृतीयक शैक्षणिक संस्थान के लिये किया जाता है एवं अन्य अंग्रेजी भाषी देशों में निजी शैक्षणिक प्रणाली में द्वितीयक या माध्यमिक स्कूल के लिये किया जाता है। अधिक विस्तृत रूप में, यह किसी भी कॉलेज समूह का नाम हो सकता है, उदाहरण के लिए एक निर्वाचन कॉलेज, हथियारों का कॉलेज, कार्डिनलों का कॉलेज. मूलतः इसका तात्पर्य एक नियम के तहत साथ-साथ रह रहे व्यक्तियों के समूह से था (कोण- (con-) = "साथ-साथ" ("together") + लेग- (leg-) = "कानून" ("law") या लेगो (lego) = "मैं चयन करता हूँ" ("I choose")); वास्तव में, कुछ कॉलेज अपने सदस्यों को "फैलो" (fellows) कहते हैं। शब्द का प्रयोग विभिन्न अंग्रेजी भाषी देशों में अलग-अलग है। उदाहरण के लिए अमेरिका एवं आयरलैंड में "कॉलेज " एवं "विश्वविद्यालय " शब्दों को सामान्यतः एक दूसरे के स्थान पर प्रयोग किया जा सकता है, जबकि यूनाइटेड किंगडम, कनाडा, आस्ट्रेलिया एवं अन्य कॉमनवैल्थ देशों में "कॉलेज" शब्द का प्रयोग सामान्यतः स्कूल एवं विश्वविद्यालय स्तर के मध्य के संस्थान के लिये किया जाता है (यद्यपि विश्वविद्यालय के ही भीतर मौजूद स्कूलों को कभी-कभी 'कॉलेज' के रूप में जाना जाता है). फ्रैंच में "कॉलेज" से तात्पर्य दोनों मिडिल स्कूल के 4 वर्ष एवं संस्थानभागिता (Sharing an institution) के सामान्य सिद्धांत से होता है एवं कॉमनवैल्थ देशों में कुछ पुराने निजी प्राथमिक एवं द्वितीयक स्कूल शब्द के इस मायने को बनाये रखते हैं। (उदाहरण के लिये, ऐटन कॉलेज)</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="C75" t="n">
         <v>242</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>संकेतविज्ञान</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>भाषाविज्ञान में, संकेत प्रक्रियाओं (लाक्षणिकता), या अभिव्यंजना और संप्रेषण, लक्षण और प्रतीक का अध्ययन संकेतविज्ञान (Semiotics या semiotic studies या semiology) कहलाता है। इसे आम तौर पर निम्नलिखित तीन शाखाओं में विभाजित किया जाता है:
 अर्थ-विज्ञान (semantics): संकेतों और जिनका वे हवाला देते हैं उनके बीच संबंध; उनका निर्देश
@@ -1580,22 +2099,22 @@
 वाक्य-विज्ञान लाक्षणिकी की शाखा है, जो संकेतों और प्रतीकों की औपचारिक विशेषताओं के साथ संबंध रखती है। दरअसल, वाक्य-विज्ञान "उन नियमों से संबंधित है जो यह शासित करे कि किस प्रकार वाक्यांश और वाक्य बनाने के लिए शब्दों को जोड़ा जाए." चार्ल्स मॉरिस कहते हैं कि अर्थविज्ञान संकेतों का अपने निर्देश और वस्तुओं के साथ वे जो संबंध निरूपित कर सकते हैं या करते हैं, के संबंध से जुड़ा है; और उपयोगितावाद लाक्षणिकता के जैवीय पहलुओं के साथ संबंध रखता है, अर्थात् संकेतों की क्रिया में घटित होने वाले सभी मनोवैज्ञानिक, जैविक या सामाजिक घटनाएं.</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="C76" t="n">
         <v>279</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>पत्रकारिता</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>पत्रकारिता आधुनिक सभ्यता का एक प्रमुख व्यवसाय है, जिसमें समाचारों का एकत्रीकरण, लिखना, जानकारी एकत्रित करके पहुँचाना, सम्पादित करना और सम्यक प्रस्तुतीकरण आदि सम्मिलित हैं। आज के युग में पत्रकारिता के भी अनेक माध्यम हो गये हैं; जैसे - अखबार, पत्रिकायें, रेडियो, दूरदर्शन, वेब-पत्रकारिता आदि। बदलते वक्त के साथ बाजारवाद और पत्रकारिता के अन्तर्सम्बन्धों ने पत्रकारिता की विषय-वस्तु तथा प्रस्तुति शैली में व्यापक परिवर्तन किए।
 वर्तमान में भारतीय पत्रकारिता सरकारी गजट या नोटिफ़िकेशन बनकर रह गई है।‌ लगभग सभी मिडिया संस्थान और‌ चैनल दिन रात सरकार का गुणगान करते हैं। इक्कीसवीं सदी में दुनिया विज्ञान और टेक्नोलॉजी पर बात कर रही है परन्तु भारतीय मीडिया धर्म, जातिवाद, मन्दिर मस्जिद की तथाकथित राजनीति से आगे नहीं बढ़ पा रही हैं।
@@ -1604,42 +2123,66 @@
 पण्डित जवाहर लाल नेहरू, सरदार वल्लभ भाई पटेल, सुभाष चन्द्र बोस और मोलाना आजाद के सपनों का भारत वाकई में बहुत खुबसूरत और खुशहाल हैं और इस भारत को हम इस तरह अन्धविश्वास, तथाकथित धार्मिक उन्माद और‌ जड़ता की ओर नहीं जाने देंगे‌।</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="C77" t="n">
         <v>196</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>लखनऊ</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>लखनऊ (Lucknow) भारत के उत्तर प्रदेश राज्य की राजधानी है। प्रशासनिक रूप से यह लखनऊ ज़िले के अंतर्गत आता है।</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="C78" t="n">
         <v>20</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>दिल्ली</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>दिल्ली (अंग्रेज़ी: Delhi), आधिकारिक तौर पर राष्ट्रीय राजधानी क्षेत्र दिल्ली (अंग्रेज़ी: National Capital Territory of Delhi) भारत की राजधानी और एक केंद्र-शासित प्रदेश है। इसमें नई दिल्ली सम्मिलित है जो भारत की राजधानी है। दिल्ली राजधानी होने के नाते केंद्र सरकार की तीनों इकाइयों- कार्यपालिका, संसद और न्यायपालिका के मुख्यालय नई दिल्ली और दिल्ली में स्थापित हैं। 1483 वर्ग किलोमीटर में फैला दिल्ली जनसंख्या के तौर पर भारत का दूसरा सबसे बड़ा महानगर है। यहाँ की जनसंख्या लगभग १ करोड़ ७० लाख है। यहाँ बोली जाने वाली मुख्य भाषाएँ हैं : हिन्दी, पंजाबी, उर्दू और अंग्रेज़ी। भारत में दिल्ली का ऐतिहासिक और भौगोलिक महत्त्व है। इसके दक्षिण पश्चिम में अरावली पहाड़ियाँ और पूर्व में यमुना नदी है, जिसके किनारे यह नगर बसा हुआ है। यह प्राचीन समय में गंगा के मैदान से होकर जाने वाले वाणिज्य पथों के रास्ते में पड़ने वाला मुख्य पड़ाव था।
+यमुना नदी के किनारे स्थित इस नगर का गौरवशाली पौराणिक इतिहास है, और पुराणों में इसका विशेष महत्व है। यह भारत का अति प्राचीन नगर है। इसके इतिहास का प्रारम्भ सिन्धु घाटी सभ्यता से जुड़ा हुआ है। हरियाणा के आसपास के क्षेत्रों में हुई खुदाई से इस बात के प्रमाण मिले हैं। महाभारत काल में इसका नाम इन्द्रप्रस्थ था। दिल्ली सल्तनत के उत्थान के साथ ही दिल्ली एक प्रमुख राजनैतिक, सांस्कृतिक एवं वाणिज्यिक शहर के रूप में उभरी। यहाँ कई प्राचीन एवं मध्यकालीन इमारतों तथा उनके अवशेषों को देखा जा सकता हैं। १६३९ में मुगल बादशाह शाहजहाँ ने दिल्ली में ही एक चारदीवारी से घिरे शहर का निर्माण करवाया जो १६७९ से १८५७ तक मुगल साम्राज्य की राजधानी रही।
+१८वीं एवं १९वीं शताब्दी में ब्रिटिश ईस्ट इंडिया कंपनी ने लगभग पूरे भारत को अपने कब्जे में ले लिया। इन लोगों ने कोलकाता को अपनी राजधानी बनाया। १९११ में दिल्ली दरबार में अंग्रेजी सरकार ने फैसला किया कि राजधानी को वापस दिल्ली लाया जाए। इसके लिए पुरानी दिल्ली के दक्षिण में एक नए नगर नई दिल्ली का निर्माण प्रारम्भ हुआ। अंग्रेजों से १९४७ में स्वतंत्रता प्राप्त कर नई दिल्ली को भारत की राजधानी घोषित किया गया।
+स्वतंत्रता प्राप्ति के पश्चात् दिल्ली में विभिन्न क्षेत्रों से लोगों का प्रवासन हुआ, इससे दिल्ली के स्वरूप में आमूल परिवर्तन हुआ। विभिन्न प्रान्तों, धर्मों एवं जातियों के लोगों के दिल्ली में बसने के कारण दिल्ली का शहरीकरण तो हुआ ही साथ ही यहाँ एक मिश्रित संस्कृति ने भी जन्म लिया। आज दिल्ली भारत का एक प्रमुख राजनैतिक, सांस्कृतिक एवं वाणिज्यिक केन्द्र है।
+दिल्ली में 2025 में चुनाव 5 फरवरी को है और 8 फ़रवरी को परिणाम घोषित होंगे |</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>419</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>ड्रैगन नृत्य</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>ड्रैगन नृत्य (सरलीकृत चीनी वर्ण: 舞龙; पारम्परिक चीनी वर्ण: 舞龍; पिनयिन: wǔ lóng) चीनी संस्कृति में पारंपरिक नृत्य एवं प्रदर्शन का एक रूप है। सिंह नृत्य की तरह इसे भी सबसे ज्यादा उत्सव समारोह में देखा जाता है। कई चीनी लोग 1970 के दशक में शुरू होने वाले चलन के एक हिस्से के रूप में एक जातिगत पहचान के एक चिह्न के रूप में अक्सर "ड्रैगन के वंशज " (龍的傳人 या 龙的传人, lóng de chuán rén) शब्द का इस्तेमाल करते हैं। एक अन्य व्युत्पत्ति (農的傳人) अर्थात् शेनोंग के वंशज से हुई है जो चीनी लोगों का पहला पौराणिक राजा था जिसने उनलोगों कृषि, क़ानून और चिकित्सा, सभ्यता की नींव के बारे में बताया।
 नृत्य में, लोगों का एक दल खंभों पर ड्रैगन लिए रहता है - जो चीनी ड्रैगन की एक छवि है। एक ड्रैगन की रचना ज्यादा से ज्यादा 50 लोगों से की जा सकती है। नृत्य दल एक घुमावदार और लहरदार तरीके से इस नदी आत्मा की कल्पित गतिविधियों की नक़ल करता है। 
@@ -1647,64 +2190,86 @@
 ऐसी मान्यता है कि ड्रैग लोगों के लिए सौभाग्य लेकर आता है जो उनकी गुणवत्ता में दिखाई देता है जिसमें महान शक्ति, गरिमा, प्रजनन (सेक्स), बुद्धि और कल्याण शामिल है। ड्रैगन का स्वरूप भयावह [उद्धरण चाहिए] होने के साथ-साथ साहसी भी है लेकिन इसका एक उदार स्वाभाव है और इसलिए अंत में यह शाही अधिकारी का प्रतिनिधित्व करने वाला एक प्रतीक बन गया।</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="C80" t="n">
         <v>275</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>रिचर्ड डॉकिन्स</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>रिचर्ड डॉकिन्स (जन्म 26 मार्च 1941) एक ब्रिटिश क्रम-विकासवादी जीवविज्ञानी और लेखक हैं। 1995 से 2008 के दौरान वे ऑक्सफोर्ड विश्वविद्यालय में प्रफ़ेसर थे।
 1976 में प्रकाशित हुई किताब "द सेल्फिश जीन" ("स्वार्थी जीन") के ज़रिये उन्होंने जीन-केन्द्रित क्रम-विकास (gene-centred view of evolution) मत और "मीम" परिकल्पना को लोकप्रिय बनाया। इस किताब के अनुसार जीव-जंतु जीन को ज़िदा रखने का एक ज़रिया हैं। उदाहरण के लिए: एक माँ अपने बच्चों की सुरक्षा इसलिए करती है ताकि वह अपनी जीन ज़िन्दा रख सके।
 रिचर्ड डॉकिन्स एक नास्तिक हैं और "भगवान ने दुनिया बनाई" मत के आलोचक के रूप में जाने जाते हैं। 2006 में प्रकाशित द गॉड डिलुज़न ("भगवान का भ्रम") में उन्होंने कहा है कि किसी दैवीय विश्व-निर्माता के अस्तित्व में विश्वास करना बेकार है और धार्मिक आस्था एक भ्रम मात्र है। जनवरी 2010 तक इस किताब के अंग्रेज़ी संस्करण की 2,000,000 से अधिक प्रतियाँ बेची जा चुकी हैं और 31 भाषाओं में इसके अनुवाद कियी जा चुके हैं।</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="C81" t="n">
         <v>159</v>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>तनाव प्रबंधन</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>तनाव प्रबंधन का अर्थ है मानसिक तनाव में कमी लाना, विशेषतः पुराने तनाव में।</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="C82" t="n">
         <v>14</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>मेघालय</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>मेघालय पूर्वोत्तर भारत का एक राज्य है जिसका शाब्दिक अर्थ है बादलों का घर   । 2016 के अनुसार यहाँ की जनसंख्या 32,11,474 है एवं विस्तार 22,429 वर्ग किलोमीटर के क्षेत्र में है, जिसका लम्बाई से चौड़ाई अनुपात लगभग 3:1 का है। राज्य का दक्षिणी छोर मयमनसिंह एवं सिलहट बांग्लादेशी विभागों से लगता है, पश्चिमी ओर रंगपुर बांग्लादेशी भाग तथा उत्तर एवं पूर्वी ओर भारतीय राज्य असम से घिरा हुआ है। राज्य की राजधानी शिलांग है। भारत में ब्रिटिश राज के समय तत्कालीन ब्रिटिश शाही अधिकारियों द्वारा इसे "पूर्व का स्काटलैण्ड" संज्ञा दी गयी थी। मेघालय पहले असम राज्य का ही भाग था, 21 जनवरी 1972 को असम के खासी, गारो एवं जैन्तिया पर्वतीय जिलों को काटकर नया राज्य मेघालय अस्तित्व में लाया गया। यहाँ की आधिकारिक भाषा अंग्रेजी है। इसके अलावा अन्य मुख्यतः बोली जाने वाली भाषाओं में खासी, गारो, प्नार, बियाट, हजोंग एवं बांग्ला आती हैं। इनके अलावा यहाँ हिंदी भी कुछ कुछ बोली समझी जाती है जिसके बोलने वाले मुख्यतः शिलांग में मिलते हैं। भारत के अन्य राज्यों से अलग यहाँ मातृवंशीय प्रणाली चलती है, जिसमें वंशावली माँ (महिला) के नाम से चलती है और सबसे छोटी बेटी अपने माता पिता की देखभाल करती है तथा उसे ही उनकी सारी संपत्ति मिलती है।
+यह राज्य भारत का आर्द्रतम क्षेत्र है, जहाँ वार्षिक औसत वर्षा 12,000 मि॰मी॰ (470 इंच) दर्ज हुई है। राज्य का 70% से अधिक क्षेत्र वनाच्छादित है। राज्य में मेघालय उपोष्णकटिबंधीय वन पर्यावरण क्षेत्रों का विस्तार है, यहाँ के पर्वतीय वन उत्तर से दक्षिण के अन्य निचले क्षेत्रों के उष्णकटिबन्धीय वनों से पृथक हैं। ये वन स्तनधारी पशुओ, पक्षियों तथा वृक्षों की जैवविविधता के मामलों में विशेष उल्लेखनीय हैं।
+मेघालय में मुख्य रूप से कृषि-आधारित अर्थव्यवस्था(अग्रेरियन) है जिसमें वाणिज्यिक वन उद्योग का अत्यंत महत्त्वपूर्ण स्थान है। यहाँ की मुख्य फसल में आलू, चावल, मक्का, अनान्नास, केला, पपीता एवं दालचीनी, हल्दी आदि बहुत से मसाले, आदि हैं। सेवा क्षेत्र में मुख्यतः अचल संपत्ति एवं बीमा कम्पनियाँ हैं। वर्ष 2012 के लिये मेघालय का सकल राज्य घरेलू उत्पाद ₹16,173 करोड़ (US$2.36 अरब) अनुमानित था। राज्य भूगर्भ संपदाओं की दृष्टि से खनिजों से सम्पन्न है किंतु अभी तक इससे संबंधित कोई उल्लेखनीय उद्योग चालू नहीं हुए हैं।  राज्य में लगभग 1,170 कि॰मी॰ (730 मील) लंबे राष्ट्रीय राजमार्ग बने हैं। यह बांग्लादेश के साथ व्यापार के लिए एक प्रमुख लॉजिस्टिक केंद्र भी है।</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>383</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>प्रबन्धन</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>व्यवसाय एवं संगठन के सन्दर्भ में प्रबन्धन (Management) का अर्थ है - उपलब्ध संसाधनों का दक्षतापूर्वक तथा प्रभावपूर्ण तरीके से उपयोग करते हुए लोगों के कार्यों में समन्वय करना ताकि लक्ष्यों की प्राप्ति सुनिश्चित की जा सके। प्रबन्धन के अन्तर्गत आयोजन (planning), संगठन-निर्माण (organizing), स्टाफिंग (staffing), नेतृत्व करना (leading या directing), तथा संगठन अथवा पहल का नियंत्रण करना आदि आते हैं।
 संगठन भले ही बड़ा हो या छोटा, लाभ के लिए हो अथवा गैर-लाभ वाला, सेवा प्रदान करता हो अथवा विनिर्माणकर्ता, प्रबंध सभी के
@@ -1712,86 +2277,109 @@
 संगठन के उच्चस्तर पर बैठे प्रबंधक नियोजन एवं संगठन पर नीचे स्तर के प्रबंधकों की तुलना में अधिक समय लगाते हैं</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="C84" t="n">
         <v>147</v>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>ई-सिगरेट</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>यह एक इलेक्ट्रॉनिक सिगरेट, ई सिगरेट या वाष्पीकृत सिगरेट एक बैटरी चलित उपकरण है जो निकोटीन या गैर-निकोटीन के वाष्पीकृत होने वाले घोल की सांस के साथ सेवन की जाने वाली खुराक प्रदान करता है। यह सिगरेट, सिगार या पाइप जैसे धुम्रपान वाले तम्बाकू उत्पादों का एक विकल्प है। तथाकथित निकोटीन वितरण के अलावायह वाष्प पिये जाने वाले तम्बाकू के धुएं के समान स्वाद और शारीरिक संवेदन भी प्रदान करती है, जबकि इस क्रिया में दरअसल कोई धुआँ या दहन नहीं होता है। ३१ मई, २०१९ अर्थात् विश्व तम्बाकू दिन पर राजस्थान में इस पर पूर्ण प्रतिबंध लगा दिया है।
 इलेक्ट्रॉनिक सिगरेट किसी हद तक लम्बी ट्यूब के रूप में  होती है, जबकि इनका बाहरी आकार-प्रकार वास्तविक धुम्रपान उत्पादों जैसे सिगरेट, सिगार और पाइप जैसा डिजाइन किया जाता है। "कलम-शैली" की एक अन्य आम डिजाइन है, किसी बॉल प्वाइंट कलम जैसा दिखने के कारण इसका ऐसा नाम पड़ा। अधिकांश इलेक्ट्रॉनिक सिगरेट के उपकरण पुनःउपयोग योग्य होते हैं, जिनके भागों को बदल कर फिर से भरा जा सकता है। अनेक डिस्पोजेबल इलेक्ट्रॉनिक सिगरेट भी विकसित किये गए हैं।
 २००३ में एक चीनी फार्मासिस्ट होन लिक द्वारा इलेक्ट्रॉनिक सिगरेट ईजाद किया गया और उसके अगले साल उसे बाज़ार में पेश किया गया। उनकी कंपनी गोल्डन ड्रैगन होल्डिंग्स ने २००५-२००६ में विदेशों में इसकी बिक्री शुरू की और बाद में इसका नाम बदलकर रूयान (मतलब, धूम्रपान के जैसा") रखा।</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="C85" t="n">
         <v>226</v>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>उच्च रक्तचाप</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>हाइपरटेंशन या उच्च रक्तचाप, जिसे कभी कभी धमनी उच्च रक्तचाप भी कहते हैं, एक पुरानी चिकित्सीय स्थिति है जिसमें धमनियों में रक्त का दबाव बढ़ जाता है। दबाव की इस वृद्धि के कारण, रक्त की धमनियों में रक्त का प्रवाह बनाये रखने के लिये दिल को सामान्य से अधिक काम करने की आवश्यकता पड़ती है। रक्तचाप में दो माप शामिल होती हैं, सिस्टोलिक और डायस्टोलिक, जो इस बात पर निर्भर करती है कि हृदय की मांसपेशियों में संकुचन (सिस्टोल) हो रहा है या धड़कनों के बीच में तनाव मुक्तता (डायस्टोल) हो रही है। आराम के समय पर सामान्य रक्तचाप 100-140 mmHg सिस्टोलिक (उच्चतम-रीडिंग) और 60-90 mmHg डायस्टोलिक (निचली-रीडिंग) की सीमा के भीतर होता है। उच्च रक्तचाप तब उपस्थित होता है यदि यह 90/140 mmHg पर या इसके ऊपर लगातार बना रहता है।
 हाइपरटेंशन प्राथमिक (मूलभूत) उच्च रक्तचाप तथा द्वितीयक उच्च रक्तचाप के रूप में वर्गीकृत किया जाता है। 90-95% मामले "प्राथमिक उच्च रक्तचाप" के रूप में वर्गीकृत किये जाते हैं, जिसका अर्थ है स्पष्ट अंतर्निहित चिकित्सीय कारण के बिना उच्च रक्तचाप। अन्य परिस्थितियां जो गुर्दे, धमनियों, दिल, या अंतःस्रावी प्रणाली को प्रभावित करती हैं, शेष 5-10% मामलों (द्वितीयक उच्च रक्तचाप) का कारण होतीं हैं।
 हाइपरटेंशन स्ट्रोक, मायोकार्डियल रोधगलन (दिल के दौरे), दिल की विफलता, धमनियों की धमनी विस्फार (उदाहरण के लिए, महाधमनी धमनी विस्फार), परिधीय धमनी रोग जैसे जोखिमों का कारक है और पुराने किडनी रोग का एक कारण है। धमनियों से रक्त के दबाव में मध्यम दर्जे की वृद्धि भी जीवन प्रत्याशा में कमी के साथ जुड़ी हुई है। आहार और जीवन शैली में परिवर्तन रक्तचाप नियंत्रण में सुधार और संबंधित स्वास्थ्य जटिलताओं के जोखिम को कम कर सकते हैं। हालांकि, दवा के माध्यम से उपचार अक्सर उन लोगों के लिये जरूरी हो जाता है जिनमें जीवन शैली में परिवर्तन अप्रभावी या अपर्याप्त हैं।</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="C86" t="n">
         <v>295</v>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>अंतरजाल</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>अंतरजाल एक वैश्विक कम्प्यूटर संजाल है जो विभिन्न प्रकार की सूचना और संचार सुविधाएँ प्रदान करता है, जिसमें मानकीकृत संचार प्रोटोकॉलों का उपयोग करके परस्पर जुड़े जाल-तन्त्र शामिल हैं। यह संजालों का एक संजाल है जिसमें स्थानीय से वैश्विक स्तर के निजी, सार्वजनिक, शैक्षणिक, व्यवसाय और सरकारी संजाल शामिल हैं, जो वैद्युतिक, तार-रहित और प्रकाशीय संजालीकरण तकनीकों की एक विस्तृत शृंखला से जुड़े हैं। अन्तर्जाल में सूचना संसाधनों और सेवाओं की एक विशाल शृंखला होती है, जैसे कि संयोजित अतिपाठ दस्तावेज़ और विश्वव्यापी जाल के अनुप्रयोगों, वैद्युतिक पत्र, दूरभाषी और फ़ाइल साझाकरण। 
+1960  के दशक में इंटरनेट नेटवर्क की उत्पत्ति संयुक्त राज्य संघीय सरकार द्वारा कंप्यूटर नेटवर्क के माध्यम से मज़बूत, गलती-सहिष्णु संचार के निर्माण के लिए शुरू की गई थी। 9085  के शुरुआती दिनों में वाणिज्यिक नेटवर्क और उद्यमों को जोड़ने से आधुनिक इंटरनेट  पर संक्रमण की शुरुआत हुई, और तेजी से वृद्धि के कारण संस्थागत, व्यक्तिगत और मोबाइल कंप्यूटर नेटवर्क  से जुड़े थे। 2000   के दशक के अंत तक, इसकी सेवाओं और प्रौद्योगिकियों को रोजमर्रा की जिंदगी के लगभग हर पहलू में शामिल किया गया था।
+टेलीफ़ोनी, रेडियो, टेलीविज़न, पेपर मेल और अखबारों सहित अधिकांश पारंपरिक संचार मीडिया, ईमेल द्वारा पुनर्निर्मित, पुनर्निर्धारित, या इंटरनेट से दूर किए जाने वाले ईमेल सेवाओं, इंटरनेट टेलीफ़ोनी, इंटरनेट टेलीविजन, ऑनलाइन संगीत, डिजिटल समाचार पत्र, और वीडियो स्ट्रीमिंग वेबसाइटें अखबार, पुस्तक, और अन्य प्रिंट प्रकाशन वेबसाइट प्रौद्योगिकी के अनुकूल हैं, या ब्लॉगिंग, वेब फ़ीड्स और ऑनलाइन समाचार एग्रीगेटर्स में पुन: स्थापित किए जा रहे हैं। इंटरनेट ने त्वरित मैसेजिंग, इंटरनेट फ़ौरम और सोशल नेटवर्किंग के माध्यम से व्यक्तिगत इंटरैक्शन के नए रूपों को सक्षम और त्वरित किया है। ऑनलाइन खुदरा विक्रेताओं और छोटे व्यवसायों और उद्यमियों के लिए ऑनलाइन खरीदारी तेजी से बढ़ी है, क्योंकि यह कंपनियों को एक बड़े बाजार की सेवा या पूरी तरह से ऑनलाइन वस्तुओं और सेवाओं को बेचने के लिए अपनी "ईंट और मोर्टार" उपस्थिति बढ़ाने में सक्षम बनाता है। इंटरनेट पर व्यापार से व्यापार और वित्तीय सेवाओं को पूरे उद्योगों में आपूर्ति शृंखला पर असर पड़ता है।
+इंटरनेट का उपयोग या उपयोग के लिए तकनीकी कार्यान्वयन या नीतियों में कोई केंद्रीकृत शासन नहीं है; प्रत्येक घटक नेटवर्क अपनी नीतियाँ निर्धारित करता है। इंटरनेट, इंटरनेट प्रोटोकॉल एड्रेस (आए पी एड्रेस), स्पेस और डोमेन नेम सिस्टम (डी एन एस) में दो प्रमुख नाम रिक्त स्थान की केवल अति परिभाषा परिभाषाएँ एक रखरखाव संगठन, इंटरनेट कॉरपोरेशन फॉर असाइन्ड नाम और नंबर (आए सी ए एन एन)।  मुख्य प्रोटोकॉल के तकनीकी आधारभूत और मानकीकरण, इंटरनेट इंजीनियरिंग टास्क फ़ोर्स (आए ई टी एफ़) की एक गतिविधि है, जो कि किसी भी गैर-लाभप्रद संगठन के साथ संबद्ध अंतरराष्ट्रीय सहभागी हैं, जो किसी को भी तकनीकी विशेषज्ञता में योगदान दे सकते हैं।</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>438</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>रसबेर</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>रूबस जाति में पौधे की प्रजातियों के एक समूह का खाने योग्य फल है रसभरी (raspberry), इनमें से अधिकांश उपजाति आइडिओबेटस (Idaeobatus) की हैं; यह नाम खुद भी इन पौधों के लिए प्रयुक्त होता है। रसभरी बारहमासी होती हैं। नाम मूलतः रूबस इडाइअस (Rubus idaeus) नामक यूरोपीय प्रजाति के लिए संदर्भित है (लाल फलों के साथ) और अब भी इसके मानक अंग्रेजी नाम के रूप में प्रयुक्त होता है।</t>
         </is>
       </c>
-      <c r="C63" t="n">
+      <c r="C88" t="n">
         <v>69</v>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>डेबिट कार्ड</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Vishnu prajapati GTVPP7524J 
 8528814065
@@ -1799,64 +2387,106 @@
 डेबिट कार्ड का उपयोग कुछ देशों में व्यापक हो चुका है और इसने चेक की जगह ले ली है और कुछ मामलों में बड़ी मात्रा में नकदी का लेनदेन भी होता है। ॢड और चेक गारंटी कार्ड की तरह प्रयुक्त होता है। जहां ग्राहक खरीददारी के साथ साथ नकदी भी निकाल सकते हैं, वहां व्यापारी अपने ग्राहक को "कैशबैक"/"कैश आउट" की सुविधाएं देने की पेशकश कर सकता है।</t>
         </is>
       </c>
-      <c r="C64" t="n">
+      <c r="C89" t="n">
         <v>165</v>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>क़ुरआन</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>क़ुरआन (अरबी: القرآن‎, अल-क़ुर्'आन) इस्लाम की  पाक किताब है मुसलमान मानते हैं कि इसे अल्लाह ने फ़रिश्ते जिब्रईल अलैहिस्सलाम द्वारा पैगम्बर मुहम्मद साहब को  सुनाया था। मुसलमान मानते हैं कि क़ुरआन ही अल्लाह की भेजी अन्तिम और सर्वोच्च और आखरी आसमानी किताब है। हालाँकि आरम्भ में इसका प्रसार मौखिक रूप से हुआ पर पैगम्बर मुहम्मद साहब के विसाल (स्वर्गवास) के बाद सन् 633 में इसे पहली बार लिखा गया था और सन् 653 में इसे मानकीकृत कर इसकी प्रतियाँ इस्लामी साम्राज्य में वितरित की गईं थी। मुसलमानों का मानना है कि अल्लाह द्वारा भेजे गए पाक संदेशों के सबसे अन्तिम संदेश कुरआन में लिखे गए हैं। इन संदेशों की शुरुआत आदम से हुई थी। हज़रत आदम इस्लामी (और यहूदी तथा ईसाई) मान्यताओं में सबसे पहले नबी (पैगम्बर या पयम्बर) थे।
 क़ुरआन अल्लाह/ईश्वर का कलाम (सन्देश) है, जो आखिरी सन्देष्टा पैगंबर मोहम्मद ﷺ पर अवतरित हुआ। सम्पूर्ण क़ुरआन वही के माध्यम से पूरे 23 साल में नाज़िल (अवतरित) हुआ। क़ुरआन सूरह अल-फातिहा से शुरू हो कर सूरह अन-निसा पर समाप्त होता है। सम्पूर्ण कुरान 30 पारो (खंडों) में विभाजित किया गया है तथा इसमें 114 सूरतें (अध्याय) हैं। क़ुरआन की कुल 114 सूरतो में 558 रुकू है तथा सम्पूर्ण क़ुरआन में 6236 आयत (छंद या Verses) है तथा क़ुरआन में कलिमात यानी (वाक्यों) की संख्या 77439 है (शेख़ मुज़मद रज्जब की किताब "हक़ायक़ हौल-अल-क़ुरआन)  तथा क़ुरआन में हुरूफ़ यानी शब्दों की संख्या 340740 है(स्पष्ट नहीं है)। सम्पूर्ण कुरान में कुल 14 सजदे है।</t>
         </is>
       </c>
-      <c r="C65" t="n">
+      <c r="C90" t="n">
         <v>242</v>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>आसुत जल</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>आसुत जल वह जल है जिसकी अनेक अशुद्धियों को आसवन के माध्यम से हटा दिया गया हो। आसवन में पानी को उबालकर उसकी भाप को एक साफ़ कंटेनर में संघनित किया जाता है।
 यह पीने के लिए उपयुक्त नहीं होता है क्योंकि इसमें जीवन के लिए आवश्यक लवण अनुपस्थित होते हैं। इसका उपयोग चिकित्सीय कार्यों जैसे दवाइयाँ बनाने , शल्य उपकरणो आदि को धोने में किया जाता हैं।</t>
         </is>
       </c>
-      <c r="C66" t="n">
+      <c r="C91" t="n">
         <v>68</v>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>फलित ज्योतिष</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>फलित ज्योतिष उस विद्या को कहते हैं जिसमें मनुष्य तथा पृथ्वी पर, ग्रहों और तारों के शुभ तथा अशुभ प्रभावों का अध्ययन किया जाता है। ज्योतिष शब्द का यौगिक अर्थ ग्रह तथा नक्षत्रों से संबंध (सिद्धांत) ज्योतिष का भी बोध होता है, तथापि साधारण लोग ज्योतिष विद्या से फलित विद्या का अर्थ ही लेते हैं। 
+ग्रहों तथा तारों के रंग भिन्न-भिन्न प्रकार के दिखलाई पड़ते हैं, अतएव उनसे निकलनेवाली किरणों के भी भिन्न भिन्न प्रभाव हैं। इन्हीं किरणों के प्रभाव का भारत, बैबीलोनिया, खल्डिया, यूनान, मिस्र तथा चीन आदि देशों के विद्वानों ने प्राचीन काल से अध्ययन करके ग्रहों तथा तारों का स्वभाव ज्ञात किया। पृथ्वी सौर मंडल का एक ग्रह है। अतएव इसपर तथा इसके निवासियों पर मुख्यतया सूर्य तथा सौर मंडल के ग्रहों और चंद्रमा का ही विशेष प्रभाव पड़ता है। पृथ्वी विशेष कक्षा में चलती है जिसे क्रांतिवृत्त कहते हैं। पृथ्वी फलित ज्योतिष उस विद्या को कहते हैं जिसमें मनुष्य तथा पृथ्वी पर, ग्रहों और तारों के शुभ तथा अशुभ प्रभावों का अध्ययन किया जाता है। ज्योतिष शब्द का यौगिक अर्थ ग्रह तथा नक्षत्रों से संबंध रखनेवाली विद्या है। इस शब्द से यद्यपि गणित (सिद्धांत) ज्योतिष का निवासियों को सूर्य इसी में चलता दिखलाई पड़ता है। इस कक्षा के इर्द गिर्द कुछ तारामंडल हैं, जिन्हें राशियाँ कहते हैं। इनकी संख्या है। मेष राशि का प्रारंभ विषुवत् तथा क्रांतिवृत्त के संपातबिंदु से होता है। अयन की गति के कारण यह बिंदु स्थिर नहीं है। पाश्चात्य ज्योतिष में विषुवत् तथा क्रातिवृत्त के वर्तमान संपात को आरंभबिंदु मानकर, 30-30 अंश की 12 राशियों की कल्पना की जाती है। भारतीय ज्योतिष में सूर्यसिद्धांत आदि ग्रंथों से आनेवाले संपात बिंदु ही मेष आदि की गणना की जाती है। इस प्रकार पाश्चात्य गणनाप्रणाली तथा भारतीय गणनाप्रणाली में लगभग 23 अंशों का अंतर पड़ जाता है। भारतीय प्रणाली निरयण प्रणाली है। फलित के विद्वानों का मत है कि इससे फलित में अंतर नहीं पड़ता, क्योंकि इस विद्या के लिये विभिन्न देशों के विद्वानों ने ग्रहों तथा तारों के प्रभावों का अध्ययन अपनी अपनी गणनाप्रणाली से किया है। भारत में 12 राशियों के 27 विभाग किए गए हैं, जिन्हें नक्षत्र कहते हैं। ये हैं अश्विनी, भरणी आदि। फल के विचार के लिये चंद्रमा के नक्षत्र का विशेष उपयोग किया जाता है।</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>366</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>लडाकू पतंगें</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>सेनानी पतंगें  वे  पतंगें होती हैं जो  पतंग-लड़ाई  के खेल के लिए इस्तेमाल की जाती हैं। परंपरागत रूप से ज्यादातर  छोटे, अस्थिर सिंगल-लाइन फ्लैट पतंगें होती  हैं जहां लाइन के तनाव को अकेले नियंत्रण के लिए उपयोग किया जाता है, और अन्य पतंगों की स्ट्रिंग / लाइन को काटने के लिए एक अपघर्षक लाइन का उपयोग किया जाता है। 
+पतंग की लड़ाई कई देशों में होती है, लेकिन विशेष रूप से अफगानिस्तान, बांग्लादेश, भारत, इंडोनेशिया, नेपाल, पाकिस्तान, वियतनाम, कोरिया, थाईलैंड और ब्राजील से जुड़ी हुई है।</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>86</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>हीडलबर्ग विश्वविद्यालय</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>हीडलबर्ग यूनिवर्सिटी (जर्मन: रूपरेक्ट-कार्ल्स-यूनिवर्सिटी हेडलबर्ग; लैटिन: यूनिवर्सिटीज रूपरटो कार्ला हीडलबेर्बेंसिस) हेडेलबर्ग, बाडेन-वुर्टेमबर्ग, जर्मनी में एक सार्वजनिक अनुसंधान विश्वविद्यालय है। पोप शहरी छठी के निर्देश पर 1386 में स्थापित, हीडलबर्ग जर्मनी का सबसे पुराना विश्वविद्यालय है और दुनिया के सबसे पुराने जीवित विश्वविद्यालयों में से एक है। यह पवित्र रोमन साम्राज्य में स्थापित तीसरा विश्वविद्यालय था
  हीडलबर्ग 1899 से एक सहशिक्षा संस्थान रहा है। विश्वविद्यालय में बारह संकायों के होते हैं और कुछ 100 विषयों में स्नातक, स्नातक और पोस्ट डॉक्टरेट स्तर पर डिग्री कार्यक्रम प्रदान करता है। हीडलबर्ग में तीन प्रमुख परिसरों हैं: मानविकी मुख्यतः हीडलबर्ग के ओल्ड टाउन में स्थित हैं, प्राकृतिक विज्ञान और Neuenheimer Feld तिमाही में दवा, और भीतर के शहर उपनगर Bergheim में सामाजिक विज्ञान शिक्षा की भाषा आमतौर पर जर्मन है, जबकि अंग्रेजी में काफी संख्या में स्नातक डिग्री की पेशकश की जाती है।
@@ -1867,63 +2497,42 @@
 हीडलबर्ग एक जर्मन उत्कृष्टता विश्वविद्यालय है, साथ ही साथ यूरोपीय अनुसंधान परिषद और कोइम्पा समूह की स्थापना के सदस्य हैं। विश्वविद्यालय के प्रसिद्ध पूर्व छात्रों में ग्यारह घरेलू और विदेशी राज्यों के प्रमुख या सरकार के प्रमुख शामिल हैं।</t>
         </is>
       </c>
-      <c r="C67" t="n">
+      <c r="C94" t="n">
         <v>264</v>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>लडाकू पतंगें</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>सेनानी पतंगें  वे  पतंगें होती हैं जो  पतंग-लड़ाई  के खेल के लिए इस्तेमाल की जाती हैं। परंपरागत रूप से ज्यादातर  छोटे, अस्थिर सिंगल-लाइन फ्लैट पतंगें होती  हैं जहां लाइन के तनाव को अकेले नियंत्रण के लिए उपयोग किया जाता है, और अन्य पतंगों की स्ट्रिंग / लाइन को काटने के लिए एक अपघर्षक लाइन का उपयोग किया जाता है। 
-पतंग की लड़ाई कई देशों में होती है, लेकिन विशेष रूप से अफगानिस्तान, बांग्लादेश, भारत, इंडोनेशिया, नेपाल, पाकिस्तान, वियतनाम, कोरिया, थाईलैंड और ब्राजील से जुड़ी हुई है।</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>86</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>भारत में कृषि</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>कृषि, का तात्पर्य फसलों के उत्पादन और पशुपालन से है।क्योंकि भारत की अर्थव्यवस्था कृषि पर आधारित है। भारत में कृषि आज से लगभग 10000 वर्ष पूर्व से की जा रही है। इसलिए ही भारत को कृषि प्रधान देश कहा जाता है। मगर इसके बाद भी यह कहना सही होगा कि भारत में असली कृषि की शुरुआत हरित क्रांति1960 के साथ ही हुई। जिसका नेतृत्व डॉक्टर एम. एस. स्वामीनाथ जी के द्वारा किया गया था।और हरित क्रांति को भारत में लाने में  पंडित जवाहरलाल नेहरू और डॉक्टर A.B जोशी का बहुत बड़ा योगदान रहा। उसके बाद भारत में कृषि का एक मजबूत ढांचा तैयार हो गया और आज भारत के पास हर वह तकनीक है जिसकी उसे जरूरत है।।                                Dr.MS.Swaminathan -ज़मीं जल जलवायु मौसम कृषक कृषि  आधार है गुरु आपने ही बनाया यह हरित क्रांति संसार है ।।   (Prashant Singh)</t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="C95" t="n">
         <v>139</v>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>अरब का दर्शन</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>अरबी दर्शन का विकास चार मंजिलों से होकर गुजरा है:
 (1) यूनानी ग्रंथों का सामी तथा मुसलमानों द्वारा किया अनुवाद तथा विवेचन, यह युग अनुवादों का है;
@@ -1932,148 +2541,290 @@
 (4) शुद्ध दार्शनिक युग</t>
         </is>
       </c>
-      <c r="C70" t="n">
+      <c r="C96" t="n">
         <v>39</v>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>अबू धाबी</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>अबू धाबी (अरबी: أَبُوظَبِي‎), संयुक्त अरब इमारात (UAE) की राजधानी है। यह वहाँ का दूसरा सर्वाधिक जनसंख्या वाला नगर भी है। अबू धाबी का शासन शेख़ ख़लीफ़ा बिन ज़ैद अल नहयान करते हैं जो UAE के राष्ट्रपति भी हैं।</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="C97" t="n">
         <v>39</v>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>बृहत् आँकड़ा</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>बृहत् आँकड़ा (Big data) उन आंकड़ों को कहते हैं जो इतने विशाल होते हैं या इतने जटिल होते हैं कि उनके साथ काम करने में परम्परागत सामान्य आंकड़ा प्रसंस्करण के अनुप्रयोग पर्याप्त नहीं होते। बृहत आंकड़ों के साथ काम करने में आने वाली मुख्य चुनौतियाँ ये हैं- विश्लेषण, एकत्रीकरण (capture), खोज करना, भण्डारण, स्थानान्तरण, आँकडों का दर्शन (visualization), आंकड़ों से सूचना निकालना (querying), अद्यतन करना (updating) तथा सूचना की गुप्तता आदि।
+बिग डेटा डेटा सेट है जो इतनी बड़ी या जटिल है कि पारंपरिक डाटा प्रोसेसिंग अनुप्रयोगों अपर्याप्त हैं। चुनौतियां जैसे विश्लेषण,कैप्चर,खोज,साझा करने,भंडारण,हस्तांतरण,दृश्य,क्वेरी,अद्यतन करने और जानकारी की गोपनीयता में शामिल हैं। बिग डेटा अक्सर विश्लेषण,उपयोगकर्ता व्यवहार विश्लेषण या कुछ अन्य उन्नत डेटा एनालिटिक्स तरीकों कि डेटा दुर्लभ,निकालने का उपयोग करने के लिए बस संदर्भित करता है। बड़ा डेटा में सटीकता और अधिक आत्मविश्वास निर्णय लेने के लिए नेतृत्व होता हैं और बेहतर निर्णय अधिक से अधिक परिचालन दक्षता,लागत में कमी और कम जोखिम में परिणाम हो सकता हैं।
+डेटा सेट का विश्लेषण से हम हाजिर व्यापार प्रवृत्तियों,बीमारियों को रोकने,मुकाबला अपराध आदि के लिए नए सहसंबंध पा सकते हैं। वैज्ञानिकों,व्यापार के अधिकारियों, चिकित्सा, विज्ञापन और सरकारों के चिकित्सकों को समान रूप से नियमित रूप से इंटरनेट खोज,वित्त,शहरी सूचना विज्ञान और व्यापार सूचना सहित क्षेत्रों में बड़े डेटा सेट के साथ कठिनाइया होते है। डेटा सेट बहुत ही तीव्र-गति से बढ़ रहे हैं क्योंकि वे तेजी से सस्ता और कई जानकारी संवेदन मोबाइल उपकरणों,हवाई(रिमोट सेंसिंग),सॉफ्टवेयर लॉग,कैमरों,माइक्रोफोन,रेडियो आवृत्ति पहचान (आरएफआईडी) पाठकों और वायरलेस सेंसर नेटवर्क द्वारा इकट्ठा कर रहे हैं।
+संबंधपरक डेटाबेस प्रबंधन प्रणालियों और डेस्कटॉप सांख्यिकी और दृश्य संकुल अक्सर कठिनाई बड़ा डेटा को संभालने की है। बिग डाटा से यह माना जाता है कि उनके उपयोगकर्ताओं और उनके उपकरणों की क्षमताओं पर निर्भर करता है और विस्तार क्षमताओं से बड़ा डेटा एक चलती लक्ष्य बनाते हैं। कुछ संगठनों के लिए, पहली बार के लिए डेटा के गीगाबाइट का सामना करना पड़ सैकड़ों डेटा प्रबंधन विकल्प पर पुनर्विचार करने की जरूरत हो सकती है। दूसरों के लिए यह दसियों या टेराबाइट्स के सैकड़ों ले सकता है इससे पहले डेटा आकार एक महत्वपूर्ण विचार हो जाता है।</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>344</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>तानिकाशोथ</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>तानिकाशोथ या मस्तिष्कावरणशोथ या मेनिन्जाइटिस (Meningitis) मस्तिष्क तथा मेरुरज्जु को ढंकने वाली सुरक्षात्मक झिल्लियों (मस्तिष्कावरण) में होने वाली सूजन होती है। यह सूजन वायरस, बैक्टीरिया तथा अन्य सूक्ष्मजीवों से संक्रमण के कारण हो सकती है साथ ही कम सामान्य मामलों में कुछ दवाइयों के द्वारा भी हो सकती है। इस सूजन के मस्तिष्क तथा मेरुरज्जु के समीप होने के कारण मेनिन्जाइटिस जानलेवा हो सकती है; तथा इसीलिये इस स्थिति को चिकित्सकीय आपात-स्थिति के रूप में Programs किया गया है।
+मेनिन्जाइटिस के सबसे आम लक्षण सर दर्द तथा गर्दन की जकड़न के साथ-साथ बुखार, भ्रम अथवा परिवर्तित चेतना, उल्टी, प्रकाश को सहन करने में असमर्थता (फ़ोटोफोबिया) अथवा ऊंची ध्वनि को सहन करने में असमर्थता (फ़ोनोफोबिया) हैं। बच्चे अक्सर सिर्फ गैर विशिष्ट लक्षण जैसे, चिड़चिड़ापन और उनींदापन प्रदर्शित करते हैं। यदि कोई ददोरा भी दिख रहा है, तो यह मेनिन्जाइटिस के विशेष कारण की ओर संकेत हो सकता है; उदाहरण के लिये, मेनिन्गोकॉकल बैक्टीरिया के कारण होने वाले मेनिन्जाइटिस में विशिष्ट ददोरे हो सकते हैं।
+मेनिन्जाइटिस के निदान अथवा पहचान के लिये लंबर पंक्चर की आवश्यकता हो सकती है। स्पाइनल कैनाल में सुई डाल कर सेरिब्रोस्पाइनल द्रव (CSF) का एक नमूना निकाला जाता है जो मस्तिष्क तथा मेरुरज्जु को आवरण किये रहता है। सीएसएफ़ का परीक्षण एक चिकित्सा प्रयोगशाला में किया जाता है। तीव्र मैनिन्जाइटिस के प्रथम उपचार में तत्परता के साथ दी गयी एंटीबायोटिक तथा कुछ मामलों में एंटीवायरल दवा शामिल होती हैं। अत्यधिक सूजन से होने वाली जटिलताओं से बचने के लिये कॉर्टिकोस्टेरॉयड का प्रयोग भी किया जा सकता है। मेनिन्जाइटिस के गंभीर दीर्घकालिक परिणाम हो सकते हैं जैसे बहरापन, मिर्गी, हाइड्रोसेफॉलस तथा संज्ञानात्मक हानि, विशेष रूप से तब यदि इसका त्वरित उपचार न किया जाये। मेनिन्जाइटिस के कुछ रूपों से (जैसे कि मेनिन्जोकॉकी, हिमोफिलस इन्फ्लुएंजा टाइप बी, न्यूमोकोकी अथवा मम्स वायरस संक्रमणों से संबंधित) प्रतिरक्षण के द्वारा बचाव किया जा सकता है।</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>303</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>मूल्य वर्धित कर</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>मूल्य वर्धित कर (अंग्रेज़ी: value-added tax, VAT, संक्षेप में - वैट), या वस्तु और सेवा कर (अंग्रेज़ी: goods and services tax, GST) एक उपभोग कर (CT) है, किसी भी मूल्य पर जो एक उत्पाद में जोड़ी जाती है। बिक्री कर के विपरीत, वैट, उत्पादक और अंतिम उपभोक्ता के बीच मार्ग की संख्या के संबंध में तटस्थ है; जहां बिक्री कर प्रत्येक चरण में कुल मूल्य पर लगाया जाता है (हालांकि अमेरिकी और कई अन्य देशों में बिक्री कर सिर्फ अंतिम उपभोक्ता को अंतिम बिक्री पर लगाया जाता है और अंतिम उपयोगकर्ता उपयोग कर, इस तरह वहां थोक या उत्पादन स्तर पर कोई बिक्री कर नहीं दिया जाता), इसका परिणाम एक सोपान है (नीचे के कर ऊपर के करों पर लगाए जाते हैं)। 
+वैट एक अप्रत्यक्ष कर है, यह एक ऐसा कर है जिसे किसी से  एकत्र करने पर है वह इसका पूरा खर्च नहीं उठाता.
+मौरिस लौरे फ्रेंच कर प्राधिकरण के संयुक्त निदेशक, Direction générale des impôts प्रथम व्यक्ति थे जिन्होंने 10 अप्रैल 1954 को वैट पेश किया, हालांकि जर्मन उद्योगपति डॉ॰ विल्हेम वॉन सीमेंस ने 1918 में इस अवधारणा का प्रस्ताव दिया था। शुरू में बड़े पैमाने के कारोबारों पर लक्ष्यित, समय के साथ सभी व्यावसायिक क्षेत्रों को शामिल करने के लिए इसका विस्तार किया गया। फ्रांस में यह देश के वित्त का सबसे महत्वपूर्ण स्रोत है, जो देश के राजस्व में 52% का योगदान करता है।
+उत्पादों और सेवाओं के निजी अंतिम उपभोक्ता, खरीद पर वैट को वसूल नहीं सकते, लेकिन उद्योग उन माल और सेवाओं पर जिन्हें वे आगे की आपूर्ति या सेवा प्रदान करने के लिए खरीदते हैं, जिसे सीधे या परोक्ष रूप से अंतिम उपयोगकर्ता को बेचा जाएगा, वैट को वसूल सकते हैं। इस तरह, आपूर्ति की आर्थिक श्रृंखला में प्रत्येक स्तर पर लगाया गया कुल कर, मूल्य का एक निरंतर अंश है जो एक व्यवसाय द्वारा अपने उत्पादों में जोड़ा जाता है और कर संग्रह की लागत का अधिकांश, राज्य के बजाय कारोबार द्वारा वहन किया जाता है। वैट का आविष्कार इसलिए किया गया क्योंकि बहुत अधिक बिक्री करों और शुल्कों ने धोखाधड़ी और तस्करी को प्रोत्साहित किया। आलोचकों का कहना है कि इससे मध्यम वर्गीय और कम आय वाले घरों पर असंगत रूप से कर का बोझ बढ़ जाता है। अ कर सामाजिक विषमताओं को जन देता है!</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>375</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>मद्रास प्रैज़िडन्सी</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>मद्रास प्रेसीडेंसी (तमिल: சென்னை மாகாணம், तेलुगु: చెన్నపురి సంస్థానము, मलयालम: മദ്രാസ് പ്രസിഡന്‍സി, कन्नड़: ಮದ್ರಾಸ್ ಪ್ರೆಸಿಡೆನ್ಸಿ, ओड़िया: ମଦ୍ରାସ୍ ପ୍ରେସୋଦେନ୍ଚ୍ଯ), जिसे आधिकारिक तौर पर फोर्ट सेंट जॉर्ज की प्रेसीडेंसी तथा मद्रास प्रोविंस के रूप में भी जाना जाता है, ब्रिटिश भारत का एक प्रशासनिक अनुमंडल था। अपनी सबसे विस्तृत सीमा तक प्रेसीडेंसी में दक्षिण भारत के अधिकांश हिस्सों सहित वर्तमान भारतीय राज्य तमिलनाडु, उत्तरी केरल का मालाबार क्षेत्र, लक्षद्वीप द्वीपसमूह, तटीय आंध्र प्रदेश और आंध्र प्रदेश के रायलसीमा क्षेत्र, गंजाम, मल्कानगिरी, कोरापुट, रायगढ़, नवरंगपुर और दक्षिणी उड़ीसा के गजपति जिले और बेल्लारी, दक्षिण कन्नड़ और कर्नाटक के उडुपी जिले शामिल थे। प्रेसीडेंसी की अपनी शीतकालीन राजधानी मद्रास और ग्रीष्मकालीन राजधानी ऊटाकामंड थी।
+1639 में ब्रिटिश ईस्ट इंडिया कंपनी ने मद्रासपट्टनम गांव को खरीदा था और इसके एक साल बाद मद्रास प्रेसीडेंसी की पूर्ववर्ती, सेंट जॉर्ज किले की एजेंसी की स्थापना की थी, हालांकि मछलीपट्टनम और आर्मागोन में कंपनी के कारखाने 17वीं सदी के प्रारंभ से ही मौजूद थे। 1655 में एक बार फिर से इसकी पूर्व की स्थिति में वापस लाने से पहले एजेंसी को 1652 में एक प्रेसीडेंसी के रूप में उन्नत बनाया गया था। 1684 में इसे फिर से एक प्रेसीडेंसी के रूप में उन्नत बनाया गया और एलीहू येल को पहला प्रेसिडेंट नियुक्त किया गया। 1785 में पिट्स इंडिया एक्ट के प्रावधानों के तहत मद्रास ब्रिटिश ईस्ट इंडिया कंपनी द्वारा स्थापित तीन प्रांतों में से एक बन गया। उसके बाद क्षेत्र के प्रमुख को "प्रेसिडेंट" की बजाय "गवर्नर" का नाम दिया गया और कलकत्ता में गवर्नर-जनरल का अधीनस्थ बनाया गया, यह एक ऐसा पद था जो 1947 तक कायम रहा. न्यायिक, विधायी और कार्यकारी शक्तियां राज्यपाल के साथ रह गयीं जिन्हें एक काउंसिल का सहयोग प्राप्त था जिसके संविधान को 1861, 1909, 1919 और 1935 में अधिनियमित सुधारों द्वारा संशोधित किया गया था। 1939 में द्वितीय विश्व युद्ध छिड़ने के समय तक मद्रास में नियमित चुनाव आयोजित किए गए। 1908 तक प्रांत में 22 जिले शामिल थे जिनमें से प्रत्येक एक जिला कलेक्टर के अधीन था और आगे इसे तालुका तथा फिरका में उपविभाजित किया गया था जिसमें गांव प्रशासन की सबसे छोटी इकाई के रूप में थे।
+मद्रास ने 20वीं सदी के प्रारंभिक दशकों में भारतीय स्वतंत्रता आंदोलन में एक महत्वपूर्ण योगदान दिया और यह 1919 के मोंटेग-चेम्सफोर्ड सुधारों के बाद ब्रिटिश भारत में द्विशासन की प्रणाली को लागू करने वाला पहला प्रांत था। इसके बाद गवर्नर ने एक प्रधानमंत्री के साथ-साथ शासन किया। 15 अगस्त 1947 को भारतीय स्वतंत्रता के आगमन के साथ प्रेसीडेंसी को भंग कर दिया गया। 26 जनवरी 1950 को भारतीय गणराज्य के शुभारंभ के अवसर पर मद्रास को भारतीय संघ के राज्यों में से एक के रूप में स्वीकृत किया गया।</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>437</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>करौली जिला</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>करौली यादव की रियासत थी जो की यदुवंशी यादव थे जिसकी स्थापना महाराजा विजयपाल यादव ने की थी
 करौली ज़िला भारत के राजस्थान राज्य का एक ज़िला है। ज़िले का मुख्यालय करौली है।</t>
         </is>
       </c>
-      <c r="C72" t="n">
+      <c r="C102" t="n">
         <v>33</v>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>भारतीय सिविल सेवा</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>भारतीय सिविल सेवा भारत सरकार की ओर से नागरिक सेवा तथा स्थायी नौकरशाही है। सिविल सेवा देश की प्रशासनिक मशीनरी की रीढ़ है। भारत के संसदीय लोकतंत्र में जनता द्वारा चुने गए प्रतिनिधियों (मंत्रीगण ) के साथ वे प्रशासन को चलाने के लिए जिम्मेदार होते हैं। ये मंत्री विधायिकाओं के लिए उत्तरदायी होते हैं जिनका निर्वाचन सार्वभौमिक वयस्क मताधिकार के आधार पर आम जनता द्वारा होता है। मंत्रीगण परोक्ष रूप से लोगों के लिए भी जिम्मेदार हैं। लेकिन आधुनिक प्रशासन की कई समस्याओं के साथ बलात्कार द्वारा व्यक्तिगत रूप से उनसे निपटने की उम्मीद नहीं की जा सकती है। इस प्रकार मंत्रियों ने नीतियों का निर्धारण किया और नीतियों के निर्वाह के लिए सिविल सेवकों की नियुक्ति की जाती है।
 कार्यकारी निर्णय भारतीय सिविल सेवकों द्वारा कार्यान्वित किया जाता है। सिविल सेवक, भारतीय संसद के बजाय भारत सरकार के कर्मचारी हैं। सिविल सेवकों के पास कुछ पारम्परिक और सांविधिक दायित्व भी होते हैं जो कि कुछ हद तक सत्ता में पार्टी के राजनैतिक शक्ति के लाभ का इस्तेमाल करने से बचाता है। वरिष्ठ सिविल सेवक संसद के स्पष्टीकरण के लिए जिम्मेदार हो सकते हैं।
 सिविल सेवा में सरकारी मंत्रियों (जिनकी नियुक्ति राजनैतिक स्तर पर की गई हो), संसद के सदस्यों, विधानसभा विधायी सदस्य, भारतीय सशस्त्र बलों, गैर सिविल सेवा पुलिस अधिकारियों और स्थानीय सरकारी अधिकारियों को शामिल नहीं किया जाता है।</t>
         </is>
       </c>
-      <c r="C73" t="n">
+      <c r="C103" t="n">
         <v>221</v>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>मध्य शरद त्योहार</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>मध्य शरद त्योहार अथवा मून केक फेस्टिवल अथवा मध्य शरद उत्सव  (साँचा:Zh-full; वियतनामी : Tết Trung Thu) जिसे चीन में जूंचियो नाम से जाना जाता है, चीन और वियतनाम में फसल कटाई मनाया जाने वाला एक मूनकेक पर्व है। मूनकेक पर्व नाम इसलिए क्योंकि इस पर्व पर मूनकेक उपहार स्वरूप दिये जाते हैं।
+मध्य शरद ऋतु समारोह चीनी कैलेंडर, जो ग्रेगोरियन कैलेंडर में सितंबर या अक्टूबर के शुरू में है, में आठवें महीने के 15 वें दिन पर आयोजित किया जाता है। यह एक तारीख है कि शरत्काल विषुव सौर कैलेंडर, की समानताएं है जब चांद अपनी पूरी और roundest पर है। इस त्योहार के पारंपरिक भोजन mooncake, जो वहाँ के कई अलग अलग किस्मों रहे हैं। 
+मध्याह्न Autumn महोत्सव एक चीनी कैलेंडर में कुछ सबसे महत्वपूर्ण छुट्टियों से एक है, चीनी नव वर्ष और शीतकालीन अयनांत किया जा रहा दूसरों के लिए और, कई देशों में एक कानूनी छुट्टी है। किसानों को इस तिथि पर मौसम कटाई गिरावट के अंत का जश्न मनाने. इस दिन पर परंपरागत रूप से, चीनी परिवार के सदस्यों और दोस्तों के लिए फसल चाँद उज्ज्वल मध्य शरद ऋतु की प्रशंसा इकट्ठा करेंगे और चाँद चाँद के नीचे और pomelo के केक एक साथ खाना खाते हैं। उत्सव उनके साथ, वहाँ अतिरिक्त सांस्कृतिक या क्षेत्रीय सीमा शुल्क, जैसे हैं: 
+के चमकते जलाया लालटेन उठाते, टावर पर लालटेन प्रकाश, आकाश लालटेन के चल
+() | * जलन Chang'e (पौराणिक कथाओं) Chang'e सहित देवताओं को श्रद्धा में धूप 
+सीधा मध्य शरद ऋतु समारोह. (树 中秋, 竖 中秋 चीन 树 और 竖 में, होमोफोन्स) कर रहे हैं इसके बारे में पेड़ planting नहीं है, लेकिन बांस के खंभे पर लालटेन लटका और उन्हें एक उच्च बिंदु पर छतों, पेड़ों, जैसे डाल, छतों, आदि यह गुआंगज़ौ, हांगकांग, आदि में एक रिवाज है
+Dandelion पत्ते इकट्ठा और उनके परिवार के सदस्यों के बीच समान रूप से वितरित
+आग ड्रैगन नृत्य है
+ताइवान में, 1980 से, barbecuing मांस सड़क पर एक व्यापक को मध्य शरद ऋतु समारोह का जश्न मनाने रास्ता बन गया है।
+दुकानें बेच त्योहार से पहले mooncakes अक्सर के चित्र प्रदर्शित Chang'e चांद के लिए अस्थायी.</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>348</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>मूत्रमेह</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>बहुमूत्ररोग एक अवस्था है जो अत्यधिक प्यास तथा अत्यधिक मात्रा में अत्यंत तरल मूत्र के उत्सर्जित होने से चरितार्थ होती है और तरल पदार्थ के सेवन में कमी होने पर भी मूत्र विसर्जन में कोई कमी नहीं आती. बहुमूत्ररोग कई प्रकार के होते हैं तथा प्रत्येक का कारण भिन्न होता है। मनुष्यों में पाया जाने वाला सबसे आम प्रकार है केंद्रीय बहुमूत्ररोग (सेन्ट्रल डीआई) जो आर्गिनिन वेसोप्रेसिन (AVP) की कमी से होता है जिसे मूत्र-स्राव को कम करनेवाले हॉर्मोन (ADH) के नाम से भी जाना जाता है। मूत्रमेह का दूसरा आम प्रकार है नेफ्रोजेनिक बहुमूत्ररोग, जो गुर्दे की ADH के प्रति असंवेदनशीलता के कारण होता है। यह, दवा के इस्तेमाल से उत्पन्न चिकित्सजन्य कृतक के द्वारा भी हो सकता है।</t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="C105" t="n">
         <v>120</v>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>व्यवसाय-नीति</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>बिजनेस एथिक्स या कारपोरेट एथिक्स) नैतिकता का वह रूप है, जो कारोबारी माहौल में पैदा हए नैतिक सिद्धांतों और नैतिक समस्याओं की जांच करता रहता है और उनके सन्दर्भ में कुछ मानदण्डों की स्थापना करता है। यह व्यवसाय के आचरण से जुड़े सभी पहलुओं पर लागू होता है और यह व्यक्तियों और व्यापार संगठनों क आचरण पर समग्र रूप से प्रासंगिक है। व्यावहारिक आचार नीति एक ऐसा क्षेत्र है जिसका सम्बंध कई क्षेत्रों में पैदा हुए नैतिक सवालों से है जैसे चिकित्सीय, तकनीकी, कानूनी और व्यावसायिक नैतिकता। 
+२१वीं सदी में तेजी से अंतरात्मा केंद्रित बाजारों के बढ़ने के बाद और अधिक नैतिक व्यवसाय प्रक्रिया और कार्रवाई (जिसे नैतिकतावाद कहते हैं) की मांग बढ़ी.इसके साथ ही साथ, उद्योग पर यह दबाव पड़ा कि वह नए सार्वजनिक पहल और कानून के जरिये व्यवसायिक आचार नीति का विकास करे (उदाहरण के तौर पर अधिक उच्च-उत्सर्जन वाहनों पर अधिक ब्रिटेन का सड़क कर).कारोबार में अक्सर अनैतिक तरीके अपनाकर अल्पकालिक लाभ प्राप्त किये जा सकते हैं, लेकिन इस तरह के व्यवहार आगे चलकर अर्थव्यवस्था को कमजोर करते हैं।
+व्यावसायिक नैतिकता प्रामाणिक और वर्णनात्मक अनुशासन दोनों प्रकार की हो सकती है। एक कंपनी के कामकाज में और पेशेगत विशेषज्ञता के सम्बंध में यह क्षेत्र मुख्य रूप से प्रामाणिक है। शिक्षा में वर्णनात्मक दृष्टिकोण को भी स्थान दिया जा रहा है। व्यावसायिक नैतिकता के मुद्दों की मात्रा और सीमा इस बात से प्रदर्शित होती है कि व्यवसाय में कथित तौर पर बाधक माने जाने वाले गैर-आर्थिक सामाजिक मूल्यों को वह किस हद तक अपनाता है।
+ऐतिहासिक तौर पर व्यावसायिक नैतिकता के प्रति रुझान नाटकीय रूप से 1980 और 1990 के दशक में प्रमुख कम्पनियों और शिक्षाविदों दोनों के बीच बढ़ा.उदाहरण के लिए, आज की ज्यादातर प्रमुख कंपनियों की वेबसाइटें विभिन्न हेडलाइन्स के साथ गैर-आर्थिक, सामाजिक मूल्यों के प्रति वचनबद्धता पर जोर दे रही हैं (जैसे आचार संहिता, सामाजिक दायित्व घोषणापत्र). कुछ मामलों में, कम्पनियां अपने बुनियादी मूल्यों को व्यावसायिक नैतिकता की सिफारिशों के आलोक में परिभाषित करती हैं (जैसे BPका "पेट्रोलियम से परे" जो पर्यावरण के प्रति झुकाव को दर्शाता है).</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>334</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>विश्व शांति</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>विश्व शान्ति पृथ्वी पर सभी लोगों और राष्ट्रों के भीतर और उनके बीच शान्ति की एक आदर्श स्थिति की अवधारणा है।  विभिन्न संस्कृतियों, धर्मों, दर्शन और संगठनों की अलग-अलग अवधारणाएँ हैं कि ऐसा राज्य कैसे आएगा।
 विभिन्न धार्मिक और धर्मनिरपेक्ष संगठनों ने मानवाधिकारों, प्रौद्योगिकी, शिक्षा, अभियान्त्रिकी, चिकित्सा, या राजनय को सम्बोधित करके विश्व शान्ति प्राप्त करने का घोषित उद्देश्य सभी प्रकार की लड़ाई के अन्त के रूप में उपयोग किया है।  1945 से, संयुक्त राष्ट्र और इसकी संयुक्त राष्ट्र सुरक्षा परिषद के स्थायी सदस्य (चीन, फ़्रान्स, रूस, यूनाइटेड किंगडम और संयुक्त राज्य अमेरिका) युद्ध या युद्ध की घोषणा के बिना संघर्षों को हल करने के उद्देश्य से काम कर रहे हैं। बहरहाल, तब से राष्ट्रों ने कई सैन्य संघर्षों में प्रवेश किया है।</t>
         </is>
       </c>
-      <c r="C75" t="n">
+      <c r="C107" t="n">
         <v>123</v>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>चयापचय की अंतर्जात त्रुटि</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>आनुवंशिक रोग [[जिस में चयापचय संबंधी विकार शामिल है के संक्या के भीतर, चयापचय की अंतर्जात त्रुटियों  ]] का एक बड़ा वर्ग गिना जाता है। अधिकांश, एकल जीन दोष के कारण होते हैं, जो एंजाइम की कोड में सहायता करता है - ताकि विभिन्न पदार्थ (सब्सट्रेट) के रूपांतरण कोई दूसरे (उत्पाद) में हो जाय.
 सबसे अधिक विकारों में, समस्याओं का कारण वे पदार्थो के संचयीकरण जो विषैला है या जो सामान्य कार्य में रुकुवत है या फिर आवश्यक यौगिकों के संश्लेषण को कम करते हैं। चयापचय की अंतर्जात त्रुटियों को अब, अक्सर जन्मजात चयापचय रोगों या  वंशागत विरासत में मिले  चयापचय रोगों में संदर्भित किया जाते है - और इन शब्दों को समानार्थक माना जाते है।
 चयापचय की जन्मजात त्रुटि, ये शब्द एक ब्रिटिश चिकित्सक, आर्चीबाल्डगार्रोड़ (1857-१९३६) ने, १९०८ में, पहली बार, २०वी सदी में, इस्तिमाल किया था। उन का काम "एक जीन एक एंजाइम"परिकल्पना का पूर्वगामी काम माना जाता है। वह अलकपटनउरिया की प्रकृति और विरासत पर अध्ययन किया था। उन का मौलिक पाठ, चयापचय की अंतर्जात त्रुटि  १९२३ में प्रकाशित किया गया था।</t>
         </is>
       </c>
-      <c r="C76" t="n">
+      <c r="C108" t="n">
         <v>175</v>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>कैलगरी</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>कैलगरी (उच्चारित/ˈkælɡri, ˈkælɡəri/) कनाडा के अलबर्टा प्रांत का सबसे बड़ा शहर है। यह प्रांत के दक्षिण में, कनाडा की चट्टानों (Canadian Rockies) की अग्रिम पर्वतमालाओं के लगभग 80 कि॰मी॰ (260,000 फीट) पूर्व में एक तलहटी एवं मैदानी क्षेत्र में स्थित है। यह शहर अलबर्टा के घासभूमि वाले क्षेत्र में स्थित है।
 2006 में, कैलगरी शहर की आबादी 988,193 होने के कारण इस शहर की नगरपालिका देश की तीसरी सबसे बड़ी एवं अलबर्टा की सबसे बढ़ी नगरपालिका बन गई थी। 2006 में सम्पूर्ण महानगरीय जनसँख्या 1,079,310 के साथ यह कनाडा का पांचवां सबसे बड़ा महानगरीय जनगणना क्षेत्र (सी.ऍम.ए.) बन गया था। 2009 में, कैलगरी की अनुमानित महानगरीय जनसंख्या 1,230,248 के होते हुए यह क्रम में बढ़कर चौथा सबसे बड़ा महानगरीय जनगणना क्षेत्र (सी.ऍम.ए.) बन गया था।
@@ -2081,43 +2832,66 @@
 महानगरीय क्षेत्र एवं शहर के नजदीक प्रमुख पहाड़ी आश्रयों के साथ कैलगरी शीतकालीन खेलों एवं पर्यावरणीय पर्यटन के लिए एक गंतव्य स्थल है। यहाँ की आर्थिक गतिविधियाँ ज्यादातर पेट्रोलियम उद्योग पर केंद्रित हैं। शहर के आर्थिक विकास में कृषि, पर्यटन और उच्च तकनीक उद्योगों का भी योगदान है। 1988 में कैलगरी, शीतकालीन ओलिंपिक खेलों की मेजबानी करने वाला कनाडा का पहला शहर बन गया था।</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="C109" t="n">
         <v>235</v>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>हेपरिन</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>हेपरिन (प्राचीन ग्रीक ηπαρ से (हेपर), यकृत), जिसे अखंडित हेपरिन के रूप में भी जाना जाता है, एक उच्च-सल्फेट ग्लाइकोसमिनोग्लाइकन, व्यापक रूप से एक थक्का-रोधी इंजेक्शन के रूप में प्रयोग किया जाता है और किसी भी ज्ञात जैविक अणु घनत्व से इसमें सबसे ज्यादा ऋणात्मक चार्ज है।  इसका इस्तेमाल विभिन्न प्रयोगात्मक और चिकित्सा उपकरणों जैसे टेस्ट ट्यूब और गुर्दे की डायलिसिस मशीनों पर थक्का-रोधी आंतरिक सतह बनाने के लिए किया जाता है। फ़ार्मास्युटिकल ग्रेड हेपरिन को मांस के लिए वध किये जाने वाले जानवरों, जैसे शूकरीय (सुअर) आंत या गोजातीय (गाय) फेफड़े के म्युकोसल ऊतकों से प्राप्त किया जाता है।  
 हालांकि चिकित्सा में इसका उपयोग मुख्य रूप से थक्कारोध के लिए किया जाता है, शरीर में इसकी वास्तविक क्रियात्मक भूमिका अस्पष्ट बनी हुई है, क्योंकि रक्त विरोधी स्कंदन को अधिकांशतः हेपरन सल्फेट प्रोटियोग्लाइकन्स द्वारा हासिल किया जाता है जिसे अंतःस्तरीय कोशिकाओं से प्राप्त किया जाता है।  हेपरिन आम तौर पर मास्ट कोशिका के स्रावी बीजाणु के भीतर संग्रहीत रहता है और सिर्फ ऊतक चोट की जगहों पर वस्कुलेचर में जारी होता है। यह प्रस्तावित है कि थक्कारोध के बजाय, हेपरिन का मुख्य उद्देश्य ऐसी जगहों पर हमलावर बैक्टीरिया और अन्य बाह्य तत्वों से रक्षा करना है।  इसके अलावा, यह व्यापक रूप से विभिन्न प्रजातियों में संरक्षित है, जिनमें शामिल हैं कुछ अकशेरुकी जीव जिनमें ऐसी ही समान रक्त जमाव प्रणाली नहीं है।</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="C110" t="n">
         <v>222</v>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ऐनबालिक स्टेरॉयड</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>उपचय स्टेरॉयड, जिसे आधिकारिक तौर पर उपचय-एण्ड्रोजन स्टेरॉयड (एएएस) के रूप में जाना जाता है या सामान्य बोलचाल की भाषा में जिसे "स्टेरॉयड" कहा जाता है, एक दवा है जो कि पुरूष लिंग हार्मोन, टेस्टोस्टेरोन और डिहाइड्रोटेस्टोस्टेरोन के प्रभाव का अनुकरण करता है। वे कोशिकाओं के भीतर प्रोटीन संश्लेषण में वृद्धि करते हैं, जिसके परिणामस्वरूप सेलुलर ऊतक (अनाबोलिस्म) का विकास होता है, विशेष रूप से मांसपेशियों में. अनाबोलिक स्टेरॉयड में नर-हार्मोन संबंधी और पौरुष गुण होते हैं, जिसमें शामिल है मर्दाना विशेषताओं का विकास और रखरखाव, जैसे कि स्वर रज्जू और शारीरिक बालों की वृद्धि. अनाबोलिक शब्द की व्युत्पत्ति ग्रीक शब्द ἀναβολή अनाबोले से हुई है, जिसका अर्थ है "ऊपर उठा हुआ टीला" और एड्रोजेनिक शब्द, ग्रीक शब्द ἀνδρός एड्रोस से आया है, जिसका अर्थ "एक आदमी का"+-γενής -जीन "जन्म".
+अनाबोलिक स्टेरॉयड को सबसे पहले 1930 के दशक में पृथक्कृत किया गया, पहचाना और संश्लेषित किया गया और वर्तमान में इसे हड्डी विकास और भूख प्रोत्साहित करने, पुरुष यौवन, क्रोनिक वेस्टिंग स्थिति का उपचार करने जैसे कैंसर और एड्स के लिए इस्तेमाल किया जाता है। अमेरिकन कॉलेज ऑफ स्पोर्ट्स मेडिसीन ने स्वीकार किया कि आहार की पर्याप्त उपस्थिति में एएएस, शरीर के वजन को बढ़ाने में योगदान दे सकता है, अक्सर दुबले शरीर की वृद्धि होती है और तीव्रता वाले व्यायाम के माध्यम से मांसपेशी की शक्तियों में विकास होता है और कुछ लोगों में एएस के इस्तेमाल से उचित आहार अतिरिक्त तौर पर बढ़ सकता है।
+अनाबोलिक स्टेरॉयड का लंबे समय से इस्तेमाल करने या अत्यधिक खुराक लेने से स्वास्थ्य जोखिम उत्पन्न हो सकते हैं। इन प्रभावों में कोलेस्ट्रॉल के स्तर में परिवर्तन (न्यून-घनत्व लेपोप्रोटीन में वृद्धि और उच्च घनत्व के लिपोप्रोटीन में गिरावट), मुंहासे, उच्च रक्तचाप, जिगर की क्षति (मुख्य रूप से मौखिक स्टेरॉयड) और दिल के बांए वेंट्रिकल के ढांचे में खतरनाक परिवर्तन शामिल हैं।
+खेल और शरीर सौष्ठव में अनाबोलिक स्टेरॉयड के लिए एर्गोगेनिक उपयोग उनके प्रतिकूल प्रभाव और पारम्परिक रूप से एक संभावित लाभ जिसे "धोखाधड़ी" माना जाता है, विवादास्पद है। उनके प्रयोग को डोपिंग के रूप में सन्दर्भित किया जाता है और सभी प्रमुख खेल निकाय द्वारा प्रतिबंधित किया गया है। मान्यता प्राप्त आईओसी प्रयोगशालाओं द्वारा एएएस में कई वर्षों से दूर पदार्थों में सबसे अधिक डोपिंग पाया गया है। उन देशों में जहां एएएस प्रतिबंधित पदार्थ हैं, वहां अक्सर काला बाज़ारी भी है और वहां इसकी तस्करी की जाती है या यहां तक की ग्रहकों को नकली दवाइयां भी बेची जाती हैं।</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>399</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>मानवतावाद</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>साँचा:Humanism
 मानवतावाद मानव मूल्यों और चिंताओं पर ध्यान केंद्रित करने वाला अध्ययन, दर्शन या अभ्यास का एक दृष्टिकोण है। इस शब्द के कई मायने हो सकते हैं, उदाहरण के लिए:
@@ -2129,191 +2903,215 @@
 मानवतावादी (ह्युमनिस्ट), मानवतावाद (ह्यूमनिज्म) और मानवतावाद संबंधी (ह्युमनिस्टिक) का संबंध सीधे तौर पर और सहज रूप से साहित्यिक संस्कृति से है।</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="C112" t="n">
         <v>246</v>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>भीमायन</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>भीमायन: भीमराव रामजी आम्बेडकर के जीवन की घटनाएं, नवयान द्वारा 2011 में प्रकाशित भीमराव रामजी आम्बेडकर की एक ग्राफिक जीवनी है और इसकी सराहना सीएनएन द्वारा शीर्ष पांच राजनीतिक कॉमिक किताबों में से एक के रूप में की गई थी। यह कलाकार दुर्गाबाई व्याम, सुभाष व्याम और लेखक श्रीविद नटराजन और एस आनंद द्वारा बनाया गया था। यह जाति भेदभाव और प्रतिरोध के अनुभवों को दर्शाता है जिसे भीमराव आम्बेडकर ने अपने आत्मकथात्मक चित्रों में रिकॉर्ड किया, बाद में इसे वसंत मुन द्वारा भाषण वेटिंग फ़ॉर अ वीज़ा शीर्षक के तहत "डॉ॰ बाबासाहेब आम्बेडकर: रायटीग्ज अँड स्पीचेज" में संकलित और संपादित किया गया। यह भारत की शीर्ष बिक्री ग्राफिक किताबों में से एक है।
 आम्बेडकर द्वारा सामना किए जाने वाले सामाजिक भेदभाव के अनुभवों को दर्शाने के लिए भीमायन को पारधान गोंड कला के उपयोग के लिए सराहना की गई है। यह digna (मूल रूप से दीवारों और पारधान गोंड के घरों के फर्श पर चित्रित छवियों) पैटर्न और प्रकृति इमेजरी का उपयोग करता है। मेट्रोपॉलिटन स्टेट यूनिवर्सिटी ऑफ डेनवर में संबद्ध संकाय जेरेमी स्टॉल के अनुसार, 'यह भारतीय कॉमिक्स संस्कृति की ताकत का प्रदर्शन करने और लोक और लोकप्रिय संस्कृति को ओवरलैप करने का एक मजबूत उदाहरण प्रदान करने के लिए सबसे उल्लेखनीय है।' 2011 में, भीमायन को '1001 कॉमिक्स जो आपको मरने से पहले पढ़ना चाहिए' (1001 Comics to Read Before You Die) में शामिल किया गया था।
 इसे “आम्बेडकर: द फाइट फॉर जस्टिस” (Ambedkar: The Fight for Justice) के रूप में यूके और संयुक्त राज्य अमेरिका में टेट पब्लिशिंग द्वारा 2013 में प्रकाशित किया गया है। इस पुस्तक का अनुवाद मलयालम, हिन्दी, तमिल, मराठी, तेलुगु, कन्नड़, कोरियाई और फ्रेंच समेत कई भाषाओं में किया गया है।</t>
         </is>
       </c>
-      <c r="C80" t="n">
+      <c r="C113" t="n">
         <v>279</v>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>मानव संसाधन प्रबंधन</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>मानव संसाधन प्रबंधन (HRM) किसी प्रतिष्ठान की सबसे मूल्यवान उन आस्तियों के प्रबंधन का कौशलगत और सुसंगत दृष्टिकोण है- जो वहां काम कर रहे हैं तथा व्यक्तिगत और सामूहिक रूप से व्यापार के उद्देश्यों की प्राप्ति में योगदान दे रहे हैं। "मानव संसाधन प्रबंधन" और "मानव संसाधन" (HR) शब्दों का स्थान मुख्यतः "कार्मिक प्रबंधन" शब्द ने ले लिया है, जो प्रतिष्ठान में लोगों के प्रबंधन में शामिल प्रक्रियाओं की व्याख्या करता है। 
 सामान्य अर्थ में HRM का मतलब लोगों को रोजगार देना, उनके संसाधनों का विकास करना, उपयोग करना, उनकी सेवाओं को काम और प्रतिष्टान की आवश्यकता के अनुरूप बनाये रखना और बदले में (भरण-पोषण) मुआवजा देते रहना है।</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="C114" t="n">
         <v>109</v>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>लीड्स</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>लीड्स (उच्चारित/ˈliːdz/ ( सुनें)) इंग्लैंड के वेस्ट यॉर्कशायर का एक शहर और महानगरीय प्रशासनिक प्रभाग है। 2001 में लीड्स के मुख्य शहरी उपखंड की आबादी 443,247 थी जबकि पूरे शहर की जनसंख्या 723,100 (२००८ अनु.) थी। लीड्स वेस्ट यॉर्कशायर शहरी क्षेत्र का सांस्कृतिक, आर्थिक और व्यावसायिक केंद्र है जिसकी जनसंख्या 2001 की जनगणना में 1.5 मिलियन थी और लीड्स का शहरी क्षेत्र जिसके महत्वपूर्ण भाग में लीड्स का एक आर्थिक क्षेत्र शामिल है, इसकी जनसंख्या 2.9 मिलियन थी। लीड्स व्यवसाय, कानूनी एवं वित्तीय सेवाओं के लिए लंदन के बाहर ब्रिटेन का सबसे बड़ा केंद्र है।
+ऐतिहासिक रूप से लीड्स यॉर्कशायर की वेस्ट राइडिंग का एक भाग है जिसके इतिहास का विवरण पांचवीं सदी में दर्ज पाया जा सकता है जब एल्मेट का साम्राज्य "लोइडिस" के वनों से घिरा हुआ था, जिससे लीड्स नाम की उत्पत्ति हुई है। इस नाम का प्रयोग सदियों से कई प्रशासनिक संस्थाओं के लिए किया जा रहा है। इसका नाम 13वीं सदी में एक छोटे से जागीर संबंधी नगर से कई स्वरूपों में बदलते हुए वर्तमान महानगरीय प्रशासनिक प्रभाग से जुड़े नाम के रूप में रूपांतरित हुआ है। 17वीं और 18वीं सदियों में लीड्स ऊन के उत्पादन और व्यापार का एक प्रमुख केंद्र बन गया था। फिर औद्योगिक क्रांति के दौरान लीड्स एक प्रमुख औद्योगिक केंद्र के रूप में विकसित हुआ; ऊन अभी भी एक प्रमुख उद्योग था लेकिन पटसन, इंजीनियरिंग, लोहे की ढलाई, छपाई और अन्य उद्योग महत्वपूर्ण थे। 16वीं सदी में आयरे नदी की घाटी में एक संक्षिप्त बाजार शहर से लीड्स का विस्तार आसपास के गांवों को अपने अंदर समाहित करते हुए 20वीं सदी के मध्य तक एक घनी आबादी वाले शहरी केंद्र के रूप में हो गया।
+इस क्षेत्र में सार्वजनिक परिवहन, रेल और सड़क के संचार नेटवर्क लीड्स को केंद्रित कर बनाए गए हैं और अन्य देशों के नगरों एवं शहरों के साथ जोड़ने की कई व्यवस्थाएं की गयी हैं। लीड्स के शहरी क्षेत्र की भागीदारी में इसकी सौंपी गयी भूमिका क्षेत्रीय आर्थिक विकास के लिए शहर के महत्त्व को पहचान दिलाती है।</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>332</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>तरण ताल</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>तरण ताल, या  स्वीमिंग पूल, तैराकी या जल-आधारित मनोरंजन के इरादे से पानी से भरे एक स्थान को कहते हैं। इसके कई मानक आकार हैं; ओलंपिक-आकार का स्विमिंग पूल सबसे बड़ा और सबसे गहरा होता है।[उद्धरण चाहिए] पूल को जमीन से ऊपर या जमीन पर धातु, प्लास्टिक, फाइबरग्लास या कंक्रीट जैसी सामग्रियों से बनाया जा सकता है।
 जिस पूल को कई लोगों द्वारा या आम जनता के द्वारा उपयोग किया जा सकता है उसे पब्लिक पूल कहते हैं, जबकि विशेष रूप से कुछ लोगों द्वारा या किसी घर में इस्तेमाल किये जाने वाले पूल को प्राइवेट पूल कहा जाता है। कई हेल्थ क्लबों, स्वास्थ्य केन्द्रों और निजी क्लबों में सार्वजनिक पूल होते हैं जिन्हें ज्यादातर व्यायाम के लिए इस्तेमाल किया जाता है। कई होटलों और मसाज पार्लरों में तनाव से मुक्ति के लिए सार्वजनिक पूल मौजूद होते हैं। हॉट टब और स्पा ऐसे पूल होते हैं जिसमें गर्म पानी होता है जिसे तनाव मुक्ति या चिकित्सा के लिए इस्तेमाल किया जाता है और ये घरों, क्लबों एवं मसाज पार्लरों में आम तौर पर मौजूद होते हैं। स्विमिंग पूल (तरण ताल) का उपयोग ग़ोताख़ोरी (डाइविंग) और पानी के अन्य खेलों के साथ-साथ लाइफगार्ड्स और अंतरिक्ष यात्रियों के प्रशिक्षण में भी होता है।
 स्विमिंग पूलों में बैक्टीरिया, वायरस, शैवाल और कीट लार्वा के विकास और प्रसार को रोकने के लिए अक्सर रासायनिक कीटाणुनाशकों जैसे कि क्लोरीन, ब्रोमिन या खनिज सैनिटाइजर्स और अतिरिक्त फिल्टरों का उपयोग किया जाता है। वैकल्पिक रूप से पूल कीटाणुनाशकों के बगैर अतिरिक्त कार्बन फिल्टरों और यूवी कीटाणुशोधन के साथ बायोफ़िल्टर का इस्तेमाल कर तैयार किये जा सकते हैं। दोनों ही मामलों में तालों (पूल) में एक उचित प्रवाह दर को बनाये रखना आवश्यकता होता है।</t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="C116" t="n">
         <v>277</v>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>फिलिप्स</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>कोनिंक्लिजके फिलिप्स इलेक्ट्रॉनिक्स एनवी (रॉयल फिलिप्स इलेक्ट्रॉनिक्स इंक.) जिसे आम तौर पर सबसे अधिक फिलिप्स यूरोनेक्स्ट : PHIANYSE: PHG के रूप में जाना जाता है, एक डच इलेक्ट्रोनिक्स कॉर्पोरेशन है।
 फिलिप्स दुनिया की सबसे बड़ी इलेक्ट्रॉनिक्स कंपनियों में से एक है। 2009 में, इसकी बिक्री € 23.18 बिलियन थी। कंपनी 60 से अधिक देशों में 123,800 लोगों को रोजगार देती है।
 फिलिप्स अनेक क्षेत्रों में सुव्यवस्थित है: फिलिप्स कंज्यूमर लाइफस्टाइल्स (पूर्व में फिलिप्स कंज्यूमर इलेक्ट्रॉनिक्स और फिलिप्स डोमेस्टिक एप्लायंसेज तथा पर्सनल केयर), फिलिप्स लाइटिंग और फिलिप्स हैल्थकेयर (पूर्व में फिलिप्स मेडिकल सिस्टम्स).</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="C117" t="n">
         <v>92</v>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>गृह विज्ञान</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>गृह विज्ञान (home sciences) शिक्षा की वह विधा है जिसके अन्तर्गत पाक शास्त्र, पोषण, गृह अर्थशास्त्र, उपभोक्ता विज्ञान, बच्चों की परवरिश, मानव विकास, आन्तरिक सज्जा, वस्त्र एवं परिधान, गृह-निर्माण आदि का अध्ययन किया जाता है।
 ऐतिहासिक रूप से जब बालकों को कृषि या 'शॉप' (लोहारी, बढ़ईगिरी, आटो की मरम्मत) आदि की शिक्षा दी जाने लगी तो बालिकाओं के लिये इस विषय के शिक्षण की आवश्यकता महसूस की गयी।</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="C118" t="n">
         <v>68</v>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>रमन स्पेक्ट्रमिकी</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>रमन वर्णक्रमीयता सट्रोस्कोपी (सी वी रमन उच्चारित/ˈrɑːmən/ के नाम पर आधारित) एक वर्णक्रमीय (स्पेक्ट्रोस्कोपी) तकनीक है जिसका प्रयोग एक प्रणाली में कंपन, घूर्णन तथा अन्य कम आवृत्ति के प्रकारों के अध्ययन में होता है। यह एक रंग के प्रकाश (मोनोक्रोमेटिक लाईट) के, आम तौर पर इन्फ्रारेड या पराबैंगनी रेंज के पास लेज़र से दिखाई देने वाले अलचकदार स्कैटरिंग (बिखराव) या रमन बिखराव (रमन स्कैटरिंग) पर आधारित है। प्रणाली में लेज़र प्रकाश फ़ोनोन (phonon) या उत्तेज़क कारकों से क्रिया करता है जिसके परिणामस्वरूप लेज़र फोटोन की ऊर्जा ऊपर या नीचे स्थानांतरित होती रहती है। ऊर्जा में बदलाव प्रणाली में फ़ोनोन (phonon) मोड के बारे में जानकारी देता है। इन्फ्रारेड वर्णक्रमीयता (स्पेक्ट्रोस्कोपी) समान तरह की, लेकिन अतिरिक्त सूचना प्रदान करती है।
+आमतौर पर, एक नमूने को एक लेज़र बीम से प्रकाशित किया जाता है। प्रकाशित बिंदु से रोशनी को एक लेंस के माध्यम से एकत्रित किया जाता है और मोनोक्रोमेटर (monochromator) के माध्यम से भेजा जाता है। रेले बिखराव (रेले स्कैटरिंग) के कारण, लेज़र लाइन के पार की तरंगे छान ली जाती हैं जबकि बची हुई रोशनी को एक डिटेक्टर पर छितराया जाता है। 
+स्वाभाविक रमन बिखराव (रमन स्कैटरिंग) आम तौर पर बहुत कमजोर होता है और इसी कारण रमन वर्णक्रमीयता (स्पेक्ट्रोस्कोपी) में मुख्य कठिनाई प्रचंड रेले स्कैटर्ड लेज़र प्रकाश में से कमज़ोर अलचकदार स्कैटर्ड लेज़र प्रकाश को अलग करना है। ऐतिहासिक रूप से, एक उच्च दर की लेज़र रिजेक्शन को प्राप्त करने के लिए रमन स्पेक्ट्रोमीटर ने होलोग्राफिक (holographic) ग्रेटिंग तथा कई चरणों में फैलाव का प्रयोग किया। अतीत में, रमन फैलाव सेटअप के लिए डिटेक्टर के रूप में फोटोमल्टीप्लायर (photomultiplier) पहली पसंद थे, जो अत्यधिक समय लेते थे। लेकिन, आधुनिक उपकरण लगभग सार्वभौमिक रूप से लेज़र रिजेक्शन तथा स्पेक्ट्रोग्राफ और सीसीडी (CCD) डिटेक्टरों के लिए नॉच (notch) या एज फ़िल्टर (edge filter) (या तो एक्सियल ट्रांसमिसिव (axial transmissive (एटी (AT)), ज़ेर्नी-टर्नर (Czerny-Turner) (सीटी (CT)) मोनोक्रोमेटर या फिर एफटी (FT) (फोरियर ट्रांसफोर्म स्पेक्ट्रोस्कोपी आधारित)), का प्रयोग करते हैं।
+रमन वर्णक्रमीयता (स्पेक्ट्रोस्कोपी) के कई उन्नत प्रकार हैं, जिसमे सरफेस एन्हैंस्ड रमन (surface-enhanced Raman), टिप एन्हैंस्ड रमन (tip-enhanced Raman), पोलराइज्ड रमन (polarised Raman), स्टिमुलेटेड रमन (stimulated Raman) (स्टिमुलेटेड उत्सर्जन की तरह), ट्रांसमिशन रमन (transmission Raman), स्पैटियली-ऑफ़सेट रमन (spatially-offset Raman) और हायपर रमन (hyper Raman) शामिल हैं।</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>363</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>दुग्धशाला</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>दुग्धशाला या डेरी में पशुओं का दूध निकालने तथा तत्सम्बधी अन्य व्यापारिक एवं औद्योगिक गतिविधियाँ की जाती हैं। इसमें प्रायः गाय और भैंस का दूध निकाला जाता है किन्तु बकरी, भेड़, ऊँट और घोड़ी आदि के भी दूध निकाले जाते हैं।</t>
         </is>
       </c>
-      <c r="C85" t="n">
+      <c r="C120" t="n">
         <v>41</v>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>चीनी मार्शल आर्ट</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>चीनी मार्शल आर्ट, कभी-कभी मैंडरिन चीनी भाषा में वुशु (सरलीकृत चीनी वर्ण: 武术; पारम्परिक चीनी वर्ण: 武術; पिनयिन: wǔshù) कहलाता है, लेकिन कुंग फू (चीनी भाषा: 功夫पिनयिन गोंगफू) के नाम से लोकप्रिय है, कई तरह की लड़ाई की शैलियां हैं, जिन्हें आज जो चीन कहलाता है, वहा पे सदियों से विकसित किया गया है। लड़ाई की ये शैलियां आमतौर पर सामान्य लक्षण के अनुसार वर्गीकृत किया जाते हैं, इनकी पहचान "परिवार" (家, जिया), "संप्रदायों" (派, पै) अथवा "स्कूलों" (門, मे) के मार्शल आर्ट के रूप में की जाती है। ऐसे लक्षणों के उदाहरणों में पशुओं का अनुकरण करते हुए शारीरिक व्यायाम करना, अथवा चीनी दर्शन, धर्म और किंवदंतियों से प्रेरित प्रशिक्षण तरीके शामिल हैं। शैलियां जो ची में हेरफेर पर केंद्रित है, कभी-कभी इन्हें आंतरिक (内家拳, नीजियाक्वान-nèijiāquán) लेबल का कहा जाता है, जबकि अन्य जो मांसपेशियों को उन्नत बनाने और हृदयवाहिका संबंधी फिटनेस पर केंद्रित होती है, वाह्य (外家拳, वैजियाक्वान-wàijiāquán) लेबल की बतायी जाती हैं। भौगोलिक स्थिति जैसे कि उत्तरी (北拳, बीक्वान-běiquán) और दक्षिणी (南拳, नैनक्वान -nánquán) भी वर्गीकरण का एक अन्य लोकप्रिय तरीका है।</t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="C121" t="n">
         <v>175</v>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>वैश्विक स्वास्थ्य</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>वैश्विक स्वास्थ्य वैश्विक संदर्भ में लोगों का स्वास्थ्य से संबंधित मामला है और यह किसी व्यक्ति के राष्ट्र की चिंताओं और दृष्टिकोण से परे मामला है। स्वास्थ्य समस्याएं, जो राष्ट्रीय सीमाओं को पार कर जाती हैं या जिनका वैश्विक स्तर पर राजनीतिक और आर्थिक प्रभाव पड़ता है, पर हमेशा जोर दिया जाता है। इसे कुछ इस तरह से परिभाषित किया गया है, 'यह अध्ययन, शोध और अभ्यास का वह क्षेत्र है जिसमें दुनिया के लोगों के स्वास्थ्य सुधार और स्वास्थ्य में समानता प्राप्त करने को प्राथमिकता दी जाती है'. इस प्रकार, विश्व स्तर पर स्वास्थ्य का संबंध दुनिया भर में स्वास्थ्य सुधार, असमानता में कमी और ऐसे वैश्विक खतरों के खिलाफ सुरक्षा प्रदान करना है जो राष्ट्रीय सीमाओं को नहीं मानता है। इन मानसिक स्वास्थ्य से संबंधित सिद्धांतों को लागू किया जाना वैश्विक मानसिक स्वास्थ्य कहलाता है।
-स्वास्थ्य के लिए प्रमुख अंतर्राष्ट्रीय एजेंसी वैश्विक स्वास्थ्य संगठन (डब्ल्यूएचओ (WHO)) है। वैश्विक स्वास्थ्य संबंधी गतिविधियों पर प्रभाव डालनेवाली अन्य महत्वपूर्ण एजेंसियों में यूनिसेफ (UNICEF), विश्व खाद्य कार्यक्रम (डब्लूएफपी (WHP)) और विश्व बैंक भी शामिल हैं। वैश्विक स्वास्थ्य में सुधार के लिए एक बड़ी पहल संयुक्त राष्ट्र सहस्राब्दि घोषणा है, जो विश्व स्तर पर सहस्राब्दि विकास लक्ष्य का समर्थन करता है।</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>198</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>स्टैनफोर्ड विश्वविद्यालय</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>लेलैंड स्टैनफोर्ड जूनियर विश्वविद्यालय, जिसे सामान्यतः स्टैनफोर्ड विश्वविद्यालय या स्टैनफोर्ड के रूप में संदर्भित किया जाता है, एक निजी अनुसंधान विश्वविद्यालय है, जो स्टैनफोर्ड, केलिफोर्निया, संयुक्त राज्य अमेरिका, में स्थित है। इस विश्वविद्यालय की स्थापना 1891 में कैलिफोर्निया के रेलरोड व्यवसायी लेलैंड स्टैनफोर्ड द्वारा की गई जिसका नामकरण उनके मृत बेटे के नाम पर किया गया. इसके पूर्व छात्रों ने ह्युलेट-पेकर्ड, इलेक्ट्रॉनिक आर्ट्स, सन माइक्रोसिस्टम्स, एनवीडिया, याहू!, सिस्को सिस्टम्स, सिलिकॉन ग्राफिक्स, सनरन और गूगल कंपनियों की स्थापना की है। 
 स्टैनफोर्ड में, संयुक्त राज्य अमेरिका और दुनिया भर से लगभग 6,800 पूर्वस्नातक और 8,300 स्नातक छात्रों की भर्ती की जाती है। विश्वविद्यालय कई स्कूलों में विभाजित है जिसमें स्टैनफोर्ड ग्रेजुएट स्कूल ऑफ बिजनेस, स्टैनफोर्ड लॉ स्कूल, स्टैनफोर्ड स्कूल ऑफ मेडिसन और स्टैनफोर्ड स्कूल ऑफ इंजीनियरिंग शामिल हैं। .
@@ -2322,106 +3120,173 @@
 स्टैनफोर्ड के एथलेटिक कार्यक्रम ने पिछले पन्द्रह साल के प्रत्येक NACDA डाइरेक्टर्स कप को जीता है। पेसिफिक-10 कॉन्फ्रेंस में प्रतिस्पर्धा करने वाले दो निजी विश्वविद्यालयों में, स्टैनफोर्ड की मुख्य एथलेटिक प्रतिद्वंद्विता काल के साथ होती है।</t>
         </is>
       </c>
-      <c r="C88" t="n">
+      <c r="C122" t="n">
         <v>220</v>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>वैश्विक स्वास्थ्य</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>वैश्विक स्वास्थ्य वैश्विक संदर्भ में लोगों का स्वास्थ्य से संबंधित मामला है और यह किसी व्यक्ति के राष्ट्र की चिंताओं और दृष्टिकोण से परे मामला है। स्वास्थ्य समस्याएं, जो राष्ट्रीय सीमाओं को पार कर जाती हैं या जिनका वैश्विक स्तर पर राजनीतिक और आर्थिक प्रभाव पड़ता है, पर हमेशा जोर दिया जाता है। इसे कुछ इस तरह से परिभाषित किया गया है, 'यह अध्ययन, शोध और अभ्यास का वह क्षेत्र है जिसमें दुनिया के लोगों के स्वास्थ्य सुधार और स्वास्थ्य में समानता प्राप्त करने को प्राथमिकता दी जाती है'. इस प्रकार, विश्व स्तर पर स्वास्थ्य का संबंध दुनिया भर में स्वास्थ्य सुधार, असमानता में कमी और ऐसे वैश्विक खतरों के खिलाफ सुरक्षा प्रदान करना है जो राष्ट्रीय सीमाओं को नहीं मानता है। इन मानसिक स्वास्थ्य से संबंधित सिद्धांतों को लागू किया जाना वैश्विक मानसिक स्वास्थ्य कहलाता है।
+स्वास्थ्य के लिए प्रमुख अंतर्राष्ट्रीय एजेंसी वैश्विक स्वास्थ्य संगठन (डब्ल्यूएचओ (WHO)) है। वैश्विक स्वास्थ्य संबंधी गतिविधियों पर प्रभाव डालनेवाली अन्य महत्वपूर्ण एजेंसियों में यूनिसेफ (UNICEF), विश्व खाद्य कार्यक्रम (डब्लूएफपी (WHP)) और विश्व बैंक भी शामिल हैं। वैश्विक स्वास्थ्य में सुधार के लिए एक बड़ी पहल संयुक्त राष्ट्र सहस्राब्दि घोषणा है, जो विश्व स्तर पर सहस्राब्दि विकास लक्ष्य का समर्थन करता है।</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>198</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>मैसाचुसेट्स प्रौद्योगिकी संस्थान</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>मैसाचुसेट्स प्रौद्योगिकी संस्थान (मैसाचुसेट्स इन्स्टिट्यूट ऑफ टैक्नोलॉजी - एमआईटी) (अंग्रेज़ी: Massachusetts Institute of Technology) कैम्ब्रिज, मैसाचुसेट्स में स्थित एक निजी शोध विश्वविद्यालय है। एमआईटी में 32 शैक्षणिक विभागों से युक्त पांच विद्यालय और एक महाविद्यालय है, जिसमें वैज्ञानिक और प्रौद्योगिकी अनुसंधान पर विशेष जोर दिया जाता है। एमआईटी दो निजी भूमि अनुदान विश्वविद्यालयों में से एक है और वह समुद्री-अनुदान और अंतरिक्ष-अनुदान विश्वविद्यालय भी है।
+विलियम बार्टन रोजर्स द्वारा 1861 में संयुक्त राज्य अमेरिका के औद्योगिकीकरण की जरुरतो को ध्यान में रख कर स्थापित किए गए इस विश्वविद्यालय ने यूरोपीय विश्वविद्यालय प्रतिमान को अपनाया और इसमें प्रारंभ से ही प्रयोगशाला शिक्षा पर जोर दिया गया। इसका मौजूदा 168-एकड़ (68.0 हे॰) परिसर 1916 में खुला, जो चार्ल्स नदी घाटी के उत्तरी किनारे पर 1 मील (1.6 कि॰मी॰) फैला हुआ है। एमआईटी शोधकर्ता द्वितीय विश्वयुद्ध और शीतयुद्ध के दौरान सुरक्षा अनुसंधान के संबंध में कम्प्यूटर, रडार और इनर्टिअल (inertial) मार्गदर्शन रचने के प्रयत्नो में जुड़े हुए थे। पिछले 60 वर्षों में, एमआईटी के शिक्षात्मक कार्यक्रम भौतिक विज्ञान और अभियांत्रिकी से परे अर्थशास्त्र, दर्शन, भाषा विज्ञान, राजनीति विज्ञान और प्रबंधन जैसे सामाजिक विज्ञान तक भी विस्तरीत हुए है।
+एमआईटी में वर्ष 2009-2010 के पतझड़ के सत्र के लिए अवरस्नातक स्तर पर 4,232 और स्नातक स्तर पर 6,152 छात्रों को प्रवेश दिया गया है। इसमें करीबन 1,009 संकाय सदस्यों को रोजगार प्रदान किया है। इसकी बंदोबस्ती और अनुसंधान पर वार्षिक व्यय अन्य किसी भी अमेरिकी विश्वविद्यालयो में से सबसे अधिक है। अब तक 75 नोबल पुरस्कार विजेता, 47 राष्ट्रीय विज्ञान पदक प्रापक और 31 मैकआर्थर अध्येता इस विश्वविद्यालय के साथ वर्तमान या भूतपूर्व समय में सम्बद्ध रहे है। एमआईटी के पूर्व छात्रों द्वारा स्थापित कंपनियों का एकत्रित राजस्व विश्व की सबसे बड़ी सत्तरहवीं अर्थव्यवस्था है।
+इंजिनीयर्स द्वारा 33 खेल प्रायोजित है, जिनमें से ज्यादातर NCAA श्रेणी III के न्यू इंग्लैंड महिला और पुरुषों के व्यायामी सम्मेलन में भाग लेते है, श्रेणी I के नौकायन कार्यक्रम EARC और EAWRC प्रतिस्पर्धा के भाग है। अमेरिका के मैसाचुसेट्स में स्थित इस विश्वविद्यालय में 34 एकेडमिक विभाग, डिविजन और डिग्री-ग्रांटिड प्रोग्राम हैं। इसमें 1025 फैकल्टी सदस्य हैं। 2009-10 में इसमें 10000 छात्र एनरोल थे। वर्तमान में इसमें 2700 विदेशी छात्र भी पढ़ाई कर रहे हैं।</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>357</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>कोकेन</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>कोकेन (Benzoylmethylecgonine) एक क्रिस्टलीय ट्रोपेन उपक्षार है, जो कोका पौधे की पत्तियों से प्राप्त होता है। यह नाम "कोका" से आया है, जिसमें उपक्षार का प्रत्यय -ine लगाने से यह कोकेन बन गया। यह केंद्रीय तंत्रिका तंत्र का एक उत्तेजक और क्षुधा मारक है। विशेष रूप से, यह एक सेरोटोनिन-नोरेपिनेफ्राइन-डोपामिन रीअपटेक प्रावरोधक है, जो बाहरी केटकोलामाइन ट्रांसपोर्टर लिगेंड जैसे कार्यक्षमता की मध्यस्थता करता है। क्योंकि जिस तरह से यह मेसोलिम्बिक रिवार्ड पाथवे को प्रभावित करता है, कोकेन व्यसनकारी है।
 गैर-औषधीय और सरकार द्वारा गैर-मंजूर प्रयोजनों में इसे रखना, उपजाना और वितरण करना दुनिया के लगभग सभी हिस्सों में अवैध है। हालांकि इसका स्वतंत्र व्यावसायीकरण अवैध है और लगभग सभी देशों में गंभीर दंड वाला अपराध है, कई सामाजिक, सांस्कृतिक और व्यक्तिगत माहौल में इसका इस्तेमाल दुनिया भर में व्यापक है।</t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="C125" t="n">
         <v>130</v>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>मर्सिडीज-बेंज एस-क्लास</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>मर्सिडीज-बेंज एस-क्लास, विलासिता सिडैन कार की श्रृंखला है जिसका उत्पादन डेमलर एजी के एक प्रभाग मर्सिडीज-बेन्ज़ द्वारा किया जाता है। इस श्रेणी को आधिकारिक तौर पर W116 एस-क्लास के साथ 1972 में पेश किया गया था, जिसने 1950 के दशक के मध्य के मर्सिडीज-बेन्ज़ मॉडल का स्थान लिया। मर्सिडीज बेंज की श्रृंखला में सर्वोत्कृष्ट के रूप में, एस-क्लास ने कंपनी के कई नवीनतम नवाचारों को पहली बार पेश किया, जिसमें शामिल है ड्राइवट्रेन प्रौद्योगिकी, आतंरिक सुविधाएं और सुरक्षा प्रणालियां (जैसे कि प्रथम सीट बेल्ट प्रीटेंशनर). एस-क्लास, लक्जरी कारों में दुनिया में सबसे अधिक बिकने वाली है, और इसकी नवीनतम पीढ़ी, W221 एस-क्लास का प्रीमियर 2006 में एक बिलकुल नई डिजाइन के रूप में हुआ। जैसा कि इसकी पिछली पुनरावृत्ति में हुआ था, W221 एस-क्लास की बिक्री स्टैंडर्ड और लम्बे व्हीलबेस संस्करणों में होती है; V6, V8, V12, डीजल और हाइब्रिड पॉवरट्रेन को पेश किया गया है। सभी मॉडल जो मेक्सिको में बनते हैं या संयुक्त राज्य अमेरिका में बेचे जाते हैं वे केवल लम्बे व्हीलबेस में उपलब्ध हैं।
 "एस-क्लास" नाम को जर्मन शब्द "सोन्डेरक्लासे" से लिया गया जिसका कि "एस-क्लास" एक संक्षिप्त रूप है। सोन्डेरक्लासे का अर्थ है "विशेष क्लास" (या कहिये:"अपने स्वयं के क्लास में") और मोटर वाहन के मामले में यह "एक विशेष परिकल्पित कार" को इंगित करता है। हालांकि दशकों तक बोलचाल की भाषा में इसे इस्तेमाल किया गया, 1972 में अपने आधिकारिक प्रयोग के बाद, पांच-पीढ़ियों के आधिकारिक तौर पर नामित S-क्लास कारों का उत्पादन किया गया। एस-क्लास के पिछले टू-डोर कूप मॉडल को एसईसी (SEC) और बाद में एस-कूप के रूप में जाना गया। 1998 में उन्हें सीएल-क्लास के रूप में अलग श्रृंखला में निकाला गया, लेकिन 2011 मॉडल वर्ष के लिए इसे एस-कूप के रूप में पुनः नामकरण किया जाएगा.</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="C126" t="n">
         <v>286</v>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>मैनचेस्टर यूनाइटेड एफ़.सी.</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>मैनचेस्टर युनाइटेड फुटबॉल क्लब ग्रेटर मैनचेस्टर के ओल्ड ट्रेफोर्ड में स्थित एक इंग्लिश फुटबॉल क्लब है जो दुनिया में सबसे अधिक लोकप्रिय फुटबॉल क्लबों में से एक है। क्लब 1992 में प्रीमियर लीग का एक संस्थापक सदस्य था और सिवाए 1974-75 के सत्र के, 1938 के बाद से ही, इंग्लिश फुटबॉल की शीर्ष श्रेणी में खेलता रहा है। 1964-65 के बाद से ही सभी छह सत्रों के दौरान क्लब में दर्शकों की औसत उपस्थिति इंग्लिश फुटबॉल की किसी भी अन्य टीम के मुकाबले अधिक रही है। 
+2008-09 प्रीमियर लीग और 2008 फीफा क्लब विश्व कप जीतने के साथ ही मैनचेस्टर युनाइटेड इंग्लिश चैंपियन और क्लब विश्व कप के श्रेष्ठ धारक बन गये हैं। क्लब इंग्लिश फुटबॉल क्लब के इतिहास में सबसे सफल क्लबों में से एक है और नवंबर 1986 में एलेक्स फर्ग्यूसन के मैनेजर बनने के बाद इसने 22 बड़े पुरस्कार अर्जित किये हैं। सन् 1968 में बेन्फिका को 4-1 से हरा कर यूरोपीय कप जीतने वाला यह पहला इंग्लिश क्लब बना. 2008 में अपनी तीसरी जीत से पहले उन्होनें 1999 में दूसरे यूरोपीय कप को तिकड़ी के भाग के रूप में जीता. क्लब ने 20 इंग्लिश लीग खिताब और 11 बार एफए कप जीतने का संयुक्त रिकॉर्ड भी बनाया है। 
+1990 के दशक के बाद से ही, क्लब किसी भी फुटबॉल क्लब के मुकाबले सबसे अधिक राजस्व के साथ दुनिया में सबसे अमीर क्लबों में से एक रहा है, और वर्तमान में यह अप्रैल 2009 तक, लगभग £1.136 बिलियन (€ 1.319 बिलियन/ $1.870 बिलियन) के अनुमानित मूल्य के साथ, किसी भी खेल का सबसे अमीर और सबसे मूल्यवान क्लब आंका गया है। मैनचेस्टर युनाइटेड यूरोप के अग्रणी फुटबॉल क्लब के G-14 समूह, जो अब अस्तित्व में नहीं है, और अब उसके स्थान पर बने यूरोपियन क्लब एसोसिएशन का एक संस्थापक सदस्य था। 
+एलेक्स फर्ग्यूसन 6 नवम्बर 1986 के बाद से क्लब के मैनेजर/प्रबंधक हैं जो रॉन एटकिन्सन के प्रस्थान के बाद एबरडीन से नियुक्त हुए. क्लब के वर्तमान कप्तान नेमंजा विदिक है, जो की २०११ में कप्तान बने थे।</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>331</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>लेसर विज्ञान</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>लेजर (LASER=Light Amplification by Stimulated Emission of Radiation =विकिरण के उद्दीपित उत्सर्जन द्वारा प्रकाश का प्रवर्धन) एक ऐसा विद्युतचुंबकीय विकिरण है जो उद्दीपित उत्‍सर्जन (stimulated emission) की प्रक्रिया द्वारा उत्पन्न किया जाता है। अतः लेजर भी एक विद्युतचुम्बकीय विकिरण ही है जिसमें साधारण विकिरण की अपेक्षा कुछ विशेष गुण भी होते हैं। लेजर प्रकाश आमतौर पर आकाशिक रूप से संबद्ध (coherent) होते हैं, जिसका अर्थ है कि प्रकाश पुंज का पसरण कोण अत्यन्त कम या शून्य होगा। ऐसे प्रकाश से है जिसकी लगभग सारी ऊर्जा एक ही तरंगदैर्घ्य की होती है। दूसरे शब्दों में लेजर को मोटे तौर पर  एकवर्णी प्रकाशपुंज (मोनोक्रोमेटिक प्रकाश) माना जा सकता है। यह अर्थ सभी लेजरों के लिए सही नहीं है, हालांकि कुछ लेजर व्‍यापक प्रकाशपुंज की तरह प्रकाश उत्‍सर्जित करते हैं, जबकि कुछ कई प्रकार के विशिष्‍ट तरंगदैर्घ्य पर साथ साथ प्रकाश उत्‍सर्जित करते हैं। पारंपिरक लेसर के उत्‍सर्जन में विशिष्‍ट सामन्‍जस्‍य होता है। प्रकाश के अधिकतर अन्‍य स्रोत असंबद्ध प्रकाश उत्‍सर्जित करते हैं जिनमें विभिन्‍न कला (phase) होते हैं और जो समय और स्‍थान के साथ निरंतर बदलता रहता है।</t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="C128" t="n">
         <v>177</v>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>प्रेयोक्ति</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>साँचा:Censorship
 एक प्रेयोक्ति का अर्थ होता है, सुननेवाले को रुष्ट करने वाली या कोई अप्रिय अर्थ देने वाली अभिव्यक्ति को एक रुचिकर या कम अपमानजनक अभिव्यक्ति के साथ प्रतिस्थापित करना, या कहने वाले के लिए उसे कम कष्टकर बनाना, जैसा की द्विअर्थी के मामले में होता है। प्रेयोक्ति का परिनियोजन राजनीतिक विशुद्धता के सार्वजनिक उपयोग में केंद्रीय पहलू है।
 यह किसी वस्तु या किसी व्यक्ति के वर्णन को भी प्रतिस्थापित कर सकता है ताकि गोपनीय, पवित्र, या धार्मिक नामों को अयोग्य के समक्ष ज़ाहिर करने से बचा जा सके, या किसी वार्ता के विषय की पहचान को किसी संभावित प्रच्छ्न्न श्रोता से गुप्त रखा जा सके. कुछ प्रेयोक्तियां इरादतन मनोरंजन के लिए होती हैं।</t>
         </is>
       </c>
-      <c r="C92" t="n">
+      <c r="C129" t="n">
         <v>114</v>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>रेडियो आवृत्ति पहचान</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>रेडियो-आवृत्ति पहचान (अंग्रेज़ी: Radio-frequency identification) एक वस्तु का उपयोग है (आमतौर पर एक RFID टैग के रूप में संदर्भित) जिसे एक उत्पाद, पशु, या व्यक्ति में रेडियो तरंगों के इस्तेमाल से पहचान करने और ट्रैकिंग के उद्देश्य से लगाया या डाला जाता है। कुछ टैग को कई मीटर दूर से और पाठक की दृष्टि रेखा के पार से पढ़ा जा सकता है।
 अधिकांश RFID टैग में कम से कम दो हिस्से होते हैं। पहला, एकीकृत परिपथ है जो सूचना का भंडारण और उसे संसाधित करने, रेडियो आवृत्ति (RF) संकेत को मोड्युलेट और डीमोड्युलेट करने और अन्य विशेष कार्य करने के लिए ज़िम्मेदार है। दूसरा, संकेतों को प्राप्त करने और प्रसारित करने के लिए एक एंटीना है।
@@ -2429,43 +3294,65 @@
 RFID के कई अनुप्रयोग हैं, उदाहरण के लिए, यह उद्यम की आपूर्ति श्रृंखला प्रबंधन में प्रयोग किया जाता है ताकि वस्तुसूची पर नज़र रखने में और प्रबंधन की कुशलता में सुधार किया जा सके।</t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="C130" t="n">
         <v>229</v>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>कर्नाटक/आलेख</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>कर्नाटक (कन्नड़: ಕರ್ನಾಟಕ,उच्चारण [kəɾˈnɑːʈəkɑː]), जिसे कर्णाटक भी कहते हैं, दक्षिण भारत का एक राज्य है। इस राज्य का सृजन १ नवंबर, १९५६ को राज्य पुनर्संगठन अधिनियम के अधीन किया गया था। मूलतः यह मैसूर राज्य कहलाता था और १९७३ में इसे पुनर्नामकरण कर कर्नाटक नाम मिला था। कर्नाटक की सीमाएं पश्चिम में अरब सागर, उत्तर पश्चिम में गोआ, उत्तर में महाराष्ट्र, पूर्व में आंध्र प्रदेश, दक्षिण-पूर्व में तमिल नाडु एवं दक्षिण में केरल से लगती हैं। राज्य का कुल क्षेत्रफल ७४,१२२ वर्ग मील (१,९१,९७६ कि॰मी॰²) है, जो भारत के कुल भौगोलिक क्षेत्र का ५.८३% है। यह राज्य आठवां सबसे बड़ा राज्य है और इसमें २९ जिले हैं। राज्य की आधिकारिक और सर्वाधिक बोली जाने वाली भाषा है कन्नड़।
+हालांकि कर्नाटक शब्द के उद्गम के कई सन्दर्भ हैं, फिर भी उनमें से सर्वाधिक स्वीकार्य तथ्य है कि कर्नाटक शब्द का उद्गम कन्नड़ शब्द करु, अर्थात् काली या ऊंची और नाडु अर्थात् भूमि या प्रदेश या क्षेत्र से आया है, जिसके संयोजन करुनाडु का पूरा अर्थ हुआ काली भूमि या ऊंचा प्रदेश। काला शब्द यहां के बयालुसीम क्षेत्र की काली मिट्टी से आया है और ऊंचा यानि दक्खन के पठारी भूमि से आया है। ब्रिटिश राज में यहां के लिए कार्नेटिक शब्द प्रयोग किया गया है, जो कृष्णा नदी के दक्षिणी ओर की प्रायद्वीपीय भूमि के लिए प्रयोग किया गया है और कर्नाटक शब्द का अपभ्रंश है।
+प्राचीन एवं मध्यकालीन इतिहास देखें तो कर्नाटक क्षेत्र कई बड़े शक्तिशाली साम्राज्यों का क्षेत्र रहा है। इन याज्यों के दरबारों के विचारक, दार्शनिक और भाट व कवियों के सामाजिक, साहित्यिक व धार्मिक संरक्षण में आज का कर्नाटक उपजा है। भारतीय शास्त्रीय संगीत के दोनों ही रूपों, कर्नाटक संगीत और हिन्दुस्तानी संगीत को इस राज्य का महत्त्वपूर्ण योगदान मिला है। आधुनिक युग के कन्नड़ लेखकों को सर्वाधिक ज्ञानपीठ सम्मान मिले हैं। राज्य की राजधानी बंगलुरु शहर है, जो भारत में हो रही त्वरित आर्थिक एवं प्रौद्योगिकी का अग्रणी योगदानकर्त्ता है।</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>314</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>हस्तरेखा शास्त्र</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>हस्तरेखा शास्त्र या काइरमैन्सी (जिसेकेरोमन्सी‍ ऐसे भी लिखा जाता है, जो यूनानी शब्द चेइर (cheir) (χειρ) "हाथ" और मंटिया (manteia) (μαντεία) (अनुमान) से बना है) हथेली को पढ़कर लक्षण का वर्णन और भविष्य बताने की कला है जिसे हस्तरेखा अध्ययन या हस्तरेखा शास्त्र भी कहा जाता है। इस कला का प्रयोग कई सांस्कृतिक विविधताओं के साथ दुनिया भर में देखा जाता है। जो हस्तरेखा पढ़ते हैं, उन्हें आम तौर पर हस्तरेखाविद्, हथेली पढ़ने वाला, हाथ पढ़ने वाला, हस्तरेखा विश्लेषक या हस्तरेखा शास्त्री भी कहा जाता है।
 हस्तरेखा शास्त्र को आम तौर पर छद्म विज्ञान माना जाता है। नीचे उल्लिखित जानकारी संक्षेप में आधुनिक हस्तरेखा शास्त्र के मुख्य तत्व है, जिनमें से कई विभिन्न रेखाओं की व्याख्या अक्सर विरोधाभासी होती हैं और हस्तरेखाविद विभिन्न "स्कूलों"(धाराओं या खेमों) में बंटे होते हैं।</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="C132" t="n">
         <v>130</v>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>बल्ख़</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>बल्ख़ (/ बी ɑːएल एक्स/; पश्तो और फारसी : بلخ, बाल्क ; प्राचीन ग्रीक : Βάκτρα, बाक्रा ; बैक्ट्रियन : Βάχλο, बखलो ) अफगानिस्तान के बाल्क प्रांत में एक शहर है, लगभग 20 किमी (12 मील) उत्तरपश्चिम प्रांतीय राजधानी, मजार-ए शरीफ़, और अमू दाराय नदी और उजबेकिस्तान सीमा के 74 किमी (46 मील) दक्षिण में। यह ऐतिहासिक रूप से बौद्ध धर्म, इस्लाम और ज़ोरोस्ट्रियनवाद का एक प्राचीन केंद्र था और बाद के शुरुआती इतिहास के बाद से खोरासन के प्रमुख शहरों में से एक था।
 बाल्क हिंदू ग्रंथों [1] , विशेष रूप से महाकाव्य महाभारत में अपने शुरुआती उल्लेखों में से एक है, जहां इसे बहलिक या वालिका कहा जाता है। कुरुक्षेत्र युद्ध में भाग लेने के लिए इसका शासक उल्लेख किया गया है। [2]
@@ -2473,63 +3360,63 @@
 फ्रांसीसी बौद्ध अलेक्जेंड्रा डेविड-नेल बाल्ख के साथ शम्भाला से जुड़े थे, जो फारसी शाम-ए-बाला ("ऊंचा मोमबत्ती") भी अपने नाम की व्युत्पत्ति के रूप में पेश करते थे। [4] इसी तरह से, गुर्जिफियन जेजी बेनेट ने अटकलों को प्रकाशित किया कि शम्बाला एक बैक्ट्रियन सूर्य मंदिर शम्स-ए-बाल्क था। [5]</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="C133" t="n">
         <v>257</v>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>काउबॉय</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>उत्तरी अमेरिका में फार्मों के पशुओं की रखवाली करने वाले को काउबॉय कहा जाता है, परंपरागत रूप से घोड़े पर सवार होकर वह यह काम करता है और अक्सर फ़ार्म संबंधित अन्य अनेक प्रकार के काम भी किया करता है। 19वीं शताब्दी के अंत में यह ऐतिहासिक अमेरिकी काउब्वॉय उत्तरी मेक्सिको के वाकुएरो (काउब्वॉय का एक स्थानीय नाम) परंपराओं से उत्पन्न हुआ और इसने विशेष महत्व का आकार ग्रहण कर लिया और एक दंतकथा बन गया। इसके एक उपप्रकार (सबटाइप) को रैंगलर (अश्वपाल) कहते हैं, जो विशेष रूप से मवेशियों के काम में प्रयोग किये जाने वाले घोड़ों की देखभाल करता है। फार्म या खेत के काम के अलावा, कुछ काउबॉय रोडीओ (घुड़सवार चरवाहों की सार्वजनिक प्रतिस्पर्धा) के लिए काम करते हैं या उसमें भाग लेते हैं। काउगर्ल्स, 19वीं सदी के अंत में पहली बार इस तरह परिभाषित, की ऐतिहासिक भूमिका का बहुत कम दस्तावेजी प्रमाण है, लेकिन आधुनिक दुनिया में इन्होने बिल्कुल समान कार्य करने की अपनी क्षमता स्थापित की है और अपनी उपलब्धियों के लिए यथेष्ट सम्मान प्राप्त किया है। विश्व के अन्य अनेक भागों में भी काउबॉय या मवेशियों के प्रबंधकर्ता हुआ करते हैं, खासकर दक्षिण अमेरिका और ऑस्ट्रेलिया में, जो अपने देशों में काउबॉय जैसे ही काम किया करते हैं।
 स्पेन और अमेरिकों (Americas) के शुरुआती यूरोपीय अधिवासियों में काउबॉय की गहरी ऐतिहासिक जड़ें पायी जाती हैं। सदियों से, इलाकों में भिन्नता, जलवायु और अनेक संस्कृतियों की चरवाहा परंपराओं के प्रभाव ने उपकरणों, पोशाकों और पशुओं के प्रबंध की अनेक अलग शैलियों का निर्माण किया। नित्य-व्यावहारिक काउबॉय को आधुनिक दुनिया के लिए अनुकूलित किया गया, तब काउबॉय के उपकरण और तकनीक को भी कुछ हद तक अनुकूलित करना पड़ा, हालांकि अनेक क्लासिक परंपराएं आज भी संरक्षित हैं।</t>
         </is>
       </c>
-      <c r="C96" t="n">
+      <c r="C134" t="n">
         <v>281</v>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>हिण्डौन</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>हिण्डौन (Hindaun) भारत के राजस्थान राज्य के करौली ज़िले में स्थित एक नगर है।</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="C135" t="n">
         <v>14</v>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>दंत प्रत्यारोपण</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>दंत प्रत्यारोपण दांतों की एक बनावटी जड़ है जिसका इस्तेमाल दंत चिकित्सा में दांतों को फिर से स्थापित करने के लिए किया जाता है जो देखने में दांत या दांतों के समूह की तरह लगते हैं।
 आजकल किए जाने वाले लगभग सभी दंत प्रत्यारोपण जड़-रूप अन्तर्स्थिकलात्मक प्रत्यारोपण (रूट-फॉर्म एंडोसियस इम्प्लांट्स) होते हैं। दूसरे शब्दों में इक्कीसवीं सदी में किए जाने वाले लगभग सभी दंत प्रत्यारोपण देखने में दांतों की एक वास्तविक जड़ की तरह लगते हैं (और इस प्रकार एक "जड़ का रूप" धारण कर लेते हैं) और इन्हें हड्डी के भीतर स्थापित किया जाता है (एंड- "में" का यूनानी उपसर्ग है और ओसियस का मतलब "हड्डी" है).
@@ -2537,130 +3424,201 @@
 दंत प्रत्यारोपणों का इस्तेमाल दांत के ऊपरी भाग, प्रत्यारोपण समर्थित पुल या बनावटी बत्तीसी सहित कई बनावटी दांतों की पंक्ति (डेंटल प्रॉस्थेसिस) को सहारा देने के लिए किया जाता है।दंत प्रत्यारोपण का प्राथमिक उपयोग दंत प्रोस्थेटिक्स (यानी नकली दांत) का समर्थन करना है। आधुनिक दंत प्रत्यारोपण, जैविक प्रक्रिया जहां हड्डी टाइटेनियम और कुछ सिरेमिक जैसी विशिष्ट सामग्रियों की सतह पर कसकर जुड़ जाती है। इम्प्लांट और हड्डी का एकीकरण बिना किसी असफलता के दशकों तक शारीरिक भार का समर्थन कर सकता है।</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="C136" t="n">
         <v>264</v>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>मूत्र मार्ग संक्रमण</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>मूत्र पथ का संक्रमण (यूटीआई) एक बैक्टीरिया जनित संक्रमण है जो मूत्रपथ के एक हिस्से को संक्रमित करता है। जब यह मूत्र पथ निचले हिस्से को प्रभावित करता है तो इसे सामान्य मूत्राशयशोध (मूत्राशय का संक्रमण) कहा जाता है और जब यह ऊपरी मूत्र पथ को प्रभावित करता है तो इसे वृक्कगोणिकाशोध (गुर्दे का संक्रमण) कहा जाता है। निचले मूत्र के लक्षणों में दर्द सहित मूत्र त्याग और बार-बार मूत्र त्याग या मूत्र त्याग की इच्छा (या दोनो) शामिल हैं जबकि वृक्कगोणिकाशोध में निचले यूटीआई के लक्षणों के साथ बुखार और कमर में तेज दर्द भी शामिल होते हैं। बुजुर्ग व बहुत युवा लोगों में लक्षण अस्पष्ट या गैर विशिष्ट हो सकते हैं। दोनो प्रकार के संक्रमणों के मुख्य कारक एजेंट एस्केरीशिया कॉली हैं, हलांकि अन्य दूसरे बैक्टीरिया, वायरस या फफूंद भी कभी कभार इसके कारण हो सकते हैं।
+मूत्र पथ के संक्रमण, पुरुषों की तुलना में महिलाओं में अधिक आम हैं, आधी महिलाओं को उनके जीवन में कम से कम एक बार संक्रमण होता है। संक्रमण का बार-बार होना आम बात है। जोखिम कारकों में महिला शरीर रचना विज्ञान, शारीरिक संबंध और परिवार का इतिहास शामिल है। यदि वृक्कगोणिकाशोध होता है तो इसके बाद मूत्राशय संक्रमण होता है जो कि रक्त जनित संक्रमण के परिणामस्वरूप हो सकता है। स्वस्थ युवा महिलाओं में निदान का आधार मात्र लक्षण भी हो सकते हैं। वे जिनमें अस्पष्ट लक्षण होते हैं, निदान कठिन हो सकता है क्योंकि बैक्टीरिया बिना संक्रमण हुये भी उपस्थित हो सकते हैं। जटिल मामलों में या उपचार के विफल होने पर, एक मूत्र कल्चर उपयोगी हो सकता है। नियमित संक्रमण वाले लोगों में, एंटीबायोटिक की हल्की खुराक को निवारक उपाय के रूप में उपयोग किया जा सकता है।
+गैर जटिल मामलों में, एंटीबायोटिक की हल्की खुराक से, मूत्र पथ संक्रमणों का उपचार आसानी से हो जाता है, हलांकि इस स्थिति में उपचार के लिये उपयोग किये जाने वाले कई एंटीबायोटिक के प्रति प्रतिरोध बढ़ रहा है। जटिल मामलों में, लंबी अवधि तक या अंतः शिरा एंटीबायोटिक के उपयोग की जरूरत पड़ सकती है और यदि लक्षण दो या तीन दिन में बेहतर नहीं होते हैं तो अतिरिक्त निदान परीक्षणों की जरूरत हो सकती है। महिलाओं में बैक्टीरिया जनित संक्रमणों के सबसे आम उदाहरण मूत्र पथ संक्रमण हैं, क्योंकि 10% महिलाओं में वार्षिक रूप से मूत्र पथ संक्रमण विकसित होते हैं।</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>381</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>अशाब्दिक संप्रेषण</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>व्यावसायिक अशाब्दिक संप्रेषण (non-verbal communication /NVC) से तात्पर्य सामान्यतः शब्द रहित संदेशों को भेजने एवं प्राप्त करने की संप्रेषण प्रक्रिया से है। अर्थात् भाषा ही संप्रेषण का एकमात्र माध्यम नहीं है, कुछ अन्य माध्यम भी हैं। इस प्रकार के संप्रेषण के लिए 'अवाचिक संप्रेषण', 'वाचेतर संपेष्रण'; 'अशाब्दिक संचार' आदि शब्दों का भी प्रयोग होता है। यह दो प्रकार के होते हैं 
 अशाब्दिक संप्रेषण को शारीरिक हाव-भाव एवं स्पर्श (हैपटिक संप्रेषण), शारीरिक भाषा एवं भावभंगिमा, चेहरे की अभिव्यक्ति या आँखों के संपर्क से भी संप्रेषित किया जा सकता है। एन वी सी (NVC) को वस्तु सामग्री संप्रेषण यथा - वस्त्र, बालों की स्टाइल या स्थापत्य, प्रतीकों व चित्रों के माध्यम से भी संप्रेषित किया जा सकता है। आवाज या वाणी में पैरालैग्वेज नामक अशाब्दिक तत्त्व सम्मिलित होते हैं जिनमें आवाज की गुणवत्ता, भावना, बोलने के तरीके के साथ-साथ ताल, लय, आलाप एवं तनाव जैसे छन्द शास्त्र संबंधी लक्षण भी सम्मिलित हैं। नृत्य को भी अशाब्दिक संप्रेषण माना जाता है। इसी तरह, लिखित पाठ में भी अशाब्दिक तत्त्व होते हैं जैसे - हस्तलेखन तरीका, शब्दों की स्थान संबंधी व्यवस्था या इमोटिकॉन (emoticons) का प्रयोग.
 हालाकि, अशाब्दिक संप्रेषण का अधिकतर अध्ययन आमने-सामने की अंतःक्रिया (बातचीत) पर ध्यान केन्द्रित करता है, जहाँ इसे तीन प्रमुख क्षेत्रों में वर्गीकृत किया जा सकता है - वातावरणिक दशायें जहाँ संप्रेषण घटित होता है, संप्रेषण का शारीरिक चरित्रचित्रण एवं अंतःक्रिया (बातचीत) के दौरान संप्रेषकों का व्यवहार.</t>
         </is>
       </c>
-      <c r="C99" t="n">
+      <c r="C138" t="n">
         <v>228</v>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>कंप्यूटर सुरक्षा</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>कंप्यूटर सुरक्षा (जिसे साइबर सुरक्षा, डिजिटल सुरक्षा या सूचना प्रौद्योगिकी (आईटी) सुरक्षा भी कहा जाता है) कंप्यूटर सॉफ़्टवेयर, प्रणालियों और नेटवर्क की उन खतरों से रक्षा करने के लिए है, जो अनधिकृत जानकारी के खुलासे, हार्डवेयर, सॉफ़्टवेयर या डेटा की चोरी (या क्षति) के साथ-साथ उनकी सेवाओं में व्यवधान या गलत दिशा में ले जाने का कारण बन सकते हैं।
 यह क्षेत्र इसलिए महत्वपूर्ण है क्योंकि कंप्यूटर प्रणालियों, इंटरनेट और वायरलेस नेटवर्क मानकों पर बढ़ती निर्भरता है। यह स्मार्ट उपकरणों के विकास के कारण भी महत्वपूर्ण है, जिसमें स्मार्टफ़ोन, टेलीविज़न और इंटरनेट ऑफ थिंग्स (IoT) से जुड़े विभिन्न उपकरण शामिल हैं। सूचना प्रणालियों की जटिलता और उनके द्वारा समर्थित समाजों के कारण साइबर सुरक्षा समकालीन दुनिया के सामने सबसे महत्वपूर्ण नई चुनौतियों में से एक है। सुरक्षा उन प्रणालियों के लिए विशेष रूप से महत्वपूर्ण है जो बिजली वितरण, चुनाव और वित्त जैसे बड़े पैमाने पर काम करने वाली प्रणालियों को नियंत्रित करती हैं और जिनका व्यापक भौतिक प्रभाव होता है।
 कंप्यूटर सुरक्षा के कई पहलू डिजिटल सुरक्षा से जुड़े होते हैं, जैसे इलेक्ट्रॉनिक पासवर्ड और एन्क्रिप्शन, लेकिन अनधिकृत छेड़छाड़ को रोकने के लिए अभी भी धातु के ताले जैसी भौतिक सुरक्षा उपायों का उपयोग किया जाता है। आईटी सुरक्षा सूचना सुरक्षा का एक सही उपसमुच्चय नहीं है, इसलिए यह सुरक्षा सम्मेलन योजना में पूरी तरह फिट नहीं होती।</t>
         </is>
       </c>
-      <c r="C100" t="n">
+      <c r="C139" t="n">
         <v>219</v>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>मीठड़ी मारवाड़</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>ध्रुवीय निर्देशांक: 27°57'5975"N 74°68'7235"E
 मीठड़ी मारवाड़ 
 राजस्थान के नागौर जिले की लाडनूं तहसील का एक गाँव है।</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="C140" t="n">
         <v>17</v>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>हॅरी हुडीनी</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>हॅरी हुडीनी (बुडापेस्ट में एरिक वैइज पैदा हुआ, बाद में एरिच वीस या हॅरी वेइस, २४ मार्च १८७४-३१ अक्टूबर १९२६), एक हंगरी मूल के अमेरिकी बाज़ीगर और स्टंट कलाकार था उसकी सनसनीखेज भागने कृत्यों के लिए उल्लेख किया। उन्होंने कहा कि पहले वह उसे बंद रखने के लिए पुलिस बलों को चुनौती दी यूरोप, जहां के एक दौरे पर "हैरी हथकड़ी हुडीनी" के रूप में आकर्षित किया। जल्द ही वह चेन, गगनचुंबी इमारतों से लटका रखा रस्सियों, पानी के नीचे और एक मोहरबंद दूध कर सकते हैं अंदर उसकी सांस पकड़ कर शामिल करने के लिए अपने प्रदर्शनों की सूची का विस्तार किया।
 वह एक घंटे के लिए रहस्य में रखते हुए उन्हें लंदन के डेली मिरर द्वारा कमीशन विशेष हथकड़ी से भागने की कोशिश के रूप में १९०४ में हजारों देखा। एक और स्टंट उसे जीवित और निकट टूटने की स्थिति में उभर रहा है, सतह को खुद पंजा ही बस में सक्षम दफन देखा। कई इन पलायन ठगा गया है कि संदिग्ध जबकि, हुडीनी नकली जादूगर और अध्यात्मवादियों की इस बीमारी के रूप में खुद को प्रस्तुत किया। अमेरिकी जादूगर के सोसायटी के अध्यक्ष के रूप में उन्होंने पेशेवर मानकों को बनाए रखने और धोखाधड़ी के कलाकारों को बेनकाब करने के लिए उत्सुक था। उन्होंने यह भी उसके भागने स्टंट पायरेटेड जो किसी के खिलाफ मुकदमा करने की जल्दी थी।
 हुडीनी कई फिल्में बना, लेकिन यह पैसे में लाने में असफल रहा जब अभिनय छोड़ दिया। उन्होंने यह भी एक गहरी एविएटर था और ऑस्ट्रेलिया में एक विमान उड़ान भरने के लिए पहला आदमी बनने के उद्देश्य से, १९२६ में उनकी मृत्यु के भी हालात नाटकीय और रहस्यमय थे।</t>
         </is>
       </c>
-      <c r="C102" t="n">
+      <c r="C141" t="n">
         <v>271</v>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>पॉइज़न आइवी</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>टॉक्सिकोडेंड्रोन रेडिकंस  (पॉइज़न आइवी ; पुराने समानार्थक शब्द रुस टॉक्सिकोडेंड्रोन, रुस रेडिकंस), ऐनाकार्डियासी परिवार का एक पौधा है। यह एक जंगली लता है जो युरुशियोल नामक एक त्वचा प्रदाहक उत्पन्न करने की अपनी क्षमता के लिए काफी मशहूर है जो अधिकांश लोगों में होने वाली एक खुजली वाली फुंसी का कारण है जिसे तकनीकी तौर पर युरुशियोल-प्रेरित संपर्क त्वचादाह के रूप में जाना जाता है लेकिन यह एक वास्तविक आइवी (हेडेरा) नहीं है।</t>
         </is>
       </c>
-      <c r="C103" t="n">
+      <c r="C142" t="n">
         <v>73</v>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>नायर</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>नायर (मलयालम: നായര്, उच्चारित [naːjar], जो नैयर [3] और मलयाला क्षत्रिय के रूप में भी विख्यात है), भारतीय राज्य केरल के हिन्दू उन्नत जाति का नाम है। 1792 में ब्रिटिश विजय से पहले, केरल राज्य में छोटे, सामंती क्षेत्र शामिल थे, जिनमें से प्रत्येक शाही और कुलीन वंश में, नागरिक सेना और अधिकांश भू प्रबंधकों के लिए नायर और संबंधित जातियों से जुड़े व्यक्ति चुने जाते थे। नायर राजनीति, सरकारी सेवा, चिकित्सा, शिक्षा और क़ानून में प्रमुख थे। नायर शासक, योद्धा और केरल के भू-स्वामी कुलीन वर्गों में संस्थापित थे (भारतीय स्वतंत्रता से पूर्व).
+नायर परिवार पारंपरिक रूप से मातृवंशीय था, जिसका अर्थ है कि परिवार अपने मूल के निशान महिलाओं के माध्यम से खोजता है। बच्चों को अपने माता के परिवार की संपत्ति विरासत में मिलती है। उनकी पारिवारिक इकाई में, जिसके सदस्यों को संयुक्त रूप से संपत्ति पर स्वामित्व हासिल था, भाइयों और बहनों, बहन के बच्चों और उनकी बेटियों के बच्चे शामिल थे। सबसे बूढ़ा आदमी समूह का क़ानूनी मुखिया था और उसको परिवार के कर्नवार या तरवाडु के रूप में सम्मान दिया जाता था। साम्राज्यों के बीच कुछ हद तक शादी और निवास के नियमों में भिन्नता थी।
+नायर अपने सामरिक इतिहास के लिए विख्यात हैं, जिसमें कलरीपायट्टु में उनकी भागीदारी और मामनकम धार्मिक अनुष्ठान में नायर योद्धाओं की भूमिका शामिल है। नायरों को अंग्रेज़ों द्वारा योद्धा वंश के रूप में वर्गीकृत किया गया था, लेकिन वेलु तंपी दलवा के अधीन उनके विरुद्ध बग़ावत करने के बाद उन्हें सूची से हटा दिया गया और उसके बाद ब्रिटिश भारतीय फ़ौज में निम्न संख्या में भर्ती किए जाने लगे. 1935 तक तिरुवितमकूर नायर पट्टालम (त्रावणकोर राज्य नायर फ़ौज) में केवल नायरों की भर्ती की जाती थी, जिसके बाद से ग़ैर-नायरों को भी शामिल किया गया। इस राज्य बल का (जो नायर ब्रिगेड के रूप में भी जाना जाता है), आज़ादी के बाद भारतीय सेना में विलय हो गया और वह भारतीय सेना का सबसे पुराना बटालियन, 9वां बटालियन मद्रास रेजिमेंट बना.
+सामंत क्षत्रिय कोलतिरी और त्रावणकोर साम्राज्यों की नायर विरासत है. ज़मोरिन राजा एक सामंतन नायर थे और कन्नूर के अरक्कल साम्राज्य में भी, जो केरल क्षेत्र का एकमात्र मुस्लिम साम्राज्य था, नायर मूल पाया गया. त्रावणकोर के एट्टुवीटिल पिल्लमार और कोची के पलियात अचन जैसे नायर सामंती परिवार अतीत में अत्यंत प्रभावशाली थे और सत्तारूढ़ दल पर काफ़ी असर डालते थे।</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>384</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>प्रकाश प्रदूषण</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>प्रकाश प्रदूषण, जिसे अंग्रेज़ी में फोटो पौल्यूशन या लुमिनस पौल्यूशन के रूप में जाना जाता है, अत्यधिक या बाधक कृत्रिम प्रकाश होता है।
+अंतर्राष्ट्रीय डार्क-स्काई एसोसिएशन (आईडीए (IDA)) प्रकाश प्रदूषण को कुछ इस प्रकार परिभाषित करता है:
+￼ [आकाश की चमक, चकाचौंध, प्रकाश का अतिक्रमण, प्रकाश की अव्यवस्था, रात में दृश्यता में कमी और ऊर्जा की बर्बादी सहित कृत्रिम प्रकाश का कोई भी प्रतिकूल प्रभाव|]
+यह दृष्टिकोण कारण और उसके परिणाम में तथापि भ्रम पैदा कर देता है। प्रदूषण, प्रकाश को खुद शामिल करना होता है, जो शामिल ध्वनी, कार्बन डाइऑक्साइड आदि के सादृश्य है। प्रतिकूल परिणाम कई हैं; उनमें से कुछ के बारे में हो सकता है अभी तक जानकारी नहीं हैं। वैज्ञानिक परिभाषा में इस प्रकार निम्नलिखित शामिल है:
+ऊपर की तीन वैज्ञानिक परिभाषाओं में पहले दो, पर्यावरण की स्थिति का वर्णन करते हैं। तीसरा (और नवीनतम) प्रकाश द्वारा प्रदूषण फैलाने की प्रक्रिया का वर्णन करता है।
+प्रकाश प्रदूषण शहर में रहने वाले लोगों के लिए रात्रिकालीन आकाश में सितारों को धुंधला कर देता है, खगोलीय वेधशालाओं के साथ हस्तक्षेप करता है और प्रदूषण के किसी भी अन्य रूप की तरह पारिस्थितिकी तंत्र को बाधित करता है और स्वास्थ्य पर प्रतिकूल असर डालता है। प्रकाश प्रदूषण को दो मुख्य प्रकार में विभाजित किया जा सकता है: (1) कष्टप्रद प्रकाश जो अन्यथा प्राकृतिक या हल्की प्रकाश व्यवस्था में दखलंदाजी करता है और (2) अत्यधिक प्रकाश (आमतौर पर घर के भीतर) जो बेचैन करता है और स्वास्थ्य पर प्रतिकूल प्रभाव डालता है। 1980 के दशक की शुरुआत से, एक वैश्विक डार्क स्काई मूवमेंट (काला आसमान आंदोलन) उभरा है जिसके तहत चिंतित लोग प्रकाश प्रदूषण की मात्रा को कम करने के लिए प्रचार कर रहे हैं।
+प्रकाश प्रदूषण, औद्योगिक सभ्यता का एक पक्ष प्रभाव है। इसके स्रोतों में शामिल हैं बाहरी निर्माण और आंतरिक प्रकाश, विज्ञापन, वाणिज्यिक संपत्तियां, कार्यालय, कारखाने, पथ-प्रकाश और देदीप्यमान क्रीडा स्थल. यह उत्तरी अमेरिका, यूरोप और जापान के उच्च औद्योगिक, घनी आबादी वाले क्षेत्रों में सबसे अधिक गंभीर है और मध्य-पूर्व और उत्तरी अफ्रीका के प्रमुख शहरों जैसे तेहरान और काहिरा में भी यही स्थिति है, लेकिन अपेक्षाकृत कम मात्रा में प्रकाश भी देखा जा सकता है और समस्या पैदा कर सकता है। प्रदूषण के अन्य रूपों की तरह (जैसे कि वायु, जल, और ध्वनी प्रदूषण) प्रकाश प्रदूषण पर्यावरण को नुकसान पहुंचाता है।</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>376</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>जॉन सीना</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>जॉन फेलिक्स एंथोनी सीना (जन्म 23 अप्रैल 1977) एक अमेरिकी अभिनेता, हिप-हॉप संगीतकार और पेशेवर पहलवान हैं, जो सम्प्रति वर्ल्ड रेसलिंग इंटरटेनमेंट (WWE) द्वारा उसके रॉ ब्रांड पर नियोजित हैं।
 पेशेवर कुश्ती में सीना सोलह बार के विश्व चैंपियन है, तीन बार के वर्ल्ड हेवीवेट चैंपियन तथा रिकॉर्ड तेरह बार के डब्ल्यू डब्ल्यू ई वर्ल्ड हेवीवेट चैंपियन हैं। इन प्रतियोगिताओं के अलावा, सीना ने WWE अमेरिकी चैम्पियनशिप भी चार बार और वर्ल्ड टैग टीम चैम्पियनशिप पाँच बार जीता है। सीना, 2008 और 2013 रॉयल रंबल मैच के भी विजेता रहे हैं।
@@ -2668,22 +3626,22 @@
 कुश्ती के बाहर, सीना ने रैप एलबम यु कांट सी मी जारी किया है, जो US बिल बोर्ड 200 चार्ट पर #15 पर शुरू हुआ और द मरीन (2006) और 12 राउंड्स (2009) फिल्मों में अभिनय किया है। सीना ने टेलीविज़न कार्यक्रमों पर भी प्रस्तुति दी है, जिनमें शामिल हैं, [[मैनहंट{/0, {0}डील ऑर नो डील]], MADtv }, सैटरडे नाईट लाइव और पंक्ड . सीना, [10] पर भी एक प्रतियोगी थे, जिसमें वे बाहर होने से पहले अंतिम दौर में पहुंचते हुए, समग्र प्रतियोगिता में तीसरे स्थान पर रहे।</t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="C145" t="n">
         <v>248</v>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>मादक पेय</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>मादक पेय इथेनॉल युक्त एक पेय है। मादक पेयों को सामान्यतः तीन सामान्य वर्गों में विभाजित किया जाता है: बीयर, वाइन और स्प्रिट्स.
 मादक पेय की खपत विश्व के अधिकांश देशों में है। इंटरनेशनल सेंटर ऑफ़ अल्कोहलिक पोलिसी (ICAP) के अनुसार, 100 से अधिक देशों में इनके उत्पादन, बिक्री और खपत नियंत्रित करने के लिए कानून हैं। विशेष रूप से, ऐसे कानून इन्हें क़ानूनी रूप से खरीदने और पीने की न्यूनतम आयु निर्दिष्ट करतें हैं। यह न्यूनतम आयु 16 और 25 वर्ष के बीच होती है, यह राष्ट्र और पेय के प्रकार पर निर्भर करता है। अधिकांश देशों में यह आयु 18 वर्ष है।
@@ -2691,230 +3649,367 @@
 अल्कोहल एक मनोसक्रिय ड्रग है, जिसमें अवसादकीय का प्रभाव होता है। एक उच्च रक्त अल्कोहल सामग्री को सामान्यतः क़ानूनी मादकता माना जाता है, क्योंकि यह ध्यान लगाने की क्षमता कम कर देता है और प्रतिक्रिया देने की गति को धीमा कर देता है। अल्कोहल के नशे की लत लग सकती है और अल्कोहल के नशे की लत लगने की अवस्था को मादकता कहते है।</t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="C146" t="n">
         <v>221</v>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>फुफ्फुस कैन्सर</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>फुफ्फुस के दुर्दम अर्बुद (malignant tumor) को फुफ्फुस कैन्सर या 'फेफड़ों का कैन्सर' (Lung cancer या lung carcinoma) कहते हैं। इस रोग में फेफड़ों के ऊतकों में अनियंत्रित वृद्धि होने लगती है। यदि इसे अनुपचारित छोड़ दिया जाय तो यह वृद्धि विक्षेप कही जाने वाली प्रक्रिया से, फेफड़े से आगे नज़दीकी कोशिकाओं या शरीर के अन्य भागों में फैल सकता है। अधिकांश कैंसर जो फेफड़े में शुरु होते हैं और जिनको फेफड़े का प्राथमिक कैंसर कहा जाता है कार्सिनोमस होते हैं जो उपकलीय कोशिकाओं से निकलते हैं। मुख्य प्रकार के फेफड़े के कैंसर छोटी-कोशिका फेफड़ा कार्सिनोमा (एससीएलसी) हैं, जिनको ओट कोशिका कैंसर तथा गैर-छोटी-कोशिका फेफड़ा कार्सिनोमा भी कहा जाता है। सबसे आम लक्षणों में खांसी (खूनी खांसी शामिल), वज़न में कमी तथा सांस का फूंलना शामिल हैं।
+फेफड़े के कैंसर का सबसे आम कारण तंबाकू के धुंए से अनावरण है, जिसके कारण 80–90% फेफड़े के कैंसर होता है। धूम्रपान न करने वाले 10–15% फेफड़े के कैंसर के शिकार होते हैं, और ये मामले अक्सर आनुवांशिक कारक, रैडॉन गैस, ऐसबेस्टस, और वायु प्रदूषण के संयोजन तथा अप्रत्यक्ष धूम्रपान से होते हैं। सीने के रेडियोग्राफ तथा अभिकलन टोमोग्राफी (सीटी स्कैन) द्वारा फेफड़े के कैंसर को देखा जा सकता है। निदान की पुष्टि बायप्सी से होती है जिसे ब्रांकोस्कोपी द्वारा किया जाता है या सीटी- मार्गदर्शन में किया जाता है। उपचार तथा दीर्घ अवधि परिणाम कैंसर के प्रकार, चरण (फैलाव के स्तर) तथा प्रदर्शन स्थितिसे मापे गए, व्यक्ति के समग्र स्वास्थ्य पर निर्भर करते हैं।
+आम उपचारों में शल्यक्रिया, कीमोथेरेपी तथा रेडियोथेरेपी शामिल है। एनएससीएलसी का उपचार कभी-कभार शल्यक्रिया से किया जाता है जबकि एससीएलसी का उपचार कीमोथेरेपी तथा रेडियोथेरेपी से किया जाता है। समग्र रूप से, अमरीका के लगभग 15 प्रतिशत लोग फेफड़े के कैंसर के निदान के बाद 5 वर्ष तक बचते हैं। पूरी दुनिया में पुरुषों व महिलाओं में फेफड़े का कैंसर, कैंसर से होने वाली मौतों में सबसे आम कारण है और यह 2008 में वार्षिक रूप से 1.38 मिलियन मौतों का कारण था।</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>325</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>एझावा</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>ईळवा (मलयालम: ഈഴവര്‍) केरल के हिन्दू समुदायों के बीच में सबसे बड़ा समूह है। उन्हें प्राचीन तमिल चेर राजवंश के विलावर संस्थापकों का वंशज माना जाता है, जिनका कभी दक्षिण भारत के कुछ हिस्सों पर शासन हुआ करता था। मालाबार में उन्हें थिय्या कहा जाता है, जबकि तुलु नाडू में वे बिल्लवा नाम से जाने जाते हैं। उन्हें पहले 'ईलवर' नाम से जाना जाता था। वे आयुर्वेद के वैद्य, योद्धा, कलारी प्रशिक्षणकर्ता, सैनिक, किसान, खेत मजदूर, सिद्ध चिकित्सक और व्यापारी हुआ करते थे। कुछ लोग कपड़ा बनाने, शराब के व्यापार और ताड़ी निकालने के कामों में भी शामिल थे। इझाथु मन्नानर जैसे एझावा (थिय्या) राजवंशों का भी केरल में अस्तित्व है। इस समुदाय के अंतर्गत का योद्धा वर्ग चेकावरस्थानीय सरदारों और राजाओं की सेना का एक अंग हुआ करता था। उनके लोग प्रसिद्ध कलारी पयट्टू विशेषज्ञ भी थे। उत्तरी केरल के इस समुदाय के सदस्यों के बीच सर्कस एक विशेष आकर्षण रखता है और भारत के अनेक प्रसिद्ध कलाबाज़ इस समुदाय से आते हैं।</t>
         </is>
       </c>
-      <c r="C106" t="n">
+      <c r="C148" t="n">
         <v>164</v>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>स्टीवेंस-जॉन्सन सिंड्रोम</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>स्टीवेंस-जॉन्सन सिंड्रोम (एसजेएस) तथा टॉक्सिक एपीडर्मल नेक्रोलिसिस (टीईएन) त्वचा को प्रभावित करने वाली प्राण-घातक स्थिति के दो प्रकार हैं जिसमें कोशिकाओं की मृत्यु के कारण एपीडर्मिस, डर्मिस से अलग होने लगती है। यह सिंड्रोम एक हाइपरसेंस्टिविटी समष्टि माना जाता है जिससे त्वचा एवं म्यूकस मेम्ब्रेन प्रभावित होते हैं। हालांकि अधिकांश मामलों में कारण इडियोपैथी होता है, ज्ञात कारणों में मुख्य श्रेणी के अंतर्गत औषधियां आती हैं, जिसके पश्चात संक्रमण तथा (दुर्लभ रूप से) कैंसर होता हैं।</t>
         </is>
       </c>
-      <c r="C107" t="n">
+      <c r="C149" t="n">
         <v>76</v>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>ताड़ का तेल</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>ताड़ का तेल, नारियल तेल और ताड़ की गरी का तेल ताड़ के पेड़ों के फल से निकाले गये खाने योग्य वनस्पति तेल हैं। ताड़ का तेल आयल पाम एलएईस गुइनीन्सिस के फल की लुगदी से निकाला जाता है; ताड़ की गरी का तेल आयल पाम के फल की गरी (बीज) से निकाला जाता है और नारियल का तेल नारियल (कोकोस नुसिफेरा) की गरी से प्राप्त किया जाता है। ताड़ के तेल का रंग स्वाभाविक रूप से लाल होता है, क्योंकि इसमें बीटा कैरोटीन का एक उच्च परिमाण शामिल रहता है।
 ताड़ का तेल, ताड़ की गरी का तेल और नारियल तेल कुछ अत्यधिक संतृप्त वनस्पति वसाओं में से तीन हैं। ताड़ का तेल कमरे के तापमान पर अर्ध ठोस रहता है। ताड़ के तेल में कई संतृप्त और असंतृप्त वसाएं ग्लिसरिल ल्यूरेट (0.1%, संतृप्त), मिरिस्टेट (1%, संतृप्त), पामिटेट (44%, संतृप्त), स्टीयरेट (5%, संतृप्त), ओलेट (39%, एकलअसंतृप्त) लीनोलियेट (10%, बहुलअसंतृप्त और लिनोलेनेट (0.3%, बहुलअसंतृप्त) के रूप में शामिल हैं। ताड़ की गरी का तेल और नारियल तेल, ताड़ के तेल से अधिक उच्च संतृप्त तेल हैं। सभी वनस्पति तेलों की तरह ताड़ के तेल में कोलेस्ट्रॉल (अपरिष्कृत पशु वसा में पाया जाने वाला) नहीं होता, हालांकि संतृप्त वसा के सेवन से एलडीएल और एचडीएल कोलेस्ट्रॉल दोनों बढ़ जाते हैं।
 ताड़ का तेल अफ्रीका, दक्षिणपूर्व एशिया और ब्राजील के कुछ भागों की उष्णकटिबंधीय पट्टी में खाना पकाने का एक आम उपादान है। इसकी कम लागत और तलने में उपयोग के समय परिष्कृत उत्पाद की उच्च जारणकारी स्थिरता (संतृप्ति) दुनिया के अन्य भागों में व्यावसायिक भोजन उद्योग में इसके बढ़ते उपयोग को प्रोत्साहित कर रही है।</t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="C150" t="n">
         <v>264</v>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>पिशाच</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>पिशाच काल्पनिक प्राणी है जो जीवित प्राणियों के जीवन-सार खाकर जीवित रहते हैं आमतौर पर उनका खून पीकर. हालांकि विशिष्ट रूप से इनका वर्णन मरे हुए किन्तु अलौकिक रूप से अनुप्राणित जीवों के रूप में किया गया, कुछ अप्रचलित परम्पराएं विश्वास करती थीं कि पिशाच (रक्त चूषक) जीवित लोग थे।
+लोककथाओं के अनुसार, पिशाच अक्सर अपने प्रियजनों से मिला करते थे और अपने जीवन-काल में जहां वे रहते थे वहां के पड़ोसियों के अनिष्ट अथवा उनकी मृत्यु के कारण बन जाते थे। वे कफ़न पहनते थे और उनके बारे में अक्सर यह कहा जाता था कि उनका चेहरा फूला हुआ और लाल या काला हुआ करता था। यह 19वीं सदी के शुरूआती दौर में आरंभ होने वाले आधुनिक काल्पनिक पिशाचों के मरियल, कांतिहीन चित्रण से स्पष्ट रूप से भिन्न था। हालांकि पिशाचीय सत्ता अनेक संस्कृतियों में मिलती है फिर भी पिशाच शब्द 18वीं सदी के आरंभ तक लोकप्रिय नहीं हुआ था। पश्चिमी यूरोप में पिशाच के अंधविश्वास का एक अन्तःप्रवाह चला जैसे कि बाल्कन प्रदेशों एवं पूर्वी यूरोप, में जनश्रुतियों में पिशाच की लोककथाएं बार-बार दुहराई जाती रहीं जबकि स्थानीय अंचलों में लोग पिशाच को अलग-अलग नामों से जानते थे, जैसे कि सर्बिया में वैम्पिर (вампир), ग्रीस में राइकोलाकस (vrykolakas) तथा रोमानिया में स्ट्रिगोई (strigoi). यूरोप में पिशाच अंध-विश्वास के बढ़े हुए स्तर से जन उन्माद उत्पन्न हुआ और कुछ मामलों में शवों को दांव पर लगा दिया गया तथा लोगों पर पैशाचिकी का आरोप लगाया जाने लगा।
+आजकल पिशाच आमतौर पर कल्पित सत्ता के रूप में समझे जाते हैं, हालांकि कुछ संस्कृतियों में इससे संबंधित प्राणियों जैसे कि 'छुपाकाबरा ' (chupacabra) में लोगों का विश्वास अभी भी कायम है। प्राक् औद्योगिक समाज में मृत्यु के पश्चात् शव के विघटन की प्रक्रिया के संबंध में पिशाचों में आरंभिक लोककथाओं के विश्वास का कारण अज्ञानता को ठहराया गया है। आनुवांशिक असामान्यता को भी 20वीं सदी में लोककथाओं की पैशाचिकी से जोड़ा जाता था जिसे मीडिया ने भरपूर उजागर किया, लेकिन इस कड़ी को उस समय से व्यापक रूप से बदनाम किया गया।
+सन् 1819 में जॉन पोलिडोरी कृत रचना द वैम्पायर के प्रकाशन के साथ ही आधुनिक कथा-जगत में करिश्माई और कृत्रिम पिशाच का आविर्भाव हुआ। यह कहानी काफी सफल रही और 19वीं सदी के आरंभ में निर्विवादित रूप से पिशाच पर सबसे सफल प्रभावशाली रचना मानी गई। हालांकि ब्रैम स्टोकर के सन् 1897 में प्रकाशित उपन्यास ड्रैकुला को सर्वोत्तम उपन्यास के रूप में याद किया जाता है जिसने पिशाच कथा-साहित्य की पृष्ठभूमि तैयार की। इस पुस्तक की सफलता ने पुस्तकों, फिल्मों, वीडियो गेम्स और टेलीविज़न शो के जरिए एक विशिष्ट पिशाच शैली को जन्म दिया जो 21वीं सदी में अब भी लोकप्रिय है। अपनी विशिष्ट संत्रास (भय) की शैली में पिशाच एक प्रभावशाली चरित्र है।</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>445</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>भारत २०१०</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>इन्हें भी देखें 
 2014 भारत 2014 विज्ञान एवं प्रौद्योगिकी 2014 साहित्य संगीत कला 2014 खेल जगत 2014</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="C152" t="n">
         <v>17</v>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>सामाजिक नेटवर्किंग सेवाएं</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>सामाजिक नेटवर्किंग सेवा एक ऑनलाइन सेवा, प्लेटफॉर्म या साइट होती है जो लोगों के बीच सामाजिक नेटवर्किंग अथवा सामाजिक संबंधों को बनाने अथवा उनको परिलक्षित करने पर केन्द्रित होती है, उदाहरण के लिए ऐसे व्यक्ति जिनकी रुचियां अथवा गतिविधियां समान होती हैं। एक सामाजिक नेटवर्किंग सेवा में अ उप आना५एमपी५
+निवार्य रूप से प्रत्येक प्रयोगकर्ता का निरूपण (अक्सर एक प्रोफ़ाइल), उसके सामाजिक संपर्क तथा कई अन्य अतिरिक्त सेवायें शामिल रहती हैं। अधिकांश सामाजिक नेटवर्किंग सेवायें वेब आधारित होती हैं और प्रयोगकर्ताओं को इन्टरनेट का प्रयोग करते हुए एक-दूसरे से संपर्क करने का साधन प्रदान करती हैं उदाहरण के रूप में ई-मेल तथा इंसटैंट मैसेजिंग. हालांकि ऑनलाइन समुदाय सेवाओं को भी कभी-कभी सामाजिक नेटवर्किंग सेवा माना जाता है। व्यापक अर्थ में, सामाजिक नेटवर्किंग सेवा व्यक्ति केंद्रित होती है जबकि ऑनलाइन समुदाय सेवा समूह केंद्रित होती हैं। सामाजिक नेटवर्किंग साइटें किसी प्रयोगकर्ता को अपने व्यक्तिगत नेटवर्किंग में विचारों, गतिविधियों, घटनाओं और उनके व्यक्तिगत रुचियों को बांटने की सुविधा देती हैं।
+सामाजिक नेटवर्किंग सेवाओं के मुख्य प्रकारों में श्रेणी स्थान (category places) होते हैं (पूर्व स्कूल वर्ष या सहपाठियों के रूप में), अपने मित्रों से जुड़ने की सुविधा (आमतौर पर अपने विवरण के पेज के द्वारा), तथा एक संस्तुति प्रणाली जो विश्वास पर आधारित होती है, सम्मिलित होती हैं। लोकप्रिय पद्धतियों में इनमें से कई सम्मिलित होती हैं, जैसे कि [[फेसबुक|फेसबुक]] तथा [[ट्विटर|ट्विटर]] का प्रयोग विश्व भर में विस्तृत रूप से होता है; माईस्पेस तथा [[लिंक्डइन|लिंक्डइन]] का प्रयोग उत्तरी अमेरिका में सर्वाधिक होता है; नेक्सोपिया (अधिकांशतः कनाडा में); बेबो, वीकोंटाक्टे, हाई5, हाइव्स (अधिकांशतः नीदरलैंड्स में), स्टडीवीज़ी (अधिकांशतः जर्मनी में), आईडब्ल्यूआईडब्ल्यू (अधिकांशतः हंगरी में), ट्यूनटी (अधिकांशतः स्पेन में), नासज़ा-क्लासा (अधिकांशतः पोलैंड में), डेकायेन, टैग्ड, जिंग, बाडू तथा स्काईरॉक यूरोप के भागों में; [[ऑर्कुट|[[ऑरकुट]]]] तथा हाई5 दक्षिण अमेरिका, भारत तथा मध्य अमेरिका में; तथा फ्रेंडस्टर, मिक्सी, मल्टीप्लाई, ऑरकुट, व्रेच, रेनरेन व साईवर्ल्ड एशिया तथा प्रशांतीय द्वीपों में एवं ट्विटर, फेसबुक, ऑरकुट व लिंक्डइन भारत में.
+इन सेवाओं के मानकीकरण के प्रयास किये गए ताकि मित्रों तथा रुचियों की प्रविष्टियों को दोहराए जाने की आवश्यकता से बचा जा सके (देखें एफओएएफ मानक तथा ओपन सोर्स पहल)
+हालांकि कुछ सबसे बड़े सामाजिक नेटवर्किंगों की स्थापना वास्तविक दुनिया के संबंधों के अंकीयकरण की अवधारणा पर आधारित थी, कई नेटवर्किंग किताबों और संगीत जैसी श्रेणियों से लेकर गैर-लाभ वाले व्यवसायों तथा मातृत्व जैसी श्रेणियों में सामान रूप से रूचि रखने वाले लोगों को सेवाएं तथा सामाजिकता प्रदान कराने पर केन्द्रित थीं।</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>392</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>बिहार में पर्यटन</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>बिहार में हिन्दू, मुसलमान,बुद्ध,जैन एवम सिख धर्म के अनेक महत्वपूर्ण तीर्थ स्थल है। इनमे गया ( हिन्दू ); मनेर एवम फुलवारी शरीफ ( मुसलमान ); राजगीर, वैशाली , बोध गया  ,नेचुआ जलालपुर एवं केसरिया  ( बुद्ध) ; पावापुरी ( जैन ) और पटना साहिब ( सिख ) ;गोल घर आदि उल्लेखनीय धार्मिक एवं भ्रमणीय स्थल है।</t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="C154" t="n">
         <v>56</v>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>हॉट डॉग</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>हॉट डॉग (फ्रैंकफर्टर, वीनर) अक्सर समान बनावट तथा विशिष्ट गंध युक्त मुलायम मांस के घोल[उद्धरण चाहिए] से बनाया जाने वाला एक नम सॉसेज है जिसमे विशेष रूप से गौमांस या सूअर के मांस का प्रयोग किया जाता है, हालांकि हाल ही में कुछ किस्मों में इनके स्थान पर चिकन या टर्की के मांस का भी प्रयोग किया गया है। अधिकांश किस्मों को पूरी तरह पकाया जाता है, उपचारित किया जाता है या धुएं में सुखाया जाता है।
 हॉट डॉग को अक्सर गर्म कर के हॉट डॉग बन के भीतर डाल कर परोसा जाता है, जो कि विशिष्ट मुलायम, कटे हुए बेलनाकार टुकड़े होते हैं। इन्हें सरसों, केचप, प्याज़, मेयोनीज़, स्वादानुसार कटी हुई सब्जियों, पनीर, बेकन (सूअर की पीठ तथा पुट्ठों का मांस), मिर्च या बंद गोभी के कटे हुए टुकड़ों से सजाया जा सकता है। कुछ हॉट डॉग मुलायम होते हैं जबकि कुछ ज्यादा पकाए गए (अपेक्षाकृत सख्त) होते हैं।</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="C155" t="n">
         <v>150</v>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>पुर्तगाली समुद्री कुत्ता</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>अमेरिकी केनेल क्लब द्वारा कामकाजी कुत्ते की नस्ल को पुर्तगाली समुद्री कुत्ता के रूप में वर्गीकृत किया गया है। पुर्तगाली समुद्री कुत्ते मूल रूप से पुर्तगाल के अल्गार्वे क्षेत्र के हैं, जहां से उनकी नस्ल पुर्तगाल के समुद्र तटीय इलाकों के आसपास फैलती चली गयी, यहां उन्हें मछुआरों के जाल में मछलियों को एकत्रित करना सिखाया गया; साथ ही जाल से निकल गयी मछलियों को फिर से प्राप्त करना और एक जहाज से दूसरे जहाज में या जहाज से किनारे तक कुरियर के रूप में काम करना भी सिखाया गया। पुर्तगाली समुद्री कुत्ते मछली पकड़ने वाले ट्रॉलर पर सवार होकर पुर्तगाल के अटलांटिक महासागर के गर्म पानी से आइसलैंड के बहुत अधिक ठंडे पानी में जाकर मछली पकड़ने के काम में मदद करने का काम किया करते हैं, जहां कॉड मछलियां पकड़ी जाती हैं।
+पुर्तगाली खोजों के दौरान पुर्तगाली समुद्री कुत्तों को नाविकों के साथ अक्सर ही ले जाया जाता था।
+पुर्तगाल में, इस नस्ल को काओ डि अगुआ (Cão de Água) (कोव-डी-अह-ग्वा (Kow-dee-Ah-gwa) उच्चारण किया जाता है; जिसका शाब्दिक अर्थ है "जल कुत्ता") कहा जाता है। इसकी स्थानीय भूमि में इसे अल्गार्वियन समुद्री कुत्ता ("काओ डि अगुआ अल्गार्वियो" (Cão de Água Algarvio)), या पुर्तगाली मच्छीमार कुत्ता (काओ पेस्काडोर पोर्तुगुएस (Cão Pescador Português)) के नाम से भी जाना जाता है। लहराते बालों की किस्म के लिए काओ डि अगुआ डि पेलो ओंडूलाडो (Cão de Água de Pêlo Ondulado) और घुंघराले बालों के किस्म के लिए काओ डि अगुआ डि पेलो एन्काराकोलाडो (Cão de Água de Pêlo Encaracolado) नाम दिये गये।
+पुर्तगाली समुद्री कुत्ता एक बहुत ही दुर्लभ नस्ल है; 2002 में इंग्लैंड की क्रफ्ट्स (Crufts) प्रतिस्पर्धा में पुर्तगाली समुद्री कुत्तों के केवल 15 प्रतियोगियों ने हिस्सा लिया था। कुछ प्रजनकों का दावा है कि वे हाइपोअलेर्जेनिक (hypoallergenic) नस्ल के कुत्ते हैं, हालांकि हाइपोअलेर्जेनिक नस्ल के कुत्तों के अस्तित्व के दावों के समर्थन में कोई वैज्ञानिक सबूत नहीं हैं। हालांकि, बाल नहीं झड़ने के उनके गुण ने उन्हें हाल के वर्षों में अधिक लोकप्रिय बना दिया है।</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>326</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>पजहस्सी राजा</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>केरल वर्मा पजहस्सी राजा (मलयालम: കേരളവര്മ്മ പഴശ്ശിരാജാ) (ई. सं. 3 जनवरी 1753 - ई. सं. 1805), केरल के स्वतंत्रता सेनानियों में सबसे अग्रणी तथा कोट्टयम शाही वंश के राजकुमार थे (अब यह क्षेत्र भारत के केरल के कन्नूर जिले में पड़ता है।)। उन्हें केरल सिंहम्  कहा जाता है। वे १७७४ से १८०५ तक कोट्टायम के राजा थे। ईस्ट इंडिया कंपनी के साथ उनका युद्ध कोटिओट युद्ध कहा जाता है। 
 सिंहासन पर उनके दावे के सिलसिले में उनसे ऊपर तीन वरिष्ठ राजा थे। हालांकि, जब मैसूर सेना ने मालाबार पर दूसरी बार कब्ज़ा किया (1773-1790) तब कोट्टयम शाही परिवार के सभी वरिष्ठ सदस्य त्रावणकोर भाग गए। पजहस्सी राजा ने कोट्टयम सेना से कहीं अधिक मजबूत मैसूरी आक्रमणकारियों के खिलाफ एक सुसंगठित छापामार लड़ाई का नेतृत्व किया। इस दौरान वे कोट्टयम में सबसे प्रभावशाली व्यक्ति के रूप में उभरे, क्योंकि जनता अपने प्रिय राजकुमार के साथ मजबूती से खड़ी हुई, जिसने उनकी विपत्ति में भी उनका साथ नहीं छोड़ा. उनके सैनिक नायर योद्धाओं तथा कुरिचियास और मुल्लुकुरुम्बास आदिवासियों के बीच से लिए गए थे।</t>
         </is>
       </c>
-      <c r="C112" t="n">
+      <c r="C157" t="n">
         <v>172</v>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>विश्वमारी</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>उन संक्रामक महामारियों को विश्वमारी (अंग्रेज़ी-pandemic) कहते हैं जो एक बहुत बड़े भूभाग (जैसे कई महाद्वीपों में) में फैल चुकी हो। यदि कोई रोग एक विस्तृत क्षेत्र में फैल हुआ हो किन्तु उससे प्रभावित लोगों की संख्या में वृद्धि न हो रही हो, तो उसे विश्वमारी नहीं कहा जाता।  इसके अलावा, फ्लू विश्वमारी के अन्दर उस फ्लू (flu) को शामिल नहीं किया जाता जो मौसमी किस्म के हो और बार-बार होते रहे हों।
 सम्पूर्ण इतिहास में चेचक और तपेदिक जैसी असंख्य विश्वमारियों का विवरण मिलता है। एचआईवी (HIV) और 2009 का फ्लू अधिक हाल की विश्वमारियों के उदाहरण हैं। हाल ही में १२ मार्च, २०२० को विश्व स्वास्थ्य संगठन ने कोरोनावायरस को विश्वमारी घोषित किया है। १४वीं शतब्दी में फैली 'ब्लैक डेथ' नामक विश्वमारी अब तक की सबसे बड़ी विश्वमारी थी जिससे अनुमानतः साढ़े सात करोड़ से लेकर २० करोड़ लोगों की मृत्यु हुई थी।</t>
         </is>
       </c>
-      <c r="C113" t="n">
+      <c r="C158" t="n">
         <v>145</v>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>गेहूँ के जवारे</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>जब गेहूं के बीज को अच्छी उपजाऊ जमीन में बोया जाता है तो कुछ ही दिनों में वह अंकुरित होकर बढ़ने लगता है और उसमें पत्तियां निकलने लगती है। जब यह अंकुर पांच-छह पत्तों का हो जाता है तो अंकुरित बीज का यह भाग  ज्वारा कहलाता है। औषधीय विज्ञान में गेहूं का यह ज्वारा काफी उपयोगी सिद्ध हुआ है। गेहूं के ज्वारे का रस कैंसर जैसे कई रोगों से लड़ने की क्षमता रखता है।
 प्रकृति ने हमें स्वस्थ, ऊर्जावान, निरोगी और आयुष्मान रहने के लिए हमें अनेक प्रकार के पौष्टिक फल, फूल, मेवे, तरकारियां, जड़ी-बूटियां, मसाले, शहद और अन्य खाद्यान्न दिये हैं। ऐसा ही एक संजीवनी का बूटा है गेहूँ का ज्वारा। इसका वानस्पतिक नाम “ट्रिटिकम वेस्टिकम” है। डॉ॰ एन विग्मोर ज्वारे के रस को “हरित रक्त” कहती है। इसे गेहूँ का ज्वारा या घास कहना ठीक नहीं होगा। यह वास्तव में अंकुरित गेहूँ है। 
 गेहूँ का ज्वारा एक सजीव, सुपाच्य, पौष्टिक और संपूर्ण आहार है। इसमें भरपूर क्लोरोफिल, किण्वक (एंजाइम्स), अमाइनो एसिड्स, शर्करा, वसा, विटामिन और खनिज होते हैं। क्लोरोफिल सूर्यप्रकाश का पहला उत्पाद है अतः इसमें सबसे ज्यादा सूर्य की ऊर्जा होती है और भरपूर ऑक्सीजन भी।</t>
         </is>
       </c>
-      <c r="C114" t="n">
+      <c r="C159" t="n">
         <v>189</v>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>अफ्रीकी-अमेरिकी नागरिक अधिकार आंदोलन (1955–1968)</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>अफ्रीकी-अमेरिकी नागरिक अधिकार आंदोलन (1955-1968) को संयुक्त राज्य के उस आंदोलन के लिए सन्दर्भित किया जाता है, जिसका उद्देश्य अफ्रीकी-अमेरिकी लोगों के खिलाफ नस्लीय भेदभाव को गैर-कानूनी घोषित करना और दक्षिणी देशों में मतदान अधिकार को पुनः स्थापित करना था। 1954 और 1968 के बीच ये आंदोलन हुआ था, विशेष रूप से दक्षिण में। 1966 तक, अश्वेत शक्ति आंदोलन का उद्भव हुआ, जो कि मोटे तौर पर 1966 से 1975 तक चला, इसमें नागरिक अधिकार आंदोलन के उद्देश्यों को बृहत् बनाया गया और नस्लीय गौरव, आर्थिक और राजनीतिक आत्मनिर्भरता और गोरे अमेरिकियों द्वारा उत्पीड़न से मुक्ति पाई गई थी। 
+NAACP, SNCC, CORE और SCLC जैसे संगठनों के साथ कई लोग जो नागरिक अधिकार आंदोलन में सक्रिय थे, उन्होंने "दक्षिणी स्वतंत्रता आन्दोलन" को तवज्जो दी क्योंकि यह केवल कानून के तहत नागरिक आधिकार के लिए संघर्ष नहीं था बल्कि यह स्वतंत्रता, सम्मान, गरिमा और आर्थिक और सामाजिक समानता जैसे बुनियादी मुद्दों का संघर्ष था।
+यह आंदोलन प्रमुख नागरिक प्रतिरोध के अभियानों द्वारा चिह्नित हुआ। 1955-1968 की अवधि के दौरान, अहिंसात्मक विरोध और नागरिक अवज्ञा के अधिनियम ने कार्यकर्ताओं और सरकारी अधिकारियों के बीच संकट की स्थिति उत्पन्न की. संघ, राज्य और स्थानीय सरकार, व्यापार और समुदायों को संकट की स्थितियों में अक्सर त्वरित प्रतिक्रिया करनी पड़ती थी जिसने अफ्रीकी अमेरिकियों द्वारा सही जा रही विषमताओं को उजागर किया। विरोध के तरीकों और/या नागरिक अवज्ञा में शामिल था बहिष्कार, जैसे अल्बामा में सफलता प्राप्त मोंटगोमरी बस बॉयकॉट (1955-1956); "सिट्स-इन" जैसे कि उत्तरी कैरोलिना में प्रभावशाली ग्रींसबोरो सिट-इन्स (1960); जूलुस जैसे कि अल्बामा में सेल्मा से मांटगोमेरी के लिए मार्च (1965); और अन्य अहिंसक गतिविधियों की एक विस्तृत श्रृंखला.
+नागरिक अधिकार आंदोलन के इस चरण के दौरान पारित होने वाली प्रसिद्घ विधायी उपलब्धियों में था 1964 का नागरिक अधिकार अधिनियम, जिसने रोजगार प्रथाओं और सार्वजनिक स्थानों में "जाति, रंग, धर्म, या राष्ट्रीय मूल" के आधार पर भेदभाव को प्रतिबंधित किया; 1965 का मतदान के अधिकार में, मतदान अधिकार को पुनः स्थापित और सुरक्षित किया; 1965 के अधिनियम के तहत आव्रजन और राष्ट्रीयता सेवा, जिसने नाटकीय रूप से परम्परागत यूरोपियाई समूहों के अलावा अन्य अप्रवासियों के लिए अमेरिका का दरवाजा खोला गया; 1968 के फेयर हाउसिंग अधिनियम, जिसके तहत भेदभाव के आधार पर घरों की बिक्री या किराया पर प्रतिबंध लगाया जाना शामिल है। अफ्रीकी अमेरिकियों ने फिर से दक्षिण में राजनीति में प्रवेश किया और देश भर में युवा लोग इससे काफी प्रेरित थे।</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>391</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>अभिप्रेरणा</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>अभिप्रेरणा लक्ष्य-आधारित व्यवहार का उत्प्रेरण या उर्जाकरण है। अभिप्रेरणा या प्रेरणा आंतरिक या बाह्य हो सकती है। इस शब्द का इस्तेमाल आमतौर पर इंसानों के लिए किया जाता है, लेकिन सैद्धांतिक रूप से, पशुओं के बर्ताव के कारणों की व्याख्या के लिए भी इसका इस्तेमाल किया जा सकता है। इस आलेख का संदर्भ मानव अभिप्रेरणा है। विभिन्न सिद्धांतों के अनुसार, बुनियादी ज़रूरतों में शारीरिक दुःख-दर्द को कम करने और सुख को अधिकतम बनाने के मूल में अभिप्रेरणा हो सकती है, या इसमें भोजन और आराम जैसी खास ज़रूरतों को शामिल किया जा सकता है; या एक अभिलषित वस्तु, शौक, लक्ष्य, अस्तित्व की दशा, आदर्श, को शामिल किया जा सकता है, या इनसे भी कमतर कारणों जैसे परोपकारिता, नैतिकता, या म्रत्यु संख्या से बचने को भी इसमें आरोपित किया जा सकता है।</t>
         </is>
       </c>
-      <c r="C115" t="n">
+      <c r="C161" t="n">
         <v>131</v>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>बफ़ेलो, न्यूयॉर्क</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>न्यूयॉर्क राज्य में [[न्यूयॉर्क नगर|न्यूयॉर्क सिटी ]] के बाद सर्वाधिक आबादी वाला शहर बफ़ेलो (उच्चारण सहायता /ˈbʌfəloʊ/) है। बफ़ेलो पश्चिमी न्यूयॉर्क में एरी झील के पूर्वी तट पर तथा फ़ोर्ट एरी, ओंटेरियो के सामने नियाग्रा नदी के निकट स्थित है और नियाग्रा फॉल्स महानगरीय क्षेत्र का प्रमुख शहर होने के साथ साथ एरी काउंटी का मुख्यालय भी है। इस शहर की जनसंख्या 292,648 (2000 की जनगणना के अनुसार) है तथा बफ़ेलो -नियाग्रा-केटेरेगस संयुक्त सांख्यिकीय क्षेत्र की आबादी 1,254,066 है। 
+1789 के आसपास बफ़ेलो नामक खाड़ी के पास एक छोटे से व्यापारिक समुदाय के रूप में आरम्भ होकर 1825 में एरी नहर शुरू होने के बाद इसके पश्चिमी सिरे पर बफ़ेलो शहर ने तेजी से विकास किया। सन् 1900 तक बफ़ेलो देश का 8वाँ सबसे बड़ा शहर था। बाद में यह एक प्रमुख रेलमार्ग केन्द्र बना. इसके बाद यह देश की अनाज मिलों का सबसे बड़ा केंद्र तथा दुनिया का सबसे बड़ा इस्पात बनाने वाला शहर बन गया। 20 वीं सदी के उत्तरार्द्ध में इसके भाग्य ने पलटा खाया- सेंट लॉरेंस समुद्र-मार्ग खुलने के बाद ग्रेट लेक्स नौवहन मार्ग को बदल दिया गया तथा इस्पात कारखाने और अन्य भारी उद्योग चीन जैसे अन्य स्थानों पर चले गये। 1970 के दशक में एमट्रैक की शुरुआत के साथ, बफ़ेलो केंद्रीय टर्मिनल भी बंद कर दिया गया और गाड़ियों के मार्ग पास के डेप्यू, न्यूयॉर्क (बफ़ेलो -डेप्यू) तथा एक्सचेंज स्ट्रीट स्टेशन होकर परिवर्तित कर दिये गये। 1990 तक यह शहर अपनी 1900 की आबादी के स्तर से भी नीचे पहुँच गया था।
+आज स्वास्थ्य सेवा और शिक्षा इस प्रदेश के सबसे बड़े आर्थिक क्षेत्र हैं जो राष्ट्रीय एवं विश्वव्यापी अर्थव्यवस्थाओं के पिछड़ने के बावजूद लगातार विकास कर रहे हैं। बफ़ेलो स्थित बफ़ेलो नियाग्रा मेडिकल कैम्पस तथा विश्वविद्यालय के बड़े विस्तार ने आंशिक रूप से इस विकास को कायम रखा है। इसके अतिरिक्त कम करों और कमजोर अमेरिकी डॉलर का लाभ उठाने की इच्छा से कनाडाई खरीदारों की लगातार आवक की वजह से अर्थव्यवस्था का खुदरा क्षेत्र मजबूत बना हुआ है। एक ताजा अध्ययन से पता चला है कि बफ़ेलो की बेरोजगारी दर न्यूयॉर्क राज्य और राष्ट्रीय औसत, दोनों से कम है। जीवन-यापन की दृष्टि से बफ़ेलो को 2010 में फोर्ब्स की सूची में 10वाँ स्थान दिया गया है।</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>364</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>कोविड-19 का टीका</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>कोविड-19 का टीका से आशय उन टीकों से है जो कोरोनावायरस रोग 2019 (COVID। 19) उत्पन्न करने वाले SARS‑CoV‑2 नामक विषाणु के खिलाफ उपार्जित प्रतिक्षमता प्रदान कर सकें। फरवरी २०२१ में, ६६ टीके चिकित्सीय अनुसन्धान की अवस्था में हैं, जिनमें से १७ प्रथम चरण में, २३ प्रथम-द्वितीय चरण में, ६ द्वितीय चरण में, और २० टीके तृतीय चरण में हैं। चार अन्य टीकों का ट्रायल समाप्त किया जा चुका है।
 फरवरी 2020 में, विश्व स्वास्थ्य संगठन (WHO) ने कहा कि कोविड-१९ का टीका 18 महीने से कम समय में उपलब्ध होने की उम्मीद नहीं  की जा सकती।  किसी नई  महामारी  के  टीके की तैयारी के नवाचारों का  गठबंधन (CEPI) (The Coalition for Epidemic Preparedness Innovations ) जो वैक्सीन उम्मीदवारों के तेजी से विकास के लिए दुनिया भर में US$2 बिलियन  फंड आयोजित कर रहा है    अप्रैल में संकेत दिया गया कि 12 महीने से कम या 2021 की शुरुआत में आपातकालीन उपयोग  के लिए  इसका  टीका उपलब्ध हो सकता है।  4  मई 2020 को WHO ने COVID-19 संक्रमण को रोकने के लिए और  टीकों के तेजी से विकास का समर्थन करने के लिए चालीस देशों से US$8 बिलियन जुटाने के लिए एक टेलीथॉन (televised fundraising event )का आयोजन किया,  साथ ही कई वैक्सीन उम्मीदवारों के एक साथ मूल्यांकन के लिए चरण II-III नैदानिक परीक्षण के नाम से एक अंतर्राष्ट्रीय "सॉलिडैरिटी ट्रायल" की तैनाती की घोषणा की,  ।  
@@ -2922,22 +4017,22 @@
 8 दिसंबर 2020 को, मार्गरेट कीनन नामक एक 90 वर्षीय उत्तरी आयरिश महिला पहली महिला बनी, जिसे ट्रायल के बाहर एक टीका लगाया गया, जिसे यूनिवर्सिटी अस्पताल कोवेंट्री में टीका लगाया गया था।</t>
         </is>
       </c>
-      <c r="C116" t="n">
+      <c r="C163" t="n">
         <v>291</v>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t>वेलोसिरैप्टर</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>वेलोसिरैप्टर (/ वी 'लासी 'रैप्टर /; जिसका अर्थ लातिन में "स्विफ्ट सीज़र" है)  ड्रमियोसोराइड्स थेरोपोड डायनासॉर का एक वंश है जो क्रिटेशस अवधि के बाद के दौरान लगभग ७५ से ७१ मिलियन वर्ष पहले रहता था। दो प्रजातियां वर्तमान में मान्यता प्राप्त हैं, हालांकि अन्य को अतीत में सौंपा गया है। इस प्रकार की प्रजातियां वी. मोंगोलिएंसिस हैं; मंगोलिया में इस प्रजाति के जीवाश्मों की खोज की गई है एक दूसरी प्रजाति, वी. ओस्मोल्स्की, को २००८ में इनर मंगोलिया, चीन से खोपड़ी सामग्री के लिए नामित किया गया था।
 डीनोनीचस और एचिल्लोबेटर  की तरह अन्य ड्रमियोसोराइड्स की तुलना में छोटे, वेलोसिरैप्टर ने एक ही शारीरिक विशेषताओं के कई साझा दे रही है।
@@ -2949,91 +4044,185 @@
 एक विशेष रूप से प्रसिद्ध नमूना एक प्रोटोसिरटॉप्स के साथ लड़ाई में एक वेलोकिरापोर लॉक रखता है।</t>
         </is>
       </c>
-      <c r="C117" t="n">
+      <c r="C164" t="n">
         <v>287</v>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>यूनाइटेड स्टेट्स डिपार्टमेंट ऑफ़ स्टेट</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>यूनाइटेड स्टेट्स डिपार्टमेंट ऑफ़ स्टेट (DOS), या स्टेट डिपार्टमेंट, अमेरिकी संघीय सरकार का एक कार्यकारी विभाग है जो देश की विदेश नीति और अंतर्राष्ट्रीय संबंधों के लिए जिम्मेदार है।  अन्य देशों के विदेश मामलों के मंत्रालय के समतुल्य, इसके प्राथमिक कर्तव्य अमेरिकी राष्ट्रपति को सलाह देना, राजनयिक मिशनों का प्रशासन करना, अंतर्राष्ट्रीय संधियों और समझौतों पर बातचीत करना और संयुक्त राष्ट्र में यू.एस. का प्रतिनिधित्व करना है। विभाग का मुख्यालय हैरी एस ट्रूमैन बिल्डिंग में, व्हाइट हाउस से कुछ ब्लॉक, वाशिंगटन, डीसी के धूमिल तल में स्थित है;  इस प्रकार "फोगी बॉटम" को कभी-कभी एक नाम के रूप में प्रयोग किया जाता है।
+अमेरिकी कार्यकारी शाखा की पहली प्रशासनिक शाखा के रूप में 1789 में स्थापित, विदेश विभाग को सबसे शक्तिशाली और प्रतिष्ठित कार्यकारी एजेंसियों में से एक माना जाता है।  इसका नेतृत्व राज्य सचिव करता है, जो सीधे अमेरिकी राष्ट्रपति को रिपोर्ट करता है और राष्ट्रपति के कैबिनेट का सदस्य होता है।  एक विदेश मंत्री के अनुरूप, राज्य के सचिव विदेश में संघीय सरकार के मुख्य राजनयिक और प्रतिनिधि के रूप में कार्य करते हैं, और वरीयता के क्रम में और उत्तराधिकार की राष्ट्रपति पंक्ति में पहले कैबिनेट अधिकारी हैं।  यह पद वर्तमान में एंटनी ब्लिंकन के पास है, जिन्हें राष्ट्रपति जो बिडेन द्वारा नियुक्त किया गया था और सीनेट द्वारा 26 जनवरी, 2021 को 78-22 के वोट से पुष्टि की गई थी।
+2019 तक, विदेश विभाग के पास दुनिया भर में 273 राजनयिक पद हैं, जो चीन के विदेश मंत्रालय के बाद दूसरे स्थान पर है। यह अमेरिकी विदेश सेवा का प्रबंधन भी करता है, अमेरिकी अधिकारियों और सैन्य कर्मियों को राजनयिक प्रशिक्षण प्रदान करता है, आप्रवासन पर आंशिक अधिकार क्षेत्र का प्रयोग करता है, और अमेरिकियों को पासपोर्ट और वीजा जारी करने, विदेश यात्रा सलाह पोस्ट करने और विदेशों में वाणिज्यिक संबंधों को आगे बढ़ाने जैसी विभिन्न सेवाएं प्रदान करता है।  विभाग सबसे पुरानी अमेरिकी नागरिक खुफिया एजेंसी, इंटेलिजेंस एंड रिसर्च ब्यूरो का प्रबंधन करता है, और एक कानून प्रवर्तन शाखा, राजनयिक सुरक्षा सेवा का रखरखाव करता है।</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>331</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ऑफ़शोरिंग</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ऑफ़शोर  शब्द समुद्र में तेल और प्राकृतिक गैस के उत्पादन को निर्दिष्ट कर सकता है ; देखें ऑइल प्लैटफ़ॉर्म. फ़िलीपीन आउटसोर्सिंग कंपनी के लिए देखें, Offshoring Inc.
+ऑफ़शोरिंग, एक कंपनी द्वारा व्यापारिक प्रक्रिया को एक देश से दूसरे देश में स्थानान्तरित करने को वर्णित करता है - आम तौर पर परिचलनात्मक प्रक्रिया को, जैसे विनिर्माण, या सहयोगी प्रक्रियाओं को, जैसे लेखांकन. यहां तक कि राज्य सरकारें भी ऑफ़शोरिंग का उपयोग करती हैं।
+यह शब्द कई अलग लेकिन घनिष्ट रूप से संबंधित तरीकों से प्रयोग में लाया जाता है। कभी-कभी इसे व्यापक अर्थ में किसी विदेशी स्रोत से ऐसी सेवा के विकल्प के रूप में इस्तेमाल किया जाता है जो पहले फर्म में आंतरिक रूप से प्रदान की जा रही थी। अन्य मामलों में, इसमें केवल अपनी सहयोगी इकाई या घनिष्ट रूप से जुड़े अन्य आपूर्तिकर्ताओं से आयातित सेवाएं शामिल हैं। एक और उलझन है कि आंशिक रूप से तैयार कंप्यूटर जैसे मध्यवर्ती माल, इस शब्द के दायरे में सुसंगत रूप से शामिल नहीं किए जाते हैं। "रीशोरिंग" (कभी-कभी "बैकशोरिंग") वह ऑफ़शोरिंग है जिसे वापस तट पर लाया गया है।
+ऑफ़शोरिंग को या तो उत्पादन ऑफ़शोरिंग या सेवाओं के ऑफ़शोरिंग के संदर्भ में देखा जा सकता है। 2001 में विश्व व्यापार संगठन (WTO) में उसके परिग्रहण के बाद, चीनी जनवादी गणतंत्र उत्पादन ऑफ़शोरिंग के प्रमुख गंतव्य के रूप में उभरा. दूरसंचार में प्रौद्योगिकी प्रगति द्वारा सेवाओं के व्यापार की संभावनाओं में सुधार के बाद, भारत इस क्षेत्र में अग्रणी देश बना हालांकि अब दुनिया के कई देश ऑफ़शोरिंग गंतव्य के रूप में उभर रहे हैं।
+इसका आर्थिक तर्क लागत को कम करना है। अगर कुछ लोग औरों की तुलना में अपना कौशल अधिक सस्ते दामों में दे सकते हैं, तो उन लोगों को तुलनात्मक लाभ मिलता है। इसके पीछे विचार यह है कि देश स्वतंत्र रूप से उन वस्तुओं का व्यापार करें जिनके उत्पादन में उन्हें न्यूनतम लागत आती है।</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>309</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>तेलुगु ईसाई</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>तेलुगु ईसाई या तेलुगु क्रिस्टवा एक धार्मिक समुदाय है जो भारतीय राज्यों आंध्र प्रदेश और तेलंगाना में तीसरा सबसे बड़ा धार्मिक अल्पसंख्यक है। भारत की जनगणना के अनुसार, आंध्र प्रदेश में दस लाख से अधिक ईसाई हैं, जो राज्य की आबादी का १.५१% है, हालांकि कम जन्म दर और उत्प्रवास के परिणामस्वरूप १९७१ की जनगणना के आंकड़े में २% की कमी आई है। अधिकांश तेलुगु ईसाई प्रोटेस्टेंट हैं, जो दक्षिण भारत के प्रमुख एंग्लिकन चर्च जैसे प्रमुख भारतीय प्रोटेस्टेंट संप्रदायों से संबंधित हैं, पेंटेकोस्टल जैसे कि भारत में भगवान की सभाएं, भारत पेंटेकोस्टल चर्च ऑफ गॉड, द पेंटेकोस्टल मिशन, आंध्र इवेंजेलिकल लूथरन चर्च, समवेसम ऑफ गॉड तेलुगु बैपटिस्ट चर्च, साल्वेशन आर्मी और कई अन्य। रोमन कैथोलिक और इवेंजेलिकल की भी एक महत्वपूर्ण संख्या है। हालांकि रोमन कैथोलिक चर्च के फ़्रैंचिसन १५३५ में ईसाई धर्म को डेक्कन क्षेत्र में लाए, लेकिन १७५९ ईस्वी के बाद ही, जब उत्तरी सरकार ईस्ट इंडिया कंपनी के शासन में आ गई, तब यह क्षेत्र अधिक ईसाई प्रभाव के लिए खुल गया। आंध्र प्रदेश में पहले प्रोटेस्टेंट मिशनरी रेव. क्रैन और रेव। डेस ग्रेंज जिन्हें लंदन मिशनरी सोसाइटी द्वारा भेजा गया था। उन्होंने १८०५ ईस्वी में विशाखापत्तनम में अपना स्टेशन स्थापित किया। तेलुगु ईसाइयों की महत्वपूर्ण आबादी वाले क्षेत्रों में तत्कालीन उत्तरी सरकार, तटीय बेल्ट और हैदराबाद और सिकंदराबाद के शहर शामिल हैं। तेलुगु ईसाइयों के पास उच्चतम साक्षरता और कार्य भागीदारी के आंकड़े हैं और राज्य में विभिन्न धार्मिक समुदायों के बीच सबसे अधिक पुरुष-से-महिला अनुपात के आंकड़े भी हैं।</t>
         </is>
       </c>
-      <c r="C118" t="n">
+      <c r="C167" t="n">
         <v>245</v>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>पोरायमोस</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>रोमानी होलोकॉस्ट या रोमानी नरसंहार जिसे पोरायमोस के नाम से भी जाना जाता है (रोमानी: Porajmos, अर्थात भक्षण) नाज़ी जर्मनी और उसके द्वितीय विश्व युद्ध के सहयोगियों द्वारा किया गया प्रयास था जिसमें नरसंहार के दौरान जातीय सफाई और अंततः यूरोप के रोमानी लोगों (सिंटि सहित) के खिलाफ नरसंहार किया।
+एडॉल्फ हिटलर के तहत नूर्नबर्ग कानूनों के लिए एक पूरक हुक्मनामा २६ नवंबर १९३५ को जारी की गई थी जिसमें रोमानी को जाति-आधारित राज्य के दुश्मन के रूप में वर्गीकृत किया गया था, जिससे उन्हें यहूदियों के समान श्रेणी में रखा गया था। इस प्रकार यूरोप में रोमा का भाग्य होलोकॉस्ट में यहूदियों के समान था।
+इतिहासकारों का अनुमान है कि २,५०,००० और ५,००,००० के बीच रोमानी और सिंटि जर्मन और उनके सहयोगियों द्वारा मारे गए थे - जो उस समय यूरोप में १० लाख से थोड़ा कम रोमा के अनुमान के २५% से लेकर ५०% से अधिक थे। बाद में आयन हैनकॉक द्वारा उद्धृत शोध में मरने वालों की संख्या २० लाख में से लगभग १५ लाख होने का अनुमान लगाया गया था।
+१९८२ में पश्चिम जर्मनी ने औपचारिक रूप से मान्यता दी कि जर्मनी ने रोमानी के खिलाफ नरसंहार किया था। २०११ में पोलैंड ने आधिकारिक तौर पर २ अगस्त को रोमानी नरसंहार के स्मरणोत्सव के दिन के रूप में अपनाया।
+नाज़ी राज्य के भीतर पहले उत्पीड़न, फिर विनाश, मुख्य रूप से स्थिर आवारे जिप्सी के ऊपर केंद्रित था। दिसंबर १९४२ में हिम्मलर ने तथाकथित ग्रेटर जर्मन राइख से सभी रोमा के निर्वासन का आदेश दिया, और अधिकांश को आऊशविट्स-बिरकेनौ में विशेष रूप से स्थापित जिप्सी शिविर में भेज दिया गया। अन्य रोमा को वहाँ के कब्जे वाले पश्चिमी यूरोपीय क्षेत्रों से हटा दिया गया था। वहाँ भेजे गए २३,००० रोमा और सिंटि में से लगभग २१,००० जीवित नहीं रहे। व्यवस्थित पंजीकरण की पहुँच से बाहर के क्षेत्रों में उदाहरण के लिए पूर्वी और दक्षिणपूर्वी यूरोप के जर्मन कब्जे वाले क्षेत्रों में जिन रोमाओं को सबसे अधिक खतरा था, वे वो थे जो जर्मन फैसले में आवारे थे, हालांकि कुछ वास्तव में शरणार्थी या विस्थापित थे व्यक्तियों। यहाँ वे मुख्य रूप से जर्मन सेना और पुलिस संरचनाओं के साथ-साथ एसएस कार्यदल और नाज़ी कब्जे के खिलाफ सशस्त्र प्रतिरोध में नरसंहार में मारे गए थे।</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>366</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>बेंगलुरु</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>बेंगलूरु (Bengaluru), जिसका पूर्व नाम बंगलूर या बैंगलोर (Bangalore) भी अनाधिकारिक रूप से प्रचलित हैं, भारत के कर्नाटक राज्य की राजधानी है और भारत का तीसरा सबसे बड़ा नगर और पाँचवा सबसे बड़ा महानगरीय क्षेत्र है। बेंगलूरु नगर की जनसंख्या 84 लाख है और इसके महानगरीय क्षेत्र की जनसंख्या 89 लाख है। दक्षिण भारत में दक्कन के पठार पर 900 मीटर की औसत ऊँचाई पर स्थित यह नगर अपने साल भर के सुहाने मौसम के लिए जाना जाता है, और लोकसंस्कृति में "भारत का उद्यान नगर" का उपनाम रखता है। भारत के महानगरों में इसकी ऊँचाई सर्वाधिक है। देश की अग्रणी सूचना प्रौद्योगिकी (IT) निर्यातक के रूप में अपनी भूमिका के कारण बेंगलुरु को व्यापक रूप से भारत की सिलिकॉन वैली या भारत की आईटी राजधानी के रूप में माना जाता है।</t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="C169" t="n">
         <v>132</v>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>मेसोअमेरिकी</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>मेसोअमेरिका या मेसो-अमेरिका (स्पेनी: Mesoamérica) अमेरिका का एक क्षेत्र एवं सांस्कृतिक प्रान्त है, जो केन्द्रीय मैक्सिको से लगभग बेलाइज, ग्वाटेमाला, एल सल्वाडोर, हौंड्यूरॉस, निकारागुआ और कॉस्टा रिका तक फैला हुआ है, जिसके अन्दर 16वीं और 17वीं शताब्दी में, अमेरिका के स्पैनिश उपनिवेशवाद से पूर्व कई पूर्व कोलंबियाई समाज फलफूल रहे थे।
 इस क्षेत्र के प्रागैतिहासिक समूह, कृषि ग्रामों तथा बड़ी औपचारिक व राजनैतिक-धार्मिक राजधानियों द्वारा वर्णित हैं। यह सांस्कृतिक क्षेत्र अमेरिका की कुछ सर्वाधिक जटिल और उन्नत संस्कृतियों जैसे, ऑल्मेक, ज़ैपोटेक, टियोतिहुआकैन, माया, मिक्सटेक, टोटोनाक और एज़्टेक को शामिल करता है।</t>
         </is>
       </c>
-      <c r="C120" t="n">
+      <c r="C170" t="n">
         <v>91</v>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>परंपरागत</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>वेटिंग फ़ॉर गोडोट</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>वेटिंग फॉर गोडोट  ( /ˈɡɒdoʊ/ GOD-oh) शमूएल बेकेट द्वारा रचित एक बेतुका नाटक है, जिसमें दो मुख्य पात्र व्लादिमीर और एस्ट्रागन एक अन्य काल्पनिक पात्र गोडोट के आने की अंतहीन व निष्फल प्रतीक्षा करते हैं। इस नाटक के प्रीमियर से अब तक गोडोट की अनुपस्थिति व अन्य पहलुओं को लेकर अनेक व्याख्यायें की जा चुकी हैं। इसे "बीसवीं सदी का सबसे प्रभावशाली अंग्रेजी भाषा का नाटक" भी बुलाया जा चुका है। असल में वेटिंग फॉर गोडोट बेकेट के ही फ्रेंच नाटक एन अटेंडेंट गोडोट  का उनके स्वयं के द्वारा ही किया गया अंग्रेजी अनुवाद है तथा अंग्रेजी में इसे दो भागों की त्रासदी-कॉमेडी का उप-शीर्षक दिया गया है". फ्रेंच मूल रचना 9 अक्टूबर 1948 व 29 जनवरी 1949 के बीच की गई। इसका स्टेज प्रीमियर 5 जनवरी 1953 को पेरिस के थियेटर डि बाबिलॉन नामक थियेटर में हुआ। इसके निर्माता रॉजर ब्लिन थे, जिन्होनें इसमें पोज़ो की भूमिका भी अदा की.</t>
         </is>
       </c>
-      <c r="C121" t="n">
+      <c r="C171" t="n">
         <v>151</v>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>परंपरागत</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>खेल द्वारा शिक्षा</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>खेल, बच्चे की स्वाभाविक क्रिया है। भिन्न-भिन्न आयु वर्ग के बच्चे विभिन्न प्रकार के खेल खेलते हैं। ये विभिन्न प्रकार के खेल बच्चों के समपूर्ण विकास में सहायक होते हैं। खेल से बच्चों का शारीरिक विकास, संज्ञानात्मक विकास, संवेगात्मक विकास, सामाजिक विकास एवम् नैतिक विकास को बढ़ावा मिलता है किन्तु अभिभावकों की राजू पान  भंडार के प्रति नकारात्मक अभिवृत्ति एवम् क्रियाकलाप ने बुरी तरह प्रभावित किया हैं। अतः यह अनिवार्य है कि शिक्षक और माता-पिता खेल के महत्व को समझें।
+खेलों के प्रकारों में अन्वेषणात्मक खेल, संरचनात्मक खेल, काल्पनिक खेल और नियमबद्ध खेल शामिल हैं। खेलों में सांस्कृतिक विभिन्नताएं भी देखी जाती हैं। 
+खेल से मनुष्य की मनोवैज्ञानिक जरूरतें पूरी होती हैं तथा वह मनुष्य को सामाजिक कौशलों के विकास का भी अवसर देता है। पियाजे के अनुसार खेल बच्चों की मानसिक क्षमताओं के विकास में भी एक बड़ी भूमिका निभाते हैं। पहले चरण में बच्चा वस्तुओं के साथ संवेदन प्राप्त करने व कार्य संचालन करने का प्रयास करता है। दूसरे चरण में बच्चा कल्पनाओं को रूप देने के लिए वस्तुओं को किसी के प्रतीक के रूप में उपयोग करने लगता है। अन्तिम चरण में (7 से 11 वर्ष) काल्पनिक भूमिकाओं के खेलों की तुलना में बच्चा नियमबद्ध खेल (या क्रीड़ाओं) में संलग्न रहता है। खेलों से तार्किक क्षमता व स्कूल सम्बन्धी कौशलों को विकसित होने में मदद मिलती है।
+वाइगोत्स्की के अनुसार - जटिल भूमिकाओं वाले खेलों में बच्चों का अपने व्यवहार को संगठित करने का बेहतर व सुरक्षित अवसर मिलता है जो वास्तविक स्थितियों में नहीं मिलता। इस तरह खेल बच्चे के लिए निकट विकास का क्षेत्र बनाते है। स्कूली स्थिति की तुलना में खेल के दौरान बच्चों की एकाग्रता, स्मृति आदि उच्चतर स्तर पर काम करती हैं। खेल में बच्चे की नई विकासमान दक्षताएँ पहले उभर कर आती हैं। खेल-नाटकों में बच्चा अपने आन्तरिक विचार के अनुसार काम करता है और मूर्त रूप में दिखने वाली वस्तुओं से बँधा नहीं रहता। यहीं से उसमें अमूर्त चिन्तन व विचार करने की तैयारी होने लगती है। यह लेखन की भी तैयारी होती है क्योंकि लिखित रूप में शब्द वस्तु जैसा नहीं होता, उसके विचार का प्रतीक होता है।
+जितनी उम्र तक खेल में जटिल और विस्तृत भूमिकाओं व भाषा का प्रयोग होता है वह बच्चे के विकास के लिए एक प्रमुख गतिविधि बना रहता है। यह स्थिति 10-11 साल तक के बच्चों में काम रह सकती है। धीरे-धीरे इसका महत्व कम होने लगता है। शिक्षक बच्चों को खेलने का पर्याप्त समय व साधन देकर विषयों का सुझाव देकर, झगड़ों का समाधान करके खेल को और समृद्ध बना सकते हैं।</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>420</v>
+      </c>
+      <c r="D172" t="inlineStr">
         <is>
           <t>परंपरागत</t>
         </is>
